--- a/docs/SVE_card_list.xlsx
+++ b/docs/SVE_card_list.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N617"/>
+  <dimension ref="A1:O617"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,6 +492,11 @@
           <t>Q&amp;A</t>
         </is>
       </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>卡牌名称翻译</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -564,7 +569,11 @@
           <t xml:space="preserve">BP02-002 BP02-T01 </t>
         </is>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>冰晶公主‧蒂亚</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -639,6 +648,11 @@
           <t xml:space="preserve">275 </t>
         </is>
       </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>冰晶公主‧蒂亚</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -709,6 +723,11 @@
           <t xml:space="preserve">276 </t>
         </is>
       </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>远古之森的白狼</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -776,6 +795,11 @@
       <c r="N5" t="inlineStr">
         <is>
           <t xml:space="preserve">277 </t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>精灵少女‧莉莎</t>
         </is>
       </c>
     </row>
@@ -854,6 +878,11 @@
           <t xml:space="preserve">278 </t>
         </is>
       </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>精灵骑士‧辛西亚</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -924,7 +953,11 @@
           <t xml:space="preserve">BP02-007 </t>
         </is>
       </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>神箭手‧塞尔文</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -994,7 +1027,11 @@
           <t xml:space="preserve">BP02-006 </t>
         </is>
       </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>神箭手‧塞尔文</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1065,7 +1102,11 @@
           <t xml:space="preserve">BP02-009 </t>
         </is>
       </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>冰晶光芒‧莉莉</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1135,7 +1176,11 @@
           <t xml:space="preserve">BP02-008 </t>
         </is>
       </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>冰晶光芒‧莉莉</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1200,7 +1245,11 @@
           <t>ezusuke</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>精灵王‧沃尔特</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1270,6 +1319,11 @@
           <t xml:space="preserve">279 </t>
         </is>
       </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>精灵的弓术</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1334,7 +1388,11 @@
           <t>ちゅん</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>香水矮人</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1399,7 +1457,11 @@
           <t>tricky胡坐</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>治癒精灵</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1471,7 +1533,11 @@
           <t xml:space="preserve">BP02-015 </t>
         </is>
       </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>森之巨灵</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1542,7 +1608,11 @@
           <t xml:space="preserve">BP02-014 </t>
         </is>
       </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>森之巨灵</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1614,7 +1684,11 @@
           <t xml:space="preserve">BP02-T10 </t>
         </is>
       </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>精灵吟游诗人</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1687,7 +1761,11 @@
           <t xml:space="preserve">BP02-T09 </t>
         </is>
       </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>蔷薇鹿</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1758,7 +1836,11 @@
           <t xml:space="preserve">BP02-019 </t>
         </is>
       </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>雷维翁剑士‧阿尔贝尔</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1835,6 +1917,11 @@
           <t xml:space="preserve">281 280 </t>
         </is>
       </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>雷维翁剑士‧阿尔贝尔</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1905,6 +1992,11 @@
           <t xml:space="preserve">282 281 </t>
         </is>
       </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>亚历山大</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1969,7 +2061,11 @@
           <t>ぽんず</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>白银骑士‧艾蜜莉亚</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2039,7 +2135,11 @@
           <t xml:space="preserve">BP02-023 </t>
         </is>
       </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>列奥尼达</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2112,7 +2212,11 @@
           <t xml:space="preserve">BP02-022 BP02-T03 </t>
         </is>
       </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>列奥尼达</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2185,7 +2289,11 @@
           <t xml:space="preserve">BP02-T02 </t>
         </is>
       </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>白银圣骑士</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2255,7 +2363,11 @@
           <t xml:space="preserve">BP02-026 </t>
         </is>
       </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>雷维翁斥侯‧杰诺</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2326,7 +2438,11 @@
           <t xml:space="preserve">BP02-025 </t>
         </is>
       </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>雷维翁斥侯‧杰诺</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2389,6 +2505,11 @@
       <c r="N28" t="inlineStr">
         <is>
           <t xml:space="preserve">288 287 </t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>雷维翁公爵‧尤里乌斯</t>
         </is>
       </c>
     </row>
@@ -2463,7 +2584,11 @@
           <t xml:space="preserve">BP02-T12 </t>
         </is>
       </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>全力斩击</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2523,7 +2648,11 @@
 </t>
         </is>
       </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>迅捷潜行者</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2593,6 +2722,11 @@
           <t xml:space="preserve">283 </t>
         </is>
       </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>武士</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2662,7 +2796,11 @@
           <t xml:space="preserve">BP02-032 </t>
         </is>
       </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>破阵之刃</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2732,7 +2870,11 @@
           <t xml:space="preserve">BP02-031 </t>
         </is>
       </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>破阵之刃</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2797,7 +2939,11 @@
           <t>ねじ太</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>烈焰战士</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2857,7 +3003,11 @@
 </t>
         </is>
       </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>女仆枪手‧赛莉亚</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2934,6 +3084,11 @@
           <t xml:space="preserve">286 285 284 </t>
         </is>
       </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>次元魔女‧桃乐丝</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3008,6 +3163,11 @@
       <c r="N37" t="inlineStr">
         <is>
           <t xml:space="preserve">284 </t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>次元魔女‧桃乐丝</t>
         </is>
       </c>
     </row>
@@ -3083,6 +3243,11 @@
           <t xml:space="preserve">288 287 </t>
         </is>
       </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>太阳巫女‧帕梅拉</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3158,6 +3323,11 @@
           <t xml:space="preserve">289 </t>
         </is>
       </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>马纳历亚公主‧安</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3227,7 +3397,11 @@
           <t xml:space="preserve">BP02-038 </t>
         </is>
       </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>马纳历亚公主‧安</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3303,6 +3477,11 @@
           <t xml:space="preserve">290 </t>
         </is>
       </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>马纳历亚龙人‧古蕾娅</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3373,6 +3552,11 @@
           <t xml:space="preserve">291 </t>
         </is>
       </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>白霜之风</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3442,7 +3626,11 @@
           <t xml:space="preserve">BP02-043 </t>
         </is>
       </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>双子女巫‧蕾米拉米</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3519,6 +3707,11 @@
           <t xml:space="preserve">292 </t>
         </is>
       </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>双子女巫‧蕾米拉米</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3583,7 +3776,11 @@
           <t>Bradchen</t>
         </is>
       </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>暗影女巫</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3661,6 +3858,11 @@
           <t xml:space="preserve">294 293 </t>
         </is>
       </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>连环实验</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3731,7 +3933,11 @@
           <t xml:space="preserve">BP02-047 </t>
         </is>
       </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>马纳历亚巫术师‧克雷格</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3801,7 +4007,11 @@
           <t xml:space="preserve">BP02-046 </t>
         </is>
       </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>马纳历亚巫术师‧克雷格</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3867,7 +4077,11 @@
           <t>Jang seungpil</t>
         </is>
       </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>伟大的圣石像</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3932,7 +4146,11 @@
           <t>SEMSEI</t>
         </is>
       </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>魔女的雷击</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4004,7 +4222,11 @@
           <t xml:space="preserve">BP02-T04 </t>
         </is>
       </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>魔幻战术</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4070,7 +4292,11 @@
           <t>RESS</t>
         </is>
       </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>灼热的术式</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4146,6 +4372,11 @@
           <t xml:space="preserve">295 </t>
         </is>
       </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>帝国龙骑士</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4215,7 +4446,11 @@
           <t xml:space="preserve">BP02-052 </t>
         </is>
       </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>帝国龙骑士</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4295,6 +4530,11 @@
           <t xml:space="preserve">297 296 </t>
         </is>
       </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>唤龙魔笛</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4369,7 +4609,11 @@
           <t xml:space="preserve">BP02-056 BP02-T05 </t>
         </is>
       </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>尼普顿</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4441,7 +4685,11 @@
           <t xml:space="preserve">BP02-055 BP02-T05 </t>
         </is>
       </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>尼普顿</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4509,6 +4757,11 @@
       <c r="N58" t="inlineStr">
         <is>
           <t xml:space="preserve">298 </t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>龙之斗气</t>
         </is>
       </c>
     </row>
@@ -4587,6 +4840,11 @@
           <t xml:space="preserve">299 </t>
         </is>
       </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>不绝的龙吼</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4657,7 +4915,11 @@
           <t xml:space="preserve">BP02-060 </t>
         </is>
       </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>齐格菲</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4730,6 +4992,11 @@
       <c r="N61" t="inlineStr">
         <is>
           <t xml:space="preserve">300 </t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>齐格菲</t>
         </is>
       </c>
     </row>
@@ -4808,6 +5075,11 @@
           <t xml:space="preserve">301 </t>
         </is>
       </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>变异巨龙</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4878,6 +5150,11 @@
           <t xml:space="preserve">302 </t>
         </is>
       </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>龙女巫的仪式</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4942,7 +5219,11 @@
           <t>チンケンカン</t>
         </is>
       </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>暴虐的龙少女</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5002,7 +5283,11 @@
 </t>
         </is>
       </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>赤怒蛇</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5068,7 +5353,11 @@
           <t>hikaru</t>
         </is>
       </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>驯龙师</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5136,6 +5425,11 @@
       <c r="N67" t="inlineStr">
         <is>
           <t xml:space="preserve">303 </t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>驯龙师</t>
         </is>
       </c>
     </row>
@@ -5215,6 +5509,11 @@
           <t xml:space="preserve">281 </t>
         </is>
       </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>邪翼双头龙</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5286,7 +5585,11 @@
           <t xml:space="preserve">BP02-T07 </t>
         </is>
       </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>龙威装甲</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5362,6 +5665,11 @@
           <t xml:space="preserve">304 </t>
         </is>
       </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>吸血鬼公主‧班比</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5430,6 +5738,11 @@
       <c r="N71" t="inlineStr">
         <is>
           <t xml:space="preserve">305 304 </t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>拉普拉斯之魔 拉普拉斯・达克尼斯</t>
         </is>
       </c>
     </row>
@@ -5503,7 +5816,11 @@
           <t xml:space="preserve">BP02-072 </t>
         </is>
       </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>灵魂商人</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5579,6 +5896,11 @@
           <t xml:space="preserve">306 </t>
         </is>
       </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>灵魂商人</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5647,6 +5969,11 @@
       <c r="N74" t="inlineStr">
         <is>
           <t xml:space="preserve">307 </t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>冥守战士‧卡穆拉</t>
         </is>
       </c>
     </row>
@@ -5726,6 +6053,11 @@
           <t xml:space="preserve">308 </t>
         </is>
       </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>阿撒塞勒</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5799,6 +6131,11 @@
       <c r="N76" t="inlineStr">
         <is>
           <t xml:space="preserve">309 </t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>阿撒塞勒</t>
         </is>
       </c>
     </row>
@@ -5873,7 +6210,11 @@
           <t xml:space="preserve">BP02-077 BP02-T18 </t>
         </is>
       </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>吸血鬼的古城</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5942,6 +6283,11 @@
       <c r="N78" t="inlineStr">
         <is>
           <t xml:space="preserve">305 </t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>拉普拉顿星</t>
         </is>
       </c>
     </row>
@@ -6016,7 +6362,11 @@
           <t xml:space="preserve">BP02-079 BP02-T18 </t>
         </is>
       </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>吸血贵公子‧拜特</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -6087,7 +6437,11 @@
           <t xml:space="preserve">BP02-078 BP02-T18 </t>
         </is>
       </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>吸血贵公子‧拜特</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -6159,7 +6513,11 @@
           <t xml:space="preserve">BP02-T17 </t>
         </is>
       </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>鬼计杜拉汉</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -6231,7 +6589,11 @@
           <t xml:space="preserve">BP02-082 BP02-T18 </t>
         </is>
       </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>高贵的血牙</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -6301,6 +6663,11 @@
           <t xml:space="preserve">305 </t>
         </is>
       </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>Yes My Dark</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -6360,7 +6727,11 @@
 </t>
         </is>
       </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>迷你灵魔</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -6425,7 +6796,11 @@
           <t>まよこ</t>
         </is>
       </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>宝光恶魔‧摩里亚娜</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -6496,7 +6871,11 @@
           <t xml:space="preserve">BP02-086 </t>
         </is>
       </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>享乐的恶魔</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -6572,6 +6951,11 @@
           <t xml:space="preserve">312 </t>
         </is>
       </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>享乐的恶魔</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -6635,6 +7019,11 @@
       <c r="N88" t="inlineStr">
         <is>
           <t xml:space="preserve">313 </t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>白骨奇美拉</t>
         </is>
       </c>
     </row>
@@ -6714,6 +7103,11 @@
           <t xml:space="preserve">294 293 </t>
         </is>
       </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>死灵狂欢</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -6791,6 +7185,11 @@
           <t xml:space="preserve">315 314 </t>
         </is>
       </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>天曜盾甲</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -6867,6 +7266,11 @@
           <t xml:space="preserve">315 </t>
         </is>
       </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>天曜盾甲</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -6935,6 +7339,11 @@
       <c r="N92" t="inlineStr">
         <is>
           <t xml:space="preserve">316 </t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>封印的炽天使</t>
         </is>
       </c>
     </row>
@@ -7011,6 +7420,11 @@
       <c r="N93" t="inlineStr">
         <is>
           <t xml:space="preserve">317 </t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>辉夜姬</t>
         </is>
       </c>
     </row>
@@ -7090,6 +7504,11 @@
           <t xml:space="preserve">317 </t>
         </is>
       </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>辉夜姬</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -7155,7 +7574,11 @@
           <t>石山裕之</t>
         </is>
       </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>神魔审判所</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -7223,6 +7646,11 @@
       <c r="N96" t="inlineStr">
         <is>
           <t xml:space="preserve">318 </t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>耶菈的祈祷</t>
         </is>
       </c>
     </row>
@@ -7296,7 +7724,11 @@
           <t xml:space="preserve">BP02-097 </t>
         </is>
       </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>光辉天使</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -7367,7 +7799,11 @@
           <t xml:space="preserve">BP02-096 </t>
         </is>
       </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>光辉天使</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -7435,6 +7871,11 @@
       <c r="N99" t="inlineStr">
         <is>
           <t xml:space="preserve">319 </t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>青玉牧师</t>
         </is>
       </c>
     </row>
@@ -7510,7 +7951,11 @@
           <t xml:space="preserve">BP02-T19 BP02-T20 </t>
         </is>
       </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>野兽公主的呼唤</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -7571,7 +8016,11 @@
 </t>
         </is>
       </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>圣人蛙</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -7636,7 +8085,11 @@
           <t>O'NE</t>
         </is>
       </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>天空之灵</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -7707,7 +8160,11 @@
           <t xml:space="preserve">BP02-103 </t>
         </is>
       </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>集魂师</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -7777,7 +8234,11 @@
           <t xml:space="preserve">BP02-102 </t>
         </is>
       </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>集魂师</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -7847,6 +8308,11 @@
           <t xml:space="preserve">320 </t>
         </is>
       </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>狂热驱魔师</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -7917,6 +8383,11 @@
           <t xml:space="preserve">321 </t>
         </is>
       </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>翠玉少女</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -7984,6 +8455,11 @@
       <c r="N107" t="inlineStr">
         <is>
           <t xml:space="preserve">294 293 </t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>黑暗天使‧奥莉薇</t>
         </is>
       </c>
     </row>
@@ -8057,7 +8533,11 @@
           <t xml:space="preserve">BP02-108 </t>
         </is>
       </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>巴哈姆特</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -8128,7 +8608,11 @@
           <t xml:space="preserve">BP02-107 </t>
         </is>
       </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>巴哈姆特</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -8198,6 +8682,11 @@
           <t xml:space="preserve">308 </t>
         </is>
       </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>禁忌魔像</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -8268,7 +8757,11 @@
           <t xml:space="preserve">BP02-111 </t>
         </is>
       </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>大天使‧蕾娜</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -8344,6 +8837,11 @@
           <t xml:space="preserve">322 </t>
         </is>
       </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>大天使‧蕾娜</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -8404,7 +8902,11 @@
 </t>
         </is>
       </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>烈焰魔弹</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -8475,7 +8977,11 @@
           <t xml:space="preserve">BP02-114 </t>
         </is>
       </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>独角兽舞者‧独角子</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -8545,7 +9051,11 @@
           <t xml:space="preserve">BP02-113 </t>
         </is>
       </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>独角兽舞者‧独角子</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -8610,7 +9120,11 @@
           <t>風篠</t>
         </is>
       </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>霸食帝‧凯加</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -8681,6 +9195,11 @@
           <t xml:space="preserve">323 </t>
         </is>
       </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>冰狱的呼唤</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -8745,7 +9264,11 @@
           <t>米谷尚展</t>
         </is>
       </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>汉萨</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -8815,7 +9338,11 @@
           <t xml:space="preserve">BP02-119 </t>
         </is>
       </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>赛克杜尔</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -8885,7 +9412,11 @@
           <t xml:space="preserve">BP02-118 </t>
         </is>
       </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>赛克杜尔</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -8950,7 +9481,11 @@
           <t>N.A</t>
         </is>
       </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>殒命之舞</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -8973,7 +9508,6 @@
           <t>フォロワー</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr">
         <is>
           <t>-</t>
@@ -9004,7 +9538,11 @@
           <t>おにねこ</t>
         </is>
       </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>纯心少女・米榭儿</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -9027,7 +9565,6 @@
           <t>フォロワー</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr">
         <is>
           <t>-</t>
@@ -9058,7 +9595,11 @@
           <t>えなれいん</t>
         </is>
       </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>假小子公主・普莉姆</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -9081,7 +9622,6 @@
           <t>フォロワー</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr">
         <is>
           <t>-</t>
@@ -9107,7 +9647,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>拉普拉斯・达克尼斯</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -9185,6 +9729,11 @@
           <t xml:space="preserve">278 </t>
         </is>
       </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>精灵骑士‧辛西亚</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -9255,7 +9804,11 @@
           <t xml:space="preserve">BP02-P03 </t>
         </is>
       </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>冰晶光芒‧莉莉</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -9325,7 +9878,11 @@
           <t xml:space="preserve">BP02-P02 </t>
         </is>
       </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>冰晶光芒‧莉莉</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -9393,6 +9950,11 @@
       <c r="N128" t="inlineStr">
         <is>
           <t xml:space="preserve">279 </t>
+        </is>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>精灵的弓术</t>
         </is>
       </c>
     </row>
@@ -9467,7 +10029,11 @@
           <t xml:space="preserve">BP02-T09 </t>
         </is>
       </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>蔷薇鹿</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -9540,7 +10106,11 @@
           <t xml:space="preserve">BP02-T02 </t>
         </is>
       </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>白银圣骑士</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -9610,7 +10180,11 @@
           <t xml:space="preserve">BP02-P08 </t>
         </is>
       </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>雷维翁斥侯‧杰诺</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -9681,7 +10255,11 @@
           <t xml:space="preserve">BP02-P07 </t>
         </is>
       </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>雷维翁斥侯‧杰诺</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -9746,6 +10324,11 @@
           <t xml:space="preserve">288 287 </t>
         </is>
       </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>雷维翁公爵‧尤里乌斯</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -9810,7 +10393,11 @@
           <t>ねじ太</t>
         </is>
       </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>烈焰战士</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -9881,6 +10468,11 @@
           <t xml:space="preserve">291 </t>
         </is>
       </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>白霜之风</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -9950,7 +10542,11 @@
           <t xml:space="preserve">BP02-P13 </t>
         </is>
       </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>双子女巫‧蕾米拉米</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -10025,6 +10621,11 @@
       <c r="N137" t="inlineStr">
         <is>
           <t xml:space="preserve">292 </t>
+        </is>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>双子女巫‧蕾米拉米</t>
         </is>
       </c>
     </row>
@@ -10104,6 +10705,11 @@
           <t xml:space="preserve">294 293 </t>
         </is>
       </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>连环实验</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -10175,7 +10781,11 @@
           <t xml:space="preserve">BP02-T04 </t>
         </is>
       </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>魔幻战术</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -10245,6 +10855,11 @@
           <t xml:space="preserve">298 </t>
         </is>
       </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>龙之斗气</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -10315,7 +10930,11 @@
           <t xml:space="preserve">BP02-P18 </t>
         </is>
       </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>齐格菲</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -10390,6 +11009,11 @@
           <t xml:space="preserve">300 </t>
         </is>
       </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>齐格菲</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -10458,6 +11082,11 @@
       <c r="N143" t="inlineStr">
         <is>
           <t xml:space="preserve">302 </t>
+        </is>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>龙女巫的仪式</t>
         </is>
       </c>
     </row>
@@ -10531,7 +11160,11 @@
           <t xml:space="preserve">BP02-T07 </t>
         </is>
       </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>龙威装甲</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -10600,6 +11233,11 @@
       <c r="N145" t="inlineStr">
         <is>
           <t xml:space="preserve">307 </t>
+        </is>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>冥守战士‧卡穆拉</t>
         </is>
       </c>
     </row>
@@ -10674,7 +11312,11 @@
           <t xml:space="preserve">BP02-P23 BP02-T18 </t>
         </is>
       </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>吸血贵公子‧拜特</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -10745,7 +11387,11 @@
           <t xml:space="preserve">BP02-P22 BP02-T18 </t>
         </is>
       </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>吸血贵公子‧拜特</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -10817,7 +11463,11 @@
           <t xml:space="preserve">BP02-T17 </t>
         </is>
       </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>鬼计杜拉汉</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -10890,7 +11540,11 @@
           <t xml:space="preserve">BP02-T17 </t>
         </is>
       </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>死灵狂欢</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -10958,6 +11612,11 @@
       <c r="N150" t="inlineStr">
         <is>
           <t xml:space="preserve">318 </t>
+        </is>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>耶菈的祈祷</t>
         </is>
       </c>
     </row>
@@ -11031,7 +11690,11 @@
           <t xml:space="preserve">BP02-P28 </t>
         </is>
       </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>光辉天使</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -11102,7 +11765,11 @@
           <t xml:space="preserve">BP02-P27 </t>
         </is>
       </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>光辉天使</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -11172,6 +11839,11 @@
           <t xml:space="preserve">319 </t>
         </is>
       </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>青玉牧师</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -11242,6 +11914,11 @@
           <t xml:space="preserve">321 </t>
         </is>
       </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>翠玉少女</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -11311,6 +11988,11 @@
           <t xml:space="preserve">308 </t>
         </is>
       </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>禁忌魔像</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -11381,7 +12063,11 @@
           <t xml:space="preserve">BP02-P33 </t>
         </is>
       </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>独角兽舞者‧独角子</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -11451,7 +12137,11 @@
           <t xml:space="preserve">BP02-P32 </t>
         </is>
       </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>独角兽舞者‧独角子</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -11516,7 +12206,11 @@
           <t>風篠</t>
         </is>
       </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>霸食帝‧凯加</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -11581,7 +12275,11 @@
           <t>N.A</t>
         </is>
       </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>殒命之舞</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -11654,7 +12352,11 @@
           <t xml:space="preserve">BP02-SL02 BP02-T01 </t>
         </is>
       </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>冰晶公主‧蒂亚</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -11729,6 +12431,11 @@
           <t xml:space="preserve">275 </t>
         </is>
       </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>冰晶公主‧蒂亚</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -11799,6 +12506,11 @@
           <t xml:space="preserve">276 </t>
         </is>
       </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>远古之森的白狼</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -11869,7 +12581,11 @@
           <t xml:space="preserve">BP02-SL05 </t>
         </is>
       </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>雷维翁剑士‧阿尔贝尔</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -11946,6 +12662,11 @@
           <t xml:space="preserve">281 280 </t>
         </is>
       </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>雷维翁剑士‧阿尔贝尔</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -12014,6 +12735,11 @@
       <c r="N165" t="inlineStr">
         <is>
           <t xml:space="preserve">282 281 </t>
+        </is>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>亚历山大</t>
         </is>
       </c>
     </row>
@@ -12092,6 +12818,11 @@
           <t xml:space="preserve">286 285 284 </t>
         </is>
       </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>次元魔女‧桃乐丝</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -12166,6 +12897,11 @@
       <c r="N167" t="inlineStr">
         <is>
           <t xml:space="preserve">284 </t>
+        </is>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>次元魔女‧桃乐丝</t>
         </is>
       </c>
     </row>
@@ -12241,6 +12977,11 @@
           <t xml:space="preserve">288 287 </t>
         </is>
       </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>太阳巫女‧帕梅拉</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -12316,6 +13057,11 @@
           <t xml:space="preserve">295 </t>
         </is>
       </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>帝国龙骑士</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -12385,7 +13131,11 @@
           <t xml:space="preserve">BP02-SL10 </t>
         </is>
       </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>帝国龙骑士</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -12465,6 +13215,11 @@
           <t xml:space="preserve">297 296 </t>
         </is>
       </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>唤龙魔笛</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -12538,6 +13293,11 @@
       <c r="N172" t="inlineStr">
         <is>
           <t xml:space="preserve">304 </t>
+        </is>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>吸血鬼公主‧班比</t>
         </is>
       </c>
     </row>
@@ -12611,7 +13371,11 @@
           <t xml:space="preserve">BP02-SL15 </t>
         </is>
       </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>灵魂商人</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -12685,6 +13449,11 @@
       <c r="N174" t="inlineStr">
         <is>
           <t xml:space="preserve">306 </t>
+        </is>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>灵魂商人</t>
         </is>
       </c>
     </row>
@@ -12764,6 +13533,11 @@
           <t xml:space="preserve">315 314 </t>
         </is>
       </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>天曜盾甲</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -12840,6 +13614,11 @@
           <t xml:space="preserve">315 </t>
         </is>
       </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>天曜盾甲</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -12910,6 +13689,11 @@
           <t xml:space="preserve">316 </t>
         </is>
       </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>封印的炽天使</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -12977,6 +13761,11 @@
       <c r="N178" t="inlineStr">
         <is>
           <t xml:space="preserve">294 293 </t>
+        </is>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>黑暗天使‧奥莉薇</t>
         </is>
       </c>
     </row>
@@ -13045,7 +13834,11 @@
           <t>相場良祐</t>
         </is>
       </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>巴哈姆特</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -13111,7 +13904,11 @@
           <t>相場良祐</t>
         </is>
       </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>巴哈姆特</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -13177,6 +13974,11 @@
           <t xml:space="preserve">305 304 </t>
         </is>
       </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>拉普拉斯之魔 拉普拉斯・达克尼斯</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -13229,7 +14031,11 @@
           <t>4</t>
         </is>
       </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>冰晶光芒‧伊芙</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -13294,7 +14100,11 @@
           <t>LQH</t>
         </is>
       </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>战盾卫士</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -13359,7 +14169,11 @@
           <t>SEMSEI</t>
         </is>
       </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>列奥尼达的遗志</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -13417,7 +14231,11 @@
           <t>Akefumi</t>
         </is>
       </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>魔幻兵卒</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -13475,7 +14293,11 @@
           <t>強子</t>
         </is>
       </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>虎鲸</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -13540,7 +14362,11 @@
           <t>irua</t>
         </is>
       </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>地狱火魔龙</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -13610,6 +14436,11 @@
           <t xml:space="preserve">324 </t>
         </is>
       </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>龙装武器</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -13680,7 +14511,11 @@
           <t xml:space="preserve">BP02-092 BP02-093 </t>
         </is>
       </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>幻胧之月</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -13745,7 +14580,11 @@
           <t>liiko</t>
         </is>
       </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>蔷薇的猛击</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -13803,7 +14642,11 @@
           <t>修</t>
         </is>
       </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>妖精萤火</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -13861,7 +14704,11 @@
           <t>カイエダヒロシ</t>
         </is>
       </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>妖精</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -13919,7 +14766,11 @@
           <t>hikaru</t>
         </is>
       </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>骑士</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -13984,7 +14835,11 @@
           <t>Siswanto Budi Cahyono</t>
         </is>
       </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>攻击型巨像</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -14049,7 +14904,11 @@
           <t>Siswanto Budi Cahyono</t>
         </is>
       </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>防御型巨像</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -14117,7 +14976,11 @@
           <t>永守浩太</t>
         </is>
       </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>大地之魔片</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -14170,7 +15033,11 @@
           <t>5</t>
         </is>
       </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>飞龙</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -14236,7 +15103,11 @@
           <t>銀</t>
         </is>
       </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>怨灵</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -14294,7 +15165,11 @@
           <t>米谷尚展</t>
         </is>
       </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>丛林蝙蝠</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -14359,7 +15234,11 @@
           <t>ねじ太</t>
         </is>
       </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>神圣猎鹰</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -14424,7 +15303,11 @@
           <t>永守浩太</t>
         </is>
       </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>神圣猛虎</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -14499,6 +15382,11 @@
           <t xml:space="preserve">275 </t>
         </is>
       </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>冰晶公主‧蒂亚</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -14563,7 +15451,11 @@
           <t>ぽんず</t>
         </is>
       </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>白银骑士‧艾蜜莉亚</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -14628,7 +15520,11 @@
           <t>ぽんず</t>
         </is>
       </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>马纳历亚公主‧安</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -14693,7 +15589,11 @@
           <t>風篠</t>
         </is>
       </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>帝国龙骑士</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -14769,6 +15669,11 @@
           <t xml:space="preserve">304 </t>
         </is>
       </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>吸血鬼公主‧班比</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -14844,6 +15749,11 @@
           <t xml:space="preserve">317 </t>
         </is>
       </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>辉夜姬</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -14909,7 +15819,11 @@
           <t>相場良祐</t>
         </is>
       </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>巴哈姆特</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -14975,6 +15889,11 @@
           <t xml:space="preserve">128 127 </t>
         </is>
       </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>白骨圣堂教主</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -15040,6 +15959,11 @@
           <t xml:space="preserve">265 130 129 </t>
         </is>
       </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>幻想白兔</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -15104,7 +16028,11 @@
           <t xml:space="preserve">SD06-004 </t>
         </is>
       </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>持矛锤的僧侣</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -15169,7 +16097,11 @@
           <t xml:space="preserve">SD06-003 </t>
         </is>
       </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>持矛锤的僧侣</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -15233,6 +16165,11 @@
       <c r="N213" t="inlineStr">
         <is>
           <t xml:space="preserve">131 </t>
+        </is>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>破邪圣光</t>
         </is>
       </c>
     </row>
@@ -15307,6 +16244,11 @@
           <t xml:space="preserve">133 132 </t>
         </is>
       </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>双生之炎</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -15371,6 +16313,11 @@
           <t xml:space="preserve">134 </t>
         </is>
       </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>残暴的女修士</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -15430,7 +16377,11 @@
 </t>
         </is>
       </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>蛇神女祭司</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -15497,7 +16448,11 @@
           <t xml:space="preserve">SD06-010 </t>
         </is>
       </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>充满热诚的修女</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -15563,7 +16518,11 @@
           <t xml:space="preserve">SD06-009 </t>
         </is>
       </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>充满热诚的修女</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -15635,6 +16594,11 @@
           <t xml:space="preserve">135 </t>
         </is>
       </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>修女卫士</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -15705,6 +16669,11 @@
           <t xml:space="preserve">136 </t>
         </is>
       </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>修女卫士</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -15770,6 +16739,11 @@
           <t xml:space="preserve">138 137 </t>
         </is>
       </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>崇高的教义</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -15833,6 +16807,11 @@
       <c r="N222" t="inlineStr">
         <is>
           <t xml:space="preserve">140 139 </t>
+        </is>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>死亡宣告</t>
         </is>
       </c>
     </row>
@@ -15904,6 +16883,11 @@
       <c r="N223" t="inlineStr">
         <is>
           <t xml:space="preserve">142 141 </t>
+        </is>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>银翼祷告</t>
         </is>
       </c>
     </row>
@@ -15978,6 +16962,11 @@
           <t xml:space="preserve">145 144 143 </t>
         </is>
       </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>圣兽之誓</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -16037,7 +17026,11 @@
 </t>
         </is>
       </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>天女剑士</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -16103,6 +17096,11 @@
           <t xml:space="preserve">98 </t>
         </is>
       </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>治癒天使</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -16167,6 +17165,11 @@
           <t xml:space="preserve">99 </t>
         </is>
       </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>治癒天使</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -16227,7 +17230,11 @@
 </t>
         </is>
       </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>天使的圣箭</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -16280,7 +17287,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>伊莉丝</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -16340,7 +17351,11 @@
 </t>
         </is>
       </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>神圣猎鹰</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -16400,7 +17415,11 @@
 </t>
         </is>
       </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>神圣猛虎</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -16472,6 +17491,11 @@
           <t xml:space="preserve">111 110 </t>
         </is>
       </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>吸血鬼女王</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -16538,6 +17562,11 @@
           <t xml:space="preserve">268 112 </t>
         </is>
       </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>阿鲁卡多</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -16602,7 +17631,11 @@
           <t xml:space="preserve">SD05-004 </t>
         </is>
       </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>爱捣蛋的死灵法师</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -16674,6 +17707,11 @@
           <t xml:space="preserve">113 </t>
         </is>
       </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>爱捣蛋的死灵法师</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -16742,6 +17780,11 @@
       <c r="N236" t="inlineStr">
         <is>
           <t xml:space="preserve">114 </t>
+        </is>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>午夜的吸血鬼</t>
         </is>
       </c>
     </row>
@@ -16816,6 +17859,11 @@
           <t xml:space="preserve">266 115 </t>
         </is>
       </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>暗夜中的兽群</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -16881,6 +17929,11 @@
           <t xml:space="preserve">263 116 </t>
         </is>
       </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>幽魂</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -16945,6 +17998,11 @@
           <t xml:space="preserve">117 </t>
         </is>
       </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>尸魂战士</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -17009,6 +18067,11 @@
           <t xml:space="preserve">119 118 </t>
         </is>
       </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>不死之王</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -17074,7 +18137,11 @@
           <t xml:space="preserve">SD05-011 </t>
         </is>
       </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>小木乃伊</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -17144,6 +18211,11 @@
       <c r="N242" t="inlineStr">
         <is>
           <t xml:space="preserve">120 </t>
+        </is>
+      </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>小木乃伊</t>
         </is>
       </c>
     </row>
@@ -17218,6 +18290,11 @@
           <t xml:space="preserve">121 </t>
         </is>
       </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>莉莉姆</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -17285,6 +18362,11 @@
       <c r="N244" t="inlineStr">
         <is>
           <t xml:space="preserve">122 </t>
+        </is>
+      </c>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>莉莉姆</t>
         </is>
       </c>
     </row>
@@ -17353,6 +18435,11 @@
           <t xml:space="preserve">123 </t>
         </is>
       </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>利爪的一击</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -17416,6 +18503,11 @@
       <c r="N246" t="inlineStr">
         <is>
           <t xml:space="preserve">125 124 </t>
+        </is>
+      </c>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>不灭的怨念</t>
         </is>
       </c>
     </row>
@@ -17489,6 +18581,11 @@
           <t xml:space="preserve">126 </t>
         </is>
       </c>
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>从魔召唤</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -17541,7 +18638,11 @@
           <t>3</t>
         </is>
       </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>剑斗士</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -17606,7 +18707,11 @@
           <t xml:space="preserve">SD05-019 </t>
         </is>
       </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="O249" t="inlineStr">
+        <is>
+          <t>歌利亚</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -17664,7 +18769,11 @@
           <t xml:space="preserve">SD05-018 </t>
         </is>
       </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="O250" t="inlineStr">
+        <is>
+          <t>歌利亚</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -17724,7 +18833,11 @@
 </t>
         </is>
       </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>天女剑士</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -17777,7 +18890,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>露娜</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -17838,7 +18955,11 @@
 </t>
         </is>
       </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>怨灵</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -17891,7 +19012,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>丛林蝙蝠</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -17956,6 +19081,11 @@
           <t xml:space="preserve">100 </t>
         </is>
       </c>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>法夫纳</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -18020,6 +19150,11 @@
           <t xml:space="preserve">298 102 101 </t>
         </is>
       </c>
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>龙之启示</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -18084,7 +19219,11 @@
           <t xml:space="preserve">SD04-004 </t>
         </is>
       </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="O257" t="inlineStr">
+        <is>
+          <t>龙族勇士</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -18149,7 +19288,11 @@
           <t xml:space="preserve">SD04-003 </t>
         </is>
       </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="O258" t="inlineStr">
+        <is>
+          <t>龙族勇士</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -18209,7 +19352,11 @@
 </t>
         </is>
       </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="O259" t="inlineStr">
+        <is>
+          <t>龙人公主</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -18270,7 +19417,11 @@
 </t>
         </is>
       </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="O260" t="inlineStr">
+        <is>
+          <t>龙骑士守护者</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -18330,7 +19481,11 @@
 </t>
         </is>
       </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="O261" t="inlineStr">
+        <is>
+          <t>火焰蜥蜴</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -18390,7 +19545,11 @@
 </t>
         </is>
       </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>恐惧龙兽</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -18461,6 +19620,11 @@
           <t xml:space="preserve">103 </t>
         </is>
       </c>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>大鹏鸟</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -18530,6 +19694,11 @@
           <t xml:space="preserve">104 </t>
         </is>
       </c>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>大鹏鸟</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -18589,7 +19758,11 @@
 </t>
         </is>
       </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="O265" t="inlineStr">
+        <is>
+          <t>闪光魔弹翼龙</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -18662,6 +19835,11 @@
           <t xml:space="preserve">105 </t>
         </is>
       </c>
+      <c r="O266" t="inlineStr">
+        <is>
+          <t>龙骑兵</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -18726,7 +19904,11 @@
           <t xml:space="preserve">SD04-012 </t>
         </is>
       </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="O267" t="inlineStr">
+        <is>
+          <t>龙骑兵</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -18786,7 +19968,11 @@
 </t>
         </is>
       </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>海剑龙</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -18852,6 +20038,11 @@
           <t xml:space="preserve">106 </t>
         </is>
       </c>
+      <c r="O269" t="inlineStr">
+        <is>
+          <t>炽热吐息</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -18916,6 +20107,11 @@
           <t xml:space="preserve">109 108 107 </t>
         </is>
       </c>
+      <c r="O270" t="inlineStr">
+        <is>
+          <t>龙之翼击</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -18980,7 +20176,11 @@
           <t xml:space="preserve">SD04-018 </t>
         </is>
       </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="O271" t="inlineStr">
+        <is>
+          <t>歌利亚</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -19038,7 +20238,11 @@
           <t xml:space="preserve">SD04-017 </t>
         </is>
       </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>歌利亚</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -19098,7 +20302,11 @@
 </t>
         </is>
       </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="O273" t="inlineStr">
+        <is>
+          <t>天女剑士</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -19159,7 +20367,11 @@
 </t>
         </is>
       </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="O274" t="inlineStr">
+        <is>
+          <t>天使的圣箭</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -19212,7 +20424,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>罗文</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -19265,7 +20481,11 @@
           <t>5</t>
         </is>
       </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>飞龙</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -19330,6 +20550,11 @@
           <t xml:space="preserve">74 73 72 </t>
         </is>
       </c>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>秘银巨像</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -19394,6 +20619,11 @@
           <t xml:space="preserve">75 </t>
         </is>
       </c>
+      <c r="O278" t="inlineStr">
+        <is>
+          <t>符文之剑召唤师</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -19458,7 +20688,11 @@
           <t xml:space="preserve">SD03-004 </t>
         </is>
       </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="O279" t="inlineStr">
+        <is>
+          <t>恶魔炎术师</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -19528,6 +20762,11 @@
           <t xml:space="preserve">76 </t>
         </is>
       </c>
+      <c r="O280" t="inlineStr">
+        <is>
+          <t>恶魔炎术师</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -19593,6 +20832,11 @@
           <t xml:space="preserve">77 </t>
         </is>
       </c>
+      <c r="O281" t="inlineStr">
+        <is>
+          <t>智慧之光</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -19658,6 +20902,11 @@
           <t xml:space="preserve">279 79 78 </t>
         </is>
       </c>
+      <c r="O282" t="inlineStr">
+        <is>
+          <t>火焰连锁</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -19722,6 +20971,11 @@
           <t xml:space="preserve">81 80 </t>
         </is>
       </c>
+      <c r="O283" t="inlineStr">
+        <is>
+          <t>雷光射手</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -19792,6 +21046,11 @@
           <t xml:space="preserve">83 82 </t>
         </is>
       </c>
+      <c r="O284" t="inlineStr">
+        <is>
+          <t>企鹅魔法师</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -19862,6 +21121,11 @@
           <t xml:space="preserve">85 84 </t>
         </is>
       </c>
+      <c r="O285" t="inlineStr">
+        <is>
+          <t>企鹅魔法师</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -19932,6 +21196,11 @@
           <t xml:space="preserve">88 87 86 </t>
         </is>
       </c>
+      <c r="O286" t="inlineStr">
+        <is>
+          <t>新星魔术师‧萨米</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -20001,6 +21270,11 @@
           <t xml:space="preserve">89 </t>
         </is>
       </c>
+      <c r="O287" t="inlineStr">
+        <is>
+          <t>新星魔术师‧萨米</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -20065,6 +21339,11 @@
           <t xml:space="preserve">90 </t>
         </is>
       </c>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>疾风喷射</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -20130,6 +21409,11 @@
           <t xml:space="preserve">93 92 91 </t>
         </is>
       </c>
+      <c r="O289" t="inlineStr">
+        <is>
+          <t>魔力积蓄</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -20195,6 +21479,11 @@
           <t xml:space="preserve">266 94 </t>
         </is>
       </c>
+      <c r="O290" t="inlineStr">
+        <is>
+          <t>火炎粉碎术</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -20258,6 +21547,11 @@
       <c r="N291" t="inlineStr">
         <is>
           <t xml:space="preserve">96 95 </t>
+        </is>
+      </c>
+      <c r="O291" t="inlineStr">
+        <is>
+          <t>魔导飞弹</t>
         </is>
       </c>
     </row>
@@ -20333,6 +21627,11 @@
           <t xml:space="preserve">97 </t>
         </is>
       </c>
+      <c r="O292" t="inlineStr">
+        <is>
+          <t>巨像炼成术</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -20403,6 +21702,11 @@
           <t xml:space="preserve">98 </t>
         </is>
       </c>
+      <c r="O293" t="inlineStr">
+        <is>
+          <t>治癒天使</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -20472,6 +21776,11 @@
           <t xml:space="preserve">99 </t>
         </is>
       </c>
+      <c r="O294" t="inlineStr">
+        <is>
+          <t>治癒天使</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -20532,7 +21841,11 @@
 </t>
         </is>
       </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="O295" t="inlineStr">
+        <is>
+          <t>天使的圣箭</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -20598,6 +21911,11 @@
           <t xml:space="preserve">64 </t>
         </is>
       </c>
+      <c r="O296" t="inlineStr">
+        <is>
+          <t>天使的箭雨</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -20650,7 +21968,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="O297" t="inlineStr">
+        <is>
+          <t>伊莎贝尔</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -20710,7 +22032,11 @@
 </t>
         </is>
       </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="O298" t="inlineStr">
+        <is>
+          <t>攻击型巨像</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -20770,7 +22096,11 @@
 </t>
         </is>
       </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="O299" t="inlineStr">
+        <is>
+          <t>防御型巨像</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -20835,6 +22165,11 @@
           <t xml:space="preserve">65 </t>
         </is>
       </c>
+      <c r="O300" t="inlineStr">
+        <is>
+          <t>椿</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -20887,7 +22222,11 @@
           <t>3</t>
         </is>
       </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="O301" t="inlineStr">
+        <is>
+          <t>无惧的先锋‧雷瑟姆</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -20952,7 +22291,11 @@
           <t xml:space="preserve">SD02-004 </t>
         </is>
       </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="O302" t="inlineStr">
+        <is>
+          <t>华丽的花园剑士</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -21025,6 +22368,11 @@
           <t xml:space="preserve">66 </t>
         </is>
       </c>
+      <c r="O303" t="inlineStr">
+        <is>
+          <t>华丽的花园剑士</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -21084,7 +22432,11 @@
 </t>
         </is>
       </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="O304" t="inlineStr">
+        <is>
+          <t>刺客</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -21145,7 +22497,11 @@
 </t>
         </is>
       </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="O305" t="inlineStr">
+        <is>
+          <t>白银将军</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -21198,7 +22554,11 @@
           <t>2</t>
         </is>
       </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="O306" t="inlineStr">
+        <is>
+          <t>忍者学徒</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -21258,7 +22618,11 @@
 </t>
         </is>
       </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="O307" t="inlineStr">
+        <is>
+          <t>身经百战的长枪兵</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -21318,7 +22682,11 @@
 </t>
         </is>
       </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="O308" t="inlineStr">
+        <is>
+          <t>剑术教官</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -21391,6 +22759,11 @@
           <t xml:space="preserve">67 </t>
         </is>
       </c>
+      <c r="O309" t="inlineStr">
+        <is>
+          <t>背水一战的骑士</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -21455,7 +22828,11 @@
           <t xml:space="preserve">SD02-010 </t>
         </is>
       </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="O310" t="inlineStr">
+        <is>
+          <t>背水一战的骑士</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -21521,7 +22898,11 @@
           <t xml:space="preserve">SD02-013 </t>
         </is>
       </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="O311" t="inlineStr">
+        <is>
+          <t>迅捷的剑士</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -21586,7 +22967,11 @@
           <t xml:space="preserve">SD02-012 </t>
         </is>
       </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="O312" t="inlineStr">
+        <is>
+          <t>迅捷的剑士</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -21650,6 +23035,11 @@
       <c r="N313" t="inlineStr">
         <is>
           <t xml:space="preserve">68 </t>
+        </is>
+      </c>
+      <c r="O313" t="inlineStr">
+        <is>
+          <t>武装强化</t>
         </is>
       </c>
     </row>
@@ -21723,6 +23113,11 @@
           <t xml:space="preserve">70 69 </t>
         </is>
       </c>
+      <c r="O314" t="inlineStr">
+        <is>
+          <t>猛袭</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -21788,6 +23183,11 @@
           <t xml:space="preserve">71 </t>
         </is>
       </c>
+      <c r="O315" t="inlineStr">
+        <is>
+          <t>疾风怒涛</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -21852,7 +23252,11 @@
           <t xml:space="preserve">SD02-018 </t>
         </is>
       </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="O316" t="inlineStr">
+        <is>
+          <t>哥布林</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -21910,7 +23314,11 @@
           <t xml:space="preserve">SD02-017 </t>
         </is>
       </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="O317" t="inlineStr">
+        <is>
+          <t>哥布林</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -21963,7 +23371,11 @@
           <t>3</t>
         </is>
       </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="O318" t="inlineStr">
+        <is>
+          <t>剑斗士</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -22023,7 +23435,11 @@
 </t>
         </is>
       </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="O319" t="inlineStr">
+        <is>
+          <t>天女剑士</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -22076,7 +23492,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="O320" t="inlineStr">
+        <is>
+          <t>艾莉卡</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -22129,7 +23549,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="O321" t="inlineStr">
+        <is>
+          <t>骑士</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -22182,7 +23606,11 @@
           <t>2</t>
         </is>
       </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="O322" t="inlineStr">
+        <is>
+          <t>铁甲骑士</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -22254,6 +23682,11 @@
           <t xml:space="preserve">46 45 </t>
         </is>
       </c>
+      <c r="O323" t="inlineStr">
+        <is>
+          <t>妖精公主・阿丽雅</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -22320,6 +23753,11 @@
           <t xml:space="preserve">269 48 47 </t>
         </is>
       </c>
+      <c r="O324" t="inlineStr">
+        <is>
+          <t>提泰妮娅的妖精乡</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -22384,7 +23822,11 @@
           <t xml:space="preserve">SD01-004 </t>
         </is>
       </c>
-      <c r="N325" t="inlineStr"/>
+      <c r="O325" t="inlineStr">
+        <is>
+          <t>玫瑰花园守卫者</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -22449,7 +23891,11 @@
           <t xml:space="preserve">SD01-003 </t>
         </is>
       </c>
-      <c r="N326" t="inlineStr"/>
+      <c r="O326" t="inlineStr">
+        <is>
+          <t>玫瑰花园守卫者</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -22521,6 +23967,11 @@
           <t xml:space="preserve">49 </t>
         </is>
       </c>
+      <c r="O327" t="inlineStr">
+        <is>
+          <t>舞夜妖精</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -22592,6 +24043,11 @@
           <t xml:space="preserve">51 50 </t>
         </is>
       </c>
+      <c r="O328" t="inlineStr">
+        <is>
+          <t>妖精魔法师</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -22651,7 +24107,11 @@
 </t>
         </is>
       </c>
-      <c r="N329" t="inlineStr"/>
+      <c r="O329" t="inlineStr">
+        <is>
+          <t>金属精灵法师</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -22716,6 +24176,11 @@
           <t xml:space="preserve">54 53 52 </t>
         </is>
       </c>
+      <c r="O330" t="inlineStr">
+        <is>
+          <t>巨狼</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -22786,6 +24251,11 @@
           <t xml:space="preserve">55 </t>
         </is>
       </c>
+      <c r="O331" t="inlineStr">
+        <is>
+          <t>树精</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -22843,7 +24313,11 @@
           <t xml:space="preserve">SD01-009 </t>
         </is>
       </c>
-      <c r="N332" t="inlineStr"/>
+      <c r="O332" t="inlineStr">
+        <is>
+          <t>树精</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -22916,6 +24390,11 @@
           <t xml:space="preserve">56 </t>
         </is>
       </c>
+      <c r="O333" t="inlineStr">
+        <is>
+          <t>水之妖精</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -22986,6 +24465,11 @@
           <t xml:space="preserve">57 </t>
         </is>
       </c>
+      <c r="O334" t="inlineStr">
+        <is>
+          <t>水之妖精</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -23049,6 +24533,11 @@
       <c r="N335" t="inlineStr">
         <is>
           <t xml:space="preserve">59 58 </t>
+        </is>
+      </c>
+      <c r="O335" t="inlineStr">
+        <is>
+          <t>流浪精灵</t>
         </is>
       </c>
     </row>
@@ -23122,6 +24611,11 @@
           <t xml:space="preserve">60 </t>
         </is>
       </c>
+      <c r="O336" t="inlineStr">
+        <is>
+          <t>妖精的呼朋引伴</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -23185,6 +24679,11 @@
       <c r="N337" t="inlineStr">
         <is>
           <t xml:space="preserve">61 </t>
+        </is>
+      </c>
+      <c r="O337" t="inlineStr">
+        <is>
+          <t>森林圣域</t>
         </is>
       </c>
     </row>
@@ -23259,6 +24758,11 @@
           <t xml:space="preserve">63 62 </t>
         </is>
       </c>
+      <c r="O338" t="inlineStr">
+        <is>
+          <t>森林的反扑</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -23323,7 +24827,11 @@
           <t xml:space="preserve">SD01-018 </t>
         </is>
       </c>
-      <c r="N339" t="inlineStr"/>
+      <c r="O339" t="inlineStr">
+        <is>
+          <t>哥布林</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -23381,7 +24889,11 @@
           <t xml:space="preserve">SD01-017 </t>
         </is>
       </c>
-      <c r="N340" t="inlineStr"/>
+      <c r="O340" t="inlineStr">
+        <is>
+          <t>哥布林</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -23442,7 +24954,11 @@
 </t>
         </is>
       </c>
-      <c r="N341" t="inlineStr"/>
+      <c r="O341" t="inlineStr">
+        <is>
+          <t>天使的圣箭</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -23508,6 +25024,11 @@
           <t xml:space="preserve">64 </t>
         </is>
       </c>
+      <c r="O342" t="inlineStr">
+        <is>
+          <t>天使的箭雨</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -23560,7 +25081,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N343" t="inlineStr"/>
+      <c r="O343" t="inlineStr">
+        <is>
+          <t>亚里莎</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -23613,7 +25138,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="N344" t="inlineStr"/>
+      <c r="O344" t="inlineStr">
+        <is>
+          <t>妖精</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -23686,6 +25215,11 @@
           <t xml:space="preserve">147 146 </t>
         </is>
       </c>
+      <c r="O345" t="inlineStr">
+        <is>
+          <t>玫瑰皇后</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -23757,6 +25291,11 @@
           <t xml:space="preserve">149 148 </t>
         </is>
       </c>
+      <c r="O346" t="inlineStr">
+        <is>
+          <t>远古精灵</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -23825,6 +25364,11 @@
       <c r="N347" t="inlineStr">
         <is>
           <t xml:space="preserve">151 150 </t>
+        </is>
+      </c>
+      <c r="O347" t="inlineStr">
+        <is>
+          <t>远古精灵</t>
         </is>
       </c>
     </row>
@@ -23898,6 +25442,11 @@
           <t xml:space="preserve">152 </t>
         </is>
       </c>
+      <c r="O348" t="inlineStr">
+        <is>
+          <t>破魔虫</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -23967,6 +25516,11 @@
           <t xml:space="preserve">153 </t>
         </is>
       </c>
+      <c r="O349" t="inlineStr">
+        <is>
+          <t>破魔虫</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -24027,7 +25581,11 @@
 </t>
         </is>
       </c>
-      <c r="N350" t="inlineStr"/>
+      <c r="O350" t="inlineStr">
+        <is>
+          <t>罗宾汉</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -24093,6 +25651,11 @@
           <t xml:space="preserve">155 154 </t>
         </is>
       </c>
+      <c r="O351" t="inlineStr">
+        <is>
+          <t>白银的箭击</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -24157,6 +25720,11 @@
           <t xml:space="preserve">156 </t>
         </is>
       </c>
+      <c r="O352" t="inlineStr">
+        <is>
+          <t>回归根源</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -24221,7 +25789,11 @@
           <t xml:space="preserve">BP01-010 </t>
         </is>
       </c>
-      <c r="N353" t="inlineStr"/>
+      <c r="O353" t="inlineStr">
+        <is>
+          <t>魔法精灵公主</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -24288,7 +25860,11 @@
           <t xml:space="preserve">BP01-009 BP01-T02 </t>
         </is>
       </c>
-      <c r="N354" t="inlineStr"/>
+      <c r="O354" t="inlineStr">
+        <is>
+          <t>魔法精灵公主</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -24353,6 +25929,11 @@
           <t xml:space="preserve">157 </t>
         </is>
       </c>
+      <c r="O355" t="inlineStr">
+        <is>
+          <t>妖精舞蹈家</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -24413,7 +25994,11 @@
 </t>
         </is>
       </c>
-      <c r="N356" t="inlineStr"/>
+      <c r="O356" t="inlineStr">
+        <is>
+          <t>精灵女孩‧小梅</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -24476,6 +26061,11 @@
       <c r="N357" t="inlineStr">
         <is>
           <t xml:space="preserve">158 </t>
+        </is>
+      </c>
+      <c r="O357" t="inlineStr">
+        <is>
+          <t>妖精守护圣兽</t>
         </is>
       </c>
     </row>
@@ -24550,6 +26140,11 @@
           <t xml:space="preserve">159 </t>
         </is>
       </c>
+      <c r="O358" t="inlineStr">
+        <is>
+          <t>妖精贵族</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -24614,6 +26209,11 @@
           <t xml:space="preserve">160 </t>
         </is>
       </c>
+      <c r="O359" t="inlineStr">
+        <is>
+          <t>大自然的导引</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -24674,7 +26274,11 @@
 </t>
         </is>
       </c>
-      <c r="N360" t="inlineStr"/>
+      <c r="O360" t="inlineStr">
+        <is>
+          <t>丰年祭</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -24734,7 +26338,11 @@
 </t>
         </is>
       </c>
-      <c r="N361" t="inlineStr"/>
+      <c r="O361" t="inlineStr">
+        <is>
+          <t>金属精灵法师</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -24805,6 +26413,11 @@
           <t xml:space="preserve">161 </t>
         </is>
       </c>
+      <c r="O362" t="inlineStr">
+        <is>
+          <t>弓箭手</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -24872,6 +26485,11 @@
       <c r="N363" t="inlineStr">
         <is>
           <t xml:space="preserve">163 162 </t>
+        </is>
+      </c>
+      <c r="O363" t="inlineStr">
+        <is>
+          <t>弓箭手</t>
         </is>
       </c>
     </row>
@@ -24940,7 +26558,11 @@
           <t xml:space="preserve">BP01-T03 </t>
         </is>
       </c>
-      <c r="N364" t="inlineStr"/>
+      <c r="O364" t="inlineStr">
+        <is>
+          <t>妖精语森林使者</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -25005,6 +26627,11 @@
           <t xml:space="preserve">54 53 52 </t>
         </is>
       </c>
+      <c r="O365" t="inlineStr">
+        <is>
+          <t>巨狼</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -25067,6 +26694,11 @@
       <c r="N366" t="inlineStr">
         <is>
           <t xml:space="preserve">164 </t>
+        </is>
+      </c>
+      <c r="O366" t="inlineStr">
+        <is>
+          <t>魔法雄鹿</t>
         </is>
       </c>
     </row>
@@ -25140,6 +26772,11 @@
           <t xml:space="preserve">60 </t>
         </is>
       </c>
+      <c r="O367" t="inlineStr">
+        <is>
+          <t>妖精的呼朋引伴</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -25205,6 +26842,11 @@
           <t xml:space="preserve">166 165 </t>
         </is>
       </c>
+      <c r="O368" t="inlineStr">
+        <is>
+          <t>精灵的诅咒</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -25268,6 +26910,11 @@
       <c r="N369" t="inlineStr">
         <is>
           <t xml:space="preserve">61 </t>
+        </is>
+      </c>
+      <c r="O369" t="inlineStr">
+        <is>
+          <t>森林圣域</t>
         </is>
       </c>
     </row>
@@ -25337,7 +26984,11 @@
           <t xml:space="preserve">BP01-027 BP01-T04 </t>
         </is>
       </c>
-      <c r="N370" t="inlineStr"/>
+      <c r="O370" t="inlineStr">
+        <is>
+          <t>海底都市霸主‧乙姬</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -25402,7 +27053,11 @@
           <t xml:space="preserve">BP01-026 BP01-T04 </t>
         </is>
       </c>
-      <c r="N371" t="inlineStr"/>
+      <c r="O371" t="inlineStr">
+        <is>
+          <t>海底都市霸主‧乙姬</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -25468,6 +27123,11 @@
           <t xml:space="preserve">243 168 167 </t>
         </is>
       </c>
+      <c r="O372" t="inlineStr">
+        <is>
+          <t>皇家剑士‧奥蕾莉亚</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -25538,6 +27198,11 @@
           <t xml:space="preserve">169 </t>
         </is>
       </c>
+      <c r="O373" t="inlineStr">
+        <is>
+          <t>影夜暗杀者</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -25602,7 +27267,11 @@
           <t xml:space="preserve">BP01-029 </t>
         </is>
       </c>
-      <c r="N374" t="inlineStr"/>
+      <c r="O374" t="inlineStr">
+        <is>
+          <t>影夜暗杀者</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -25673,6 +27342,11 @@
       <c r="N375" t="inlineStr">
         <is>
           <t xml:space="preserve">170 </t>
+        </is>
+      </c>
+      <c r="O375" t="inlineStr">
+        <is>
+          <t>铁卫战将</t>
         </is>
       </c>
     </row>
@@ -25748,6 +27422,11 @@
           <t xml:space="preserve">274 171 </t>
         </is>
       </c>
+      <c r="O376" t="inlineStr">
+        <is>
+          <t>亚尔丽妲的号令</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -25813,6 +27492,11 @@
           <t xml:space="preserve">172 </t>
         </is>
       </c>
+      <c r="O377" t="inlineStr">
+        <is>
+          <t>皇家御用战旗</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -25877,7 +27561,11 @@
           <t xml:space="preserve">BP01-035 </t>
         </is>
       </c>
-      <c r="N378" t="inlineStr"/>
+      <c r="O378" t="inlineStr">
+        <is>
+          <t>女仆事务长</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -25947,6 +27635,11 @@
           <t xml:space="preserve">174 173 </t>
         </is>
       </c>
+      <c r="O379" t="inlineStr">
+        <is>
+          <t>女仆事务长</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -26011,6 +27704,11 @@
           <t xml:space="preserve">176 175 </t>
         </is>
       </c>
+      <c r="O380" t="inlineStr">
+        <is>
+          <t>执宝杖的司令官</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -26070,7 +27768,11 @@
 </t>
         </is>
       </c>
-      <c r="N381" t="inlineStr"/>
+      <c r="O381" t="inlineStr">
+        <is>
+          <t>睿智指挥官</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -26136,6 +27838,11 @@
           <t xml:space="preserve">177 </t>
         </is>
       </c>
+      <c r="O382" t="inlineStr">
+        <is>
+          <t>剑豪</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -26200,6 +27907,11 @@
           <t xml:space="preserve">178 </t>
         </is>
       </c>
+      <c r="O383" t="inlineStr">
+        <is>
+          <t>任性的公主</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -26262,6 +27974,11 @@
       <c r="N384" t="inlineStr">
         <is>
           <t xml:space="preserve">179 </t>
+        </is>
+      </c>
+      <c r="O384" t="inlineStr">
+        <is>
+          <t>忍者大师</t>
         </is>
       </c>
     </row>
@@ -26337,6 +28054,11 @@
           <t xml:space="preserve">180 </t>
         </is>
       </c>
+      <c r="O385" t="inlineStr">
+        <is>
+          <t>骑士王的威望</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -26389,7 +28111,11 @@
           <t>2</t>
         </is>
       </c>
-      <c r="N386" t="inlineStr"/>
+      <c r="O386" t="inlineStr">
+        <is>
+          <t>忍者学徒</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -26460,6 +28186,11 @@
           <t xml:space="preserve">181 </t>
         </is>
       </c>
+      <c r="O387" t="inlineStr">
+        <is>
+          <t>不屈的士兵</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -26529,6 +28260,11 @@
           <t xml:space="preserve">182 </t>
         </is>
       </c>
+      <c r="O388" t="inlineStr">
+        <is>
+          <t>不屈的士兵</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -26589,7 +28325,11 @@
 </t>
         </is>
       </c>
-      <c r="N389" t="inlineStr"/>
+      <c r="O389" t="inlineStr">
+        <is>
+          <t>鲁米那斯骑士</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -26649,7 +28389,11 @@
 </t>
         </is>
       </c>
-      <c r="N390" t="inlineStr"/>
+      <c r="O390" t="inlineStr">
+        <is>
+          <t>身经百战的长枪兵</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -26709,7 +28453,11 @@
 </t>
         </is>
       </c>
-      <c r="N391" t="inlineStr"/>
+      <c r="O391" t="inlineStr">
+        <is>
+          <t>舰队指挥官</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -26769,7 +28517,11 @@
 </t>
         </is>
       </c>
-      <c r="N392" t="inlineStr"/>
+      <c r="O392" t="inlineStr">
+        <is>
+          <t>见习骑兵</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -26833,6 +28585,11 @@
       <c r="N393" t="inlineStr">
         <is>
           <t xml:space="preserve">68 </t>
+        </is>
+      </c>
+      <c r="O393" t="inlineStr">
+        <is>
+          <t>武装强化</t>
         </is>
       </c>
     </row>
@@ -26906,6 +28663,11 @@
           <t xml:space="preserve">70 69 </t>
         </is>
       </c>
+      <c r="O394" t="inlineStr">
+        <is>
+          <t>猛袭</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -26971,6 +28733,11 @@
           <t xml:space="preserve">184 183 </t>
         </is>
       </c>
+      <c r="O395" t="inlineStr">
+        <is>
+          <t>大召唤师‧伊拉斯莫斯</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -27041,6 +28808,11 @@
           <t xml:space="preserve">185 </t>
         </is>
       </c>
+      <c r="O396" t="inlineStr">
+        <is>
+          <t>梅林</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -27108,6 +28880,11 @@
       <c r="N397" t="inlineStr">
         <is>
           <t xml:space="preserve">246 186 </t>
+        </is>
+      </c>
+      <c r="O397" t="inlineStr">
+        <is>
+          <t>梅林</t>
         </is>
       </c>
     </row>
@@ -27177,7 +28954,11 @@
           <t xml:space="preserve">BP01-055 BP01-T09 </t>
         </is>
       </c>
-      <c r="N398" t="inlineStr"/>
+      <c r="O398" t="inlineStr">
+        <is>
+          <t>远古炼金术师</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -27246,6 +29027,11 @@
       <c r="N399" t="inlineStr">
         <is>
           <t xml:space="preserve">187 </t>
+        </is>
+      </c>
+      <c r="O399" t="inlineStr">
+        <is>
+          <t>远古炼金术师</t>
         </is>
       </c>
     </row>
@@ -27314,6 +29100,11 @@
           <t xml:space="preserve">191 190 189 188 </t>
         </is>
       </c>
+      <c r="O400" t="inlineStr">
+        <is>
+          <t>神祕的礼物</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -27377,6 +29168,11 @@
       <c r="N401" t="inlineStr">
         <is>
           <t xml:space="preserve">193 192 </t>
+        </is>
+      </c>
+      <c r="O401" t="inlineStr">
+        <is>
+          <t>次元超越</t>
         </is>
       </c>
     </row>
@@ -27450,6 +29246,11 @@
           <t xml:space="preserve">194 </t>
         </is>
       </c>
+      <c r="O402" t="inlineStr">
+        <is>
+          <t>诺诺的秘密研究室</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -27520,6 +29321,11 @@
           <t xml:space="preserve">195 </t>
         </is>
       </c>
+      <c r="O403" t="inlineStr">
+        <is>
+          <t>幻影巫术师</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -27584,7 +29390,11 @@
           <t xml:space="preserve">BP01-059 </t>
         </is>
       </c>
-      <c r="N404" t="inlineStr"/>
+      <c r="O404" t="inlineStr">
+        <is>
+          <t>幻影巫术师</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -27650,6 +29460,11 @@
           <t xml:space="preserve">196 </t>
         </is>
       </c>
+      <c r="O405" t="inlineStr">
+        <is>
+          <t>魔炎毁灭者</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -27713,6 +29528,11 @@
       <c r="N406" t="inlineStr">
         <is>
           <t xml:space="preserve">197 </t>
+        </is>
+      </c>
+      <c r="O406" t="inlineStr">
+        <is>
+          <t>龙魂契约者</t>
         </is>
       </c>
     </row>
@@ -27787,6 +29607,11 @@
           <t xml:space="preserve">273 198 </t>
         </is>
       </c>
+      <c r="O407" t="inlineStr">
+        <is>
+          <t>巨像守护术</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -27846,7 +29671,11 @@
 </t>
         </is>
       </c>
-      <c r="N408" t="inlineStr"/>
+      <c r="O408" t="inlineStr">
+        <is>
+          <t>炼金术的知识</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -27912,6 +29741,11 @@
           <t xml:space="preserve">199 </t>
         </is>
       </c>
+      <c r="O409" t="inlineStr">
+        <is>
+          <t>命运的指引</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -27972,7 +29806,11 @@
 </t>
         </is>
       </c>
-      <c r="N410" t="inlineStr"/>
+      <c r="O410" t="inlineStr">
+        <is>
+          <t>炼金术的代价</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -28040,7 +29878,11 @@
           <t xml:space="preserve">BP01-T10 </t>
         </is>
       </c>
-      <c r="N411" t="inlineStr"/>
+      <c r="O411" t="inlineStr">
+        <is>
+          <t>符文守卫</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -28108,7 +29950,11 @@
           <t xml:space="preserve">BP01-069 BP01-T10 </t>
         </is>
       </c>
-      <c r="N412" t="inlineStr"/>
+      <c r="O412" t="inlineStr">
+        <is>
+          <t>睿智的术士</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -28178,6 +30024,11 @@
           <t xml:space="preserve">200 </t>
         </is>
       </c>
+      <c r="O413" t="inlineStr">
+        <is>
+          <t>睿智的术士</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -28242,6 +30093,11 @@
           <t xml:space="preserve">81 80 </t>
         </is>
       </c>
+      <c r="O414" t="inlineStr">
+        <is>
+          <t>雷光射手</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -28306,6 +30162,11 @@
           <t xml:space="preserve">90 </t>
         </is>
       </c>
+      <c r="O415" t="inlineStr">
+        <is>
+          <t>疾风喷射</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -28371,6 +30232,11 @@
           <t xml:space="preserve">93 92 91 </t>
         </is>
       </c>
+      <c r="O416" t="inlineStr">
+        <is>
+          <t>魔力积蓄</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -28434,6 +30300,11 @@
       <c r="N417" t="inlineStr">
         <is>
           <t xml:space="preserve">266 94 </t>
+        </is>
+      </c>
+      <c r="O417" t="inlineStr">
+        <is>
+          <t>火炎粉碎术</t>
         </is>
       </c>
     </row>
@@ -28503,7 +30374,11 @@
           <t xml:space="preserve">BP01-T08 </t>
         </is>
       </c>
-      <c r="N418" t="inlineStr"/>
+      <c r="O418" t="inlineStr">
+        <is>
+          <t>炼金工房</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -28564,7 +30439,11 @@
 </t>
         </is>
       </c>
-      <c r="N419" t="inlineStr"/>
+      <c r="O419" t="inlineStr">
+        <is>
+          <t>睿智的教诲</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -28630,7 +30509,11 @@
           <t xml:space="preserve">BP01-077 </t>
         </is>
       </c>
-      <c r="N420" t="inlineStr"/>
+      <c r="O420" t="inlineStr">
+        <is>
+          <t>黑龙骑士‧法露特</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -28695,7 +30578,11 @@
           <t xml:space="preserve">BP01-076 </t>
         </is>
       </c>
-      <c r="N421" t="inlineStr"/>
+      <c r="O421" t="inlineStr">
+        <is>
+          <t>黑龙骑士‧法露特</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -28768,6 +30655,11 @@
           <t xml:space="preserve">201 </t>
         </is>
       </c>
+      <c r="O422" t="inlineStr">
+        <is>
+          <t>吉尔尼特拉</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -28833,6 +30725,11 @@
           <t xml:space="preserve">202 </t>
         </is>
       </c>
+      <c r="O423" t="inlineStr">
+        <is>
+          <t>龙骑士‧艾拉</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -28892,7 +30789,11 @@
 </t>
         </is>
       </c>
-      <c r="N424" t="inlineStr"/>
+      <c r="O424" t="inlineStr">
+        <is>
+          <t>创世龙</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -28958,7 +30859,11 @@
           <t xml:space="preserve">BP01-082 </t>
         </is>
       </c>
-      <c r="N425" t="inlineStr"/>
+      <c r="O425" t="inlineStr">
+        <is>
+          <t>半龙人魔法师</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -29023,7 +30928,11 @@
           <t xml:space="preserve">BP01-081 </t>
         </is>
       </c>
-      <c r="N426" t="inlineStr"/>
+      <c r="O426" t="inlineStr">
+        <is>
+          <t>半龙人魔法师</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -29088,6 +30997,11 @@
           <t xml:space="preserve">204 203 </t>
         </is>
       </c>
+      <c r="O427" t="inlineStr">
+        <is>
+          <t>凤凰的庭园</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -29152,6 +31066,11 @@
           <t xml:space="preserve">206 205 </t>
         </is>
       </c>
+      <c r="O428" t="inlineStr">
+        <is>
+          <t>绯天炎龙骑兵</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -29212,7 +31131,11 @@
 </t>
         </is>
       </c>
-      <c r="N429" t="inlineStr"/>
+      <c r="O429" t="inlineStr">
+        <is>
+          <t>龙人织术师</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -29279,7 +31202,11 @@
           <t xml:space="preserve">BP01-087 </t>
         </is>
       </c>
-      <c r="N430" t="inlineStr"/>
+      <c r="O430" t="inlineStr">
+        <is>
+          <t>神龙</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -29345,7 +31272,11 @@
           <t xml:space="preserve">BP01-086 </t>
         </is>
       </c>
-      <c r="N431" t="inlineStr"/>
+      <c r="O431" t="inlineStr">
+        <is>
+          <t>神龙</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -29411,6 +31342,11 @@
           <t xml:space="preserve">207 </t>
         </is>
       </c>
+      <c r="O432" t="inlineStr">
+        <is>
+          <t>被封印的古代巨龙</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -29470,7 +31406,11 @@
 </t>
         </is>
       </c>
-      <c r="N433" t="inlineStr"/>
+      <c r="O433" t="inlineStr">
+        <is>
+          <t>灼热风暴</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -29531,7 +31471,11 @@
 </t>
         </is>
       </c>
-      <c r="N434" t="inlineStr"/>
+      <c r="O434" t="inlineStr">
+        <is>
+          <t>龙之怒</t>
+        </is>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -29604,6 +31548,11 @@
           <t xml:space="preserve">208 </t>
         </is>
       </c>
+      <c r="O435" t="inlineStr">
+        <is>
+          <t>龙化之塔</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -29668,7 +31617,11 @@
           <t xml:space="preserve">BP01-093 </t>
         </is>
       </c>
-      <c r="N436" t="inlineStr"/>
+      <c r="O436" t="inlineStr">
+        <is>
+          <t>银白幼龙</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -29733,7 +31686,11 @@
           <t xml:space="preserve">BP01-092 </t>
         </is>
       </c>
-      <c r="N437" t="inlineStr"/>
+      <c r="O437" t="inlineStr">
+        <is>
+          <t>银白幼龙</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -29793,7 +31750,11 @@
 </t>
         </is>
       </c>
-      <c r="N438" t="inlineStr"/>
+      <c r="O438" t="inlineStr">
+        <is>
+          <t>火焰蜥蜴</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -29859,6 +31820,11 @@
           <t xml:space="preserve">211 210 209 </t>
         </is>
       </c>
+      <c r="O439" t="inlineStr">
+        <is>
+          <t>王牌龙骑士</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -29918,7 +31884,11 @@
 </t>
         </is>
       </c>
-      <c r="N440" t="inlineStr"/>
+      <c r="O440" t="inlineStr">
+        <is>
+          <t>迷雾巨龙</t>
+        </is>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -29978,7 +31948,11 @@
 </t>
         </is>
       </c>
-      <c r="N441" t="inlineStr"/>
+      <c r="O441" t="inlineStr">
+        <is>
+          <t>恐惧龙兽</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -30044,6 +32018,11 @@
           <t xml:space="preserve">106 </t>
         </is>
       </c>
+      <c r="O442" t="inlineStr">
+        <is>
+          <t>炽热吐息</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -30108,6 +32087,11 @@
           <t xml:space="preserve">109 108 107 </t>
         </is>
       </c>
+      <c r="O443" t="inlineStr">
+        <is>
+          <t>龙之翼击</t>
+        </is>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -30170,6 +32154,11 @@
       <c r="N444" t="inlineStr">
         <is>
           <t xml:space="preserve">212 </t>
+        </is>
+      </c>
+      <c r="O444" t="inlineStr">
+        <is>
+          <t>龙之传令</t>
         </is>
       </c>
     </row>
@@ -30245,6 +32234,11 @@
           <t xml:space="preserve">213 </t>
         </is>
       </c>
+      <c r="O445" t="inlineStr">
+        <is>
+          <t>凯尔贝洛斯</t>
+        </is>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -30314,6 +32308,11 @@
           <t xml:space="preserve">214 </t>
         </is>
       </c>
+      <c r="O446" t="inlineStr">
+        <is>
+          <t>凯尔贝洛斯</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -30376,6 +32375,11 @@
       <c r="N447" t="inlineStr">
         <is>
           <t xml:space="preserve">271 216 215 </t>
+        </is>
+      </c>
+      <c r="O447" t="inlineStr">
+        <is>
+          <t>骨骸王</t>
         </is>
       </c>
     </row>
@@ -30450,6 +32454,11 @@
           <t xml:space="preserve">217 </t>
         </is>
       </c>
+      <c r="O448" t="inlineStr">
+        <is>
+          <t>梅杜莎</t>
+        </is>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -30515,7 +32524,11 @@
           <t xml:space="preserve">BP01-106 </t>
         </is>
       </c>
-      <c r="N449" t="inlineStr"/>
+      <c r="O449" t="inlineStr">
+        <is>
+          <t>恶魔审判官</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -30586,6 +32599,11 @@
           <t xml:space="preserve">219 218 </t>
         </is>
       </c>
+      <c r="O450" t="inlineStr">
+        <is>
+          <t>恶魔审判官</t>
+        </is>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -30645,7 +32663,11 @@
 </t>
         </is>
       </c>
-      <c r="N451" t="inlineStr"/>
+      <c r="O451" t="inlineStr">
+        <is>
+          <t>不死斗士‧莫迪凯</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -30706,7 +32728,11 @@
 </t>
         </is>
       </c>
-      <c r="N452" t="inlineStr"/>
+      <c r="O452" t="inlineStr">
+        <is>
+          <t>漆黑之契</t>
+        </is>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -30771,6 +32797,11 @@
           <t xml:space="preserve">220 </t>
         </is>
       </c>
+      <c r="O453" t="inlineStr">
+        <is>
+          <t>地狱献祭者</t>
+        </is>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -30835,7 +32866,11 @@
           <t xml:space="preserve">BP01-111 </t>
         </is>
       </c>
-      <c r="N454" t="inlineStr"/>
+      <c r="O454" t="inlineStr">
+        <is>
+          <t>疯狂的刽子手</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -30905,6 +32940,11 @@
           <t xml:space="preserve">221 </t>
         </is>
       </c>
+      <c r="O455" t="inlineStr">
+        <is>
+          <t>疯狂的刽子手</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -30964,7 +33004,11 @@
 </t>
         </is>
       </c>
-      <c r="N456" t="inlineStr"/>
+      <c r="O456" t="inlineStr">
+        <is>
+          <t>黑暗召唤师</t>
+        </is>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -31024,7 +33068,11 @@
 </t>
         </is>
       </c>
-      <c r="N457" t="inlineStr"/>
+      <c r="O457" t="inlineStr">
+        <is>
+          <t>暗魔女将</t>
+        </is>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -31091,7 +33139,11 @@
           <t xml:space="preserve">BP01-T14 </t>
         </is>
       </c>
-      <c r="N458" t="inlineStr"/>
+      <c r="O458" t="inlineStr">
+        <is>
+          <t>幻影之啸</t>
+        </is>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -31156,6 +33208,11 @@
           <t xml:space="preserve">272 247 222 </t>
         </is>
       </c>
+      <c r="O459" t="inlineStr">
+        <is>
+          <t>死亡祝福</t>
+        </is>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -31221,6 +33278,11 @@
           <t xml:space="preserve">268 223 </t>
         </is>
       </c>
+      <c r="O460" t="inlineStr">
+        <is>
+          <t>灵魂转移</t>
+        </is>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -31280,7 +33342,11 @@
 </t>
         </is>
       </c>
-      <c r="N461" t="inlineStr"/>
+      <c r="O461" t="inlineStr">
+        <is>
+          <t>骷髅战将</t>
+        </is>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -31340,7 +33406,11 @@
 </t>
         </is>
       </c>
-      <c r="N462" t="inlineStr"/>
+      <c r="O462" t="inlineStr">
+        <is>
+          <t>影魔</t>
+        </is>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -31406,6 +33476,11 @@
           <t xml:space="preserve">263 116 </t>
         </is>
       </c>
+      <c r="O463" t="inlineStr">
+        <is>
+          <t>幽魂</t>
+        </is>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -31470,6 +33545,11 @@
           <t xml:space="preserve">117 </t>
         </is>
       </c>
+      <c r="O464" t="inlineStr">
+        <is>
+          <t>尸魂战士</t>
+        </is>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -31529,7 +33609,11 @@
 </t>
         </is>
       </c>
-      <c r="N465" t="inlineStr"/>
+      <c r="O465" t="inlineStr">
+        <is>
+          <t>兔灵邪法师</t>
+        </is>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -31599,6 +33683,11 @@
           <t xml:space="preserve">262 </t>
         </is>
       </c>
+      <c r="O466" t="inlineStr">
+        <is>
+          <t>血祭侵略者</t>
+        </is>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -31668,6 +33757,11 @@
           <t xml:space="preserve">224 </t>
         </is>
       </c>
+      <c r="O467" t="inlineStr">
+        <is>
+          <t>血祭侵略者</t>
+        </is>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -31730,6 +33824,11 @@
       <c r="N468" t="inlineStr">
         <is>
           <t xml:space="preserve">119 118 </t>
+        </is>
+      </c>
+      <c r="O468" t="inlineStr">
+        <is>
+          <t>不死之王</t>
         </is>
       </c>
     </row>
@@ -31798,6 +33897,11 @@
           <t xml:space="preserve">123 </t>
         </is>
       </c>
+      <c r="O469" t="inlineStr">
+        <is>
+          <t>利爪的一击</t>
+        </is>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -31864,6 +33968,11 @@
           <t xml:space="preserve">225 </t>
         </is>
       </c>
+      <c r="O470" t="inlineStr">
+        <is>
+          <t>黑天月兔妖</t>
+        </is>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -31929,7 +34038,11 @@
           <t xml:space="preserve">BP01-128 </t>
         </is>
       </c>
-      <c r="N471" t="inlineStr"/>
+      <c r="O471" t="inlineStr">
+        <is>
+          <t>圣女贞德</t>
+        </is>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -31994,7 +34107,11 @@
           <t xml:space="preserve">BP01-127 </t>
         </is>
       </c>
-      <c r="N472" t="inlineStr"/>
+      <c r="O472" t="inlineStr">
+        <is>
+          <t>圣女贞德</t>
+        </is>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -32065,6 +34182,11 @@
           <t xml:space="preserve">226 </t>
         </is>
       </c>
+      <c r="O473" t="inlineStr">
+        <is>
+          <t>大主教‧雷莉亚</t>
+        </is>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -32135,6 +34257,11 @@
           <t xml:space="preserve">228 227 </t>
         </is>
       </c>
+      <c r="O474" t="inlineStr">
+        <is>
+          <t>大主教‧雷莉亚</t>
+        </is>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -32199,6 +34326,11 @@
           <t xml:space="preserve">229 </t>
         </is>
       </c>
+      <c r="O475" t="inlineStr">
+        <is>
+          <t>忒弥斯的审判</t>
+        </is>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -32258,7 +34390,11 @@
 </t>
         </is>
       </c>
-      <c r="N476" t="inlineStr"/>
+      <c r="O476" t="inlineStr">
+        <is>
+          <t>咏唱：祈愿者的号召</t>
+        </is>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -32319,7 +34455,11 @@
 </t>
         </is>
       </c>
-      <c r="N477" t="inlineStr"/>
+      <c r="O477" t="inlineStr">
+        <is>
+          <t>神圣祈愿</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -32385,6 +34525,11 @@
           <t xml:space="preserve">230 </t>
         </is>
       </c>
+      <c r="O478" t="inlineStr">
+        <is>
+          <t>教会守护者</t>
+        </is>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -32449,7 +34594,11 @@
           <t xml:space="preserve">BP01-136 </t>
         </is>
       </c>
-      <c r="N479" t="inlineStr"/>
+      <c r="O479" t="inlineStr">
+        <is>
+          <t>圣之光稜牧师</t>
+        </is>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -32519,6 +34668,11 @@
           <t xml:space="preserve">232 231 </t>
         </is>
       </c>
+      <c r="O480" t="inlineStr">
+        <is>
+          <t>圣之光稜牧师</t>
+        </is>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -32584,6 +34738,11 @@
           <t xml:space="preserve">233 </t>
         </is>
       </c>
+      <c r="O481" t="inlineStr">
+        <is>
+          <t>教团圣枪兵</t>
+        </is>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -32643,7 +34802,11 @@
 </t>
         </is>
       </c>
-      <c r="N482" t="inlineStr"/>
+      <c r="O482" t="inlineStr">
+        <is>
+          <t>圣殿女骑士</t>
+        </is>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -32709,6 +34872,11 @@
           <t xml:space="preserve">234 </t>
         </is>
       </c>
+      <c r="O483" t="inlineStr">
+        <is>
+          <t>漆黑法典</t>
+        </is>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -32772,6 +34940,11 @@
       <c r="N484" t="inlineStr">
         <is>
           <t xml:space="preserve">268 235 </t>
+        </is>
+      </c>
+      <c r="O484" t="inlineStr">
+        <is>
+          <t>暗黑供奉</t>
         </is>
       </c>
     </row>
@@ -32845,6 +35018,11 @@
           <t xml:space="preserve">236 </t>
         </is>
       </c>
+      <c r="O485" t="inlineStr">
+        <is>
+          <t>神域守护者</t>
+        </is>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -32909,6 +35087,11 @@
           <t xml:space="preserve">134 </t>
         </is>
       </c>
+      <c r="O486" t="inlineStr">
+        <is>
+          <t>残暴的女修士</t>
+        </is>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -32968,7 +35151,11 @@
 </t>
         </is>
       </c>
-      <c r="N487" t="inlineStr"/>
+      <c r="O487" t="inlineStr">
+        <is>
+          <t>见习修女</t>
+        </is>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -33034,7 +35221,11 @@
           <t xml:space="preserve">BP01-145 </t>
         </is>
       </c>
-      <c r="N488" t="inlineStr"/>
+      <c r="O488" t="inlineStr">
+        <is>
+          <t>曼纽</t>
+        </is>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -33099,7 +35290,11 @@
           <t xml:space="preserve">BP01-144 </t>
         </is>
       </c>
-      <c r="N489" t="inlineStr"/>
+      <c r="O489" t="inlineStr">
+        <is>
+          <t>曼纽</t>
+        </is>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -33159,7 +35354,11 @@
 </t>
         </is>
       </c>
-      <c r="N490" t="inlineStr"/>
+      <c r="O490" t="inlineStr">
+        <is>
+          <t>蛇神女祭司</t>
+        </is>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -33219,7 +35418,11 @@
 </t>
         </is>
       </c>
-      <c r="N491" t="inlineStr"/>
+      <c r="O491" t="inlineStr">
+        <is>
+          <t>伟大的女修士</t>
+        </is>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -33285,6 +35488,11 @@
           <t xml:space="preserve">138 137 </t>
         </is>
       </c>
+      <c r="O492" t="inlineStr">
+        <is>
+          <t>崇高的教义</t>
+        </is>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -33345,7 +35553,11 @@
 </t>
         </is>
       </c>
-      <c r="N493" t="inlineStr"/>
+      <c r="O493" t="inlineStr">
+        <is>
+          <t>庇护的天光</t>
+        </is>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -33411,6 +35623,11 @@
           <t xml:space="preserve">140 139 </t>
         </is>
       </c>
+      <c r="O494" t="inlineStr">
+        <is>
+          <t>死亡宣告</t>
+        </is>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -33476,7 +35693,11 @@
           <t xml:space="preserve">BP01-SL19 </t>
         </is>
       </c>
-      <c r="N495" t="inlineStr"/>
+      <c r="O495" t="inlineStr">
+        <is>
+          <t>加百列</t>
+        </is>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -33548,6 +35769,11 @@
           <t xml:space="preserve">272 </t>
         </is>
       </c>
+      <c r="O496" t="inlineStr">
+        <is>
+          <t>路西法</t>
+        </is>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -33618,6 +35844,11 @@
           <t xml:space="preserve">272 </t>
         </is>
       </c>
+      <c r="O497" t="inlineStr">
+        <is>
+          <t>路西法</t>
+        </is>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -33678,7 +35909,11 @@
 </t>
         </is>
       </c>
-      <c r="N498" t="inlineStr"/>
+      <c r="O498" t="inlineStr">
+        <is>
+          <t>烈焰‧琉璃</t>
+        </is>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -33749,6 +35984,11 @@
           <t xml:space="preserve">267 238 237 </t>
         </is>
       </c>
+      <c r="O499" t="inlineStr">
+        <is>
+          <t>乌尔德</t>
+        </is>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -33818,6 +36058,11 @@
           <t xml:space="preserve">239 </t>
         </is>
       </c>
+      <c r="O500" t="inlineStr">
+        <is>
+          <t>乌尔德</t>
+        </is>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -33878,7 +36123,11 @@
 </t>
         </is>
       </c>
-      <c r="N501" t="inlineStr"/>
+      <c r="O501" t="inlineStr">
+        <is>
+          <t>风神</t>
+        </is>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -33938,7 +36187,11 @@
 </t>
         </is>
       </c>
-      <c r="N502" t="inlineStr"/>
+      <c r="O502" t="inlineStr">
+        <is>
+          <t>吉尔伽美什</t>
+        </is>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -34005,7 +36258,11 @@
           <t xml:space="preserve">BP01-160 </t>
         </is>
       </c>
-      <c r="N503" t="inlineStr"/>
+      <c r="O503" t="inlineStr">
+        <is>
+          <t>叮当天使</t>
+        </is>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
@@ -34072,7 +36329,11 @@
           <t xml:space="preserve">BP01-159 </t>
         </is>
       </c>
-      <c r="N504" t="inlineStr"/>
+      <c r="O504" t="inlineStr">
+        <is>
+          <t>叮当天使</t>
+        </is>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -34137,6 +36398,11 @@
           <t xml:space="preserve">240 </t>
         </is>
       </c>
+      <c r="O505" t="inlineStr">
+        <is>
+          <t>崭新的命运</t>
+        </is>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -34197,7 +36463,11 @@
 </t>
         </is>
       </c>
-      <c r="N506" t="inlineStr"/>
+      <c r="O506" t="inlineStr">
+        <is>
+          <t>冥府之路</t>
+        </is>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -34257,7 +36527,11 @@
 </t>
         </is>
       </c>
-      <c r="N507" t="inlineStr"/>
+      <c r="O507" t="inlineStr">
+        <is>
+          <t>蜥蜴人</t>
+        </is>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -34324,7 +36598,11 @@
           <t xml:space="preserve">BP01-165 </t>
         </is>
       </c>
-      <c r="N508" t="inlineStr"/>
+      <c r="O508" t="inlineStr">
+        <is>
+          <t>哥布林巨魔骑士</t>
+        </is>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -34389,7 +36667,11 @@
           <t xml:space="preserve">BP01-164 </t>
         </is>
       </c>
-      <c r="N509" t="inlineStr"/>
+      <c r="O509" t="inlineStr">
+        <is>
+          <t>哥布林巨魔骑士</t>
+        </is>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
@@ -34459,6 +36741,11 @@
           <t xml:space="preserve">241 </t>
         </is>
       </c>
+      <c r="O510" t="inlineStr">
+        <is>
+          <t>被封印的双子‧烈焰</t>
+        </is>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
@@ -34518,7 +36805,11 @@
 </t>
         </is>
       </c>
-      <c r="N511" t="inlineStr"/>
+      <c r="O511" t="inlineStr">
+        <is>
+          <t>被封印的双子‧琉璃</t>
+        </is>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -34578,7 +36869,11 @@
 </t>
         </is>
       </c>
-      <c r="N512" t="inlineStr"/>
+      <c r="O512" t="inlineStr">
+        <is>
+          <t>恶魔冲击波</t>
+        </is>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -34639,7 +36934,11 @@
 </t>
         </is>
       </c>
-      <c r="N513" t="inlineStr"/>
+      <c r="O513" t="inlineStr">
+        <is>
+          <t>处决</t>
+        </is>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -34706,6 +37005,11 @@
           <t xml:space="preserve">270 245 242 </t>
         </is>
       </c>
+      <c r="O514" t="inlineStr">
+        <is>
+          <t>光明之路</t>
+        </is>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
@@ -34770,7 +37074,11 @@
           <t xml:space="preserve">BP01-172 </t>
         </is>
       </c>
-      <c r="N515" t="inlineStr"/>
+      <c r="O515" t="inlineStr">
+        <is>
+          <t>哥布林</t>
+        </is>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
@@ -34828,7 +37136,11 @@
           <t xml:space="preserve">BP01-171 </t>
         </is>
       </c>
-      <c r="N516" t="inlineStr"/>
+      <c r="O516" t="inlineStr">
+        <is>
+          <t>哥布林</t>
+        </is>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
@@ -34881,7 +37193,11 @@
           <t>3</t>
         </is>
       </c>
-      <c r="N517" t="inlineStr"/>
+      <c r="O517" t="inlineStr">
+        <is>
+          <t>剑斗士</t>
+        </is>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
@@ -34946,7 +37262,11 @@
           <t xml:space="preserve">BP01-175 </t>
         </is>
       </c>
-      <c r="N518" t="inlineStr"/>
+      <c r="O518" t="inlineStr">
+        <is>
+          <t>歌利亚</t>
+        </is>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
@@ -35004,7 +37324,11 @@
           <t xml:space="preserve">BP01-174 </t>
         </is>
       </c>
-      <c r="N519" t="inlineStr"/>
+      <c r="O519" t="inlineStr">
+        <is>
+          <t>歌利亚</t>
+        </is>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
@@ -35064,7 +37388,11 @@
 </t>
         </is>
       </c>
-      <c r="N520" t="inlineStr"/>
+      <c r="O520" t="inlineStr">
+        <is>
+          <t>天女剑士</t>
+        </is>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
@@ -35130,7 +37458,11 @@
           <t xml:space="preserve">BP01-178 </t>
         </is>
       </c>
-      <c r="N521" t="inlineStr"/>
+      <c r="O521" t="inlineStr">
+        <is>
+          <t>治癒天使</t>
+        </is>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
@@ -35195,7 +37527,11 @@
           <t xml:space="preserve">BP01-177 </t>
         </is>
       </c>
-      <c r="N522" t="inlineStr"/>
+      <c r="O522" t="inlineStr">
+        <is>
+          <t>治癒天使</t>
+        </is>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
@@ -35256,7 +37592,11 @@
 </t>
         </is>
       </c>
-      <c r="N523" t="inlineStr"/>
+      <c r="O523" t="inlineStr">
+        <is>
+          <t>天使的圣箭</t>
+        </is>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
@@ -35317,7 +37657,11 @@
 </t>
         </is>
       </c>
-      <c r="N524" t="inlineStr"/>
+      <c r="O524" t="inlineStr">
+        <is>
+          <t>天使的箭雨</t>
+        </is>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
@@ -35370,7 +37714,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N525" t="inlineStr"/>
+      <c r="O525" t="inlineStr">
+        <is>
+          <t>亚里莎</t>
+        </is>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
@@ -35423,7 +37771,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N526" t="inlineStr"/>
+      <c r="O526" t="inlineStr">
+        <is>
+          <t>舞蹈的妖精・阿丽雅</t>
+        </is>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
@@ -35476,7 +37828,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N527" t="inlineStr"/>
+      <c r="O527" t="inlineStr">
+        <is>
+          <t>艾莉卡</t>
+        </is>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
@@ -35529,7 +37885,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N528" t="inlineStr"/>
+      <c r="O528" t="inlineStr">
+        <is>
+          <t>烂漫的剑技・奥蕾莉亚</t>
+        </is>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
@@ -35582,7 +37942,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N529" t="inlineStr"/>
+      <c r="O529" t="inlineStr">
+        <is>
+          <t>伊莎贝尔</t>
+        </is>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
@@ -35635,7 +37999,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N530" t="inlineStr"/>
+      <c r="O530" t="inlineStr">
+        <is>
+          <t>魔力的贤人・伊拉斯莫斯</t>
+        </is>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
@@ -35688,7 +38056,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N531" t="inlineStr"/>
+      <c r="O531" t="inlineStr">
+        <is>
+          <t>罗文</t>
+        </is>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
@@ -35741,7 +38113,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N532" t="inlineStr"/>
+      <c r="O532" t="inlineStr">
+        <is>
+          <t>野心的龙牙・吉尔尼特拉</t>
+        </is>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
@@ -35794,7 +38170,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N533" t="inlineStr"/>
+      <c r="O533" t="inlineStr">
+        <is>
+          <t>露娜</t>
+        </is>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
@@ -35847,7 +38227,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N534" t="inlineStr"/>
+      <c r="O534" t="inlineStr">
+        <is>
+          <t>尤里亚斯</t>
+        </is>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
@@ -35900,7 +38284,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N535" t="inlineStr"/>
+      <c r="O535" t="inlineStr">
+        <is>
+          <t>伊莉丝</t>
+        </is>
+      </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
@@ -35953,7 +38341,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N536" t="inlineStr"/>
+      <c r="O536" t="inlineStr">
+        <is>
+          <t>新月之兽・菈米娜</t>
+        </is>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
@@ -36018,6 +38410,11 @@
           <t xml:space="preserve">156 </t>
         </is>
       </c>
+      <c r="O537" t="inlineStr">
+        <is>
+          <t>回归根源</t>
+        </is>
+      </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
@@ -36078,7 +38475,11 @@
 </t>
         </is>
       </c>
-      <c r="N538" t="inlineStr"/>
+      <c r="O538" t="inlineStr">
+        <is>
+          <t>精灵女孩‧小梅</t>
+        </is>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
@@ -36144,6 +38545,11 @@
           <t xml:space="preserve">161 </t>
         </is>
       </c>
+      <c r="O539" t="inlineStr">
+        <is>
+          <t>弓箭手</t>
+        </is>
+      </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
@@ -36206,6 +38612,11 @@
       <c r="N540" t="inlineStr">
         <is>
           <t xml:space="preserve">163 162 </t>
+        </is>
+      </c>
+      <c r="O540" t="inlineStr">
+        <is>
+          <t>弓箭手</t>
         </is>
       </c>
     </row>
@@ -36277,6 +38688,11 @@
       <c r="N541" t="inlineStr">
         <is>
           <t xml:space="preserve">60 </t>
+        </is>
+      </c>
+      <c r="O541" t="inlineStr">
+        <is>
+          <t>妖精的呼朋引伴</t>
         </is>
       </c>
     </row>
@@ -36352,6 +38768,11 @@
           <t xml:space="preserve">171 </t>
         </is>
       </c>
+      <c r="O542" t="inlineStr">
+        <is>
+          <t>亚尔丽妲的号令</t>
+        </is>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
@@ -36411,7 +38832,11 @@
 </t>
         </is>
       </c>
-      <c r="N543" t="inlineStr"/>
+      <c r="O543" t="inlineStr">
+        <is>
+          <t>女仆事务长</t>
+        </is>
+      </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
@@ -36476,6 +38901,11 @@
           <t xml:space="preserve">174 173 </t>
         </is>
       </c>
+      <c r="O544" t="inlineStr">
+        <is>
+          <t>女仆事务长</t>
+        </is>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
@@ -36535,7 +38965,11 @@
 </t>
         </is>
       </c>
-      <c r="N545" t="inlineStr"/>
+      <c r="O545" t="inlineStr">
+        <is>
+          <t>睿智指挥官</t>
+        </is>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
@@ -36595,7 +39029,11 @@
 </t>
         </is>
       </c>
-      <c r="N546" t="inlineStr"/>
+      <c r="O546" t="inlineStr">
+        <is>
+          <t>见习骑兵</t>
+        </is>
+      </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
@@ -36661,6 +39099,11 @@
           <t xml:space="preserve">193 192 </t>
         </is>
       </c>
+      <c r="O547" t="inlineStr">
+        <is>
+          <t>次元超越</t>
+        </is>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
@@ -36726,6 +39169,11 @@
           <t xml:space="preserve">195 </t>
         </is>
       </c>
+      <c r="O548" t="inlineStr">
+        <is>
+          <t>幻影巫术师</t>
+        </is>
+      </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
@@ -36785,7 +39233,11 @@
 </t>
         </is>
       </c>
-      <c r="N549" t="inlineStr"/>
+      <c r="O549" t="inlineStr">
+        <is>
+          <t>幻影巫术师</t>
+        </is>
+      </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
@@ -36846,7 +39298,11 @@
 </t>
         </is>
       </c>
-      <c r="N550" t="inlineStr"/>
+      <c r="O550" t="inlineStr">
+        <is>
+          <t>炼金术的代价</t>
+        </is>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
@@ -36912,6 +39368,11 @@
           <t xml:space="preserve">93 92 91 </t>
         </is>
       </c>
+      <c r="O551" t="inlineStr">
+        <is>
+          <t>魔力积蓄</t>
+        </is>
+      </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
@@ -36975,6 +39436,11 @@
       <c r="N552" t="inlineStr">
         <is>
           <t xml:space="preserve">202 </t>
+        </is>
+      </c>
+      <c r="O552" t="inlineStr">
+        <is>
+          <t>龙骑士‧艾拉</t>
         </is>
       </c>
     </row>
@@ -37038,7 +39504,11 @@
 </t>
         </is>
       </c>
-      <c r="N553" t="inlineStr"/>
+      <c r="O553" t="inlineStr">
+        <is>
+          <t>神龙</t>
+        </is>
+      </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
@@ -37099,7 +39569,11 @@
 </t>
         </is>
       </c>
-      <c r="N554" t="inlineStr"/>
+      <c r="O554" t="inlineStr">
+        <is>
+          <t>神龙</t>
+        </is>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
@@ -37172,6 +39646,11 @@
           <t xml:space="preserve">208 </t>
         </is>
       </c>
+      <c r="O555" t="inlineStr">
+        <is>
+          <t>龙化之塔</t>
+        </is>
+      </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
@@ -37237,6 +39716,11 @@
           <t xml:space="preserve">106 </t>
         </is>
       </c>
+      <c r="O556" t="inlineStr">
+        <is>
+          <t>炽热吐息</t>
+        </is>
+      </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
@@ -37296,7 +39780,11 @@
 </t>
         </is>
       </c>
-      <c r="N557" t="inlineStr"/>
+      <c r="O557" t="inlineStr">
+        <is>
+          <t>不死斗士‧莫迪凯</t>
+        </is>
+      </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
@@ -37356,7 +39844,11 @@
 </t>
         </is>
       </c>
-      <c r="N558" t="inlineStr"/>
+      <c r="O558" t="inlineStr">
+        <is>
+          <t>疯狂的刽子手</t>
+        </is>
+      </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
@@ -37421,6 +39913,11 @@
           <t xml:space="preserve">221 </t>
         </is>
       </c>
+      <c r="O559" t="inlineStr">
+        <is>
+          <t>疯狂的刽子手</t>
+        </is>
+      </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
@@ -37480,7 +39977,11 @@
 </t>
         </is>
       </c>
-      <c r="N560" t="inlineStr"/>
+      <c r="O560" t="inlineStr">
+        <is>
+          <t>暗魔女将</t>
+        </is>
+      </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
@@ -37540,7 +40041,11 @@
 </t>
         </is>
       </c>
-      <c r="N561" t="inlineStr"/>
+      <c r="O561" t="inlineStr">
+        <is>
+          <t>兔灵邪法师</t>
+        </is>
+      </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
@@ -37605,6 +40110,11 @@
           <t xml:space="preserve">229 </t>
         </is>
       </c>
+      <c r="O562" t="inlineStr">
+        <is>
+          <t>忒弥斯的审判</t>
+        </is>
+      </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
@@ -37664,7 +40174,11 @@
 </t>
         </is>
       </c>
-      <c r="N563" t="inlineStr"/>
+      <c r="O563" t="inlineStr">
+        <is>
+          <t>圣之光稜牧师</t>
+        </is>
+      </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
@@ -37729,6 +40243,11 @@
           <t xml:space="preserve">232 231 </t>
         </is>
       </c>
+      <c r="O564" t="inlineStr">
+        <is>
+          <t>圣之光稜牧师</t>
+        </is>
+      </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
@@ -37794,6 +40313,11 @@
           <t xml:space="preserve">234 </t>
         </is>
       </c>
+      <c r="O565" t="inlineStr">
+        <is>
+          <t>漆黑法典</t>
+        </is>
+      </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
@@ -37859,6 +40383,11 @@
           <t xml:space="preserve">140 139 </t>
         </is>
       </c>
+      <c r="O566" t="inlineStr">
+        <is>
+          <t>死亡宣告</t>
+        </is>
+      </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
@@ -37919,7 +40448,11 @@
 </t>
         </is>
       </c>
-      <c r="N567" t="inlineStr"/>
+      <c r="O567" t="inlineStr">
+        <is>
+          <t>风神</t>
+        </is>
+      </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
@@ -37981,7 +40514,11 @@
 </t>
         </is>
       </c>
-      <c r="N568" t="inlineStr"/>
+      <c r="O568" t="inlineStr">
+        <is>
+          <t>叮当天使</t>
+        </is>
+      </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
@@ -38043,7 +40580,11 @@
 </t>
         </is>
       </c>
-      <c r="N569" t="inlineStr"/>
+      <c r="O569" t="inlineStr">
+        <is>
+          <t>叮当天使</t>
+        </is>
+      </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
@@ -38108,6 +40649,11 @@
           <t xml:space="preserve">241 </t>
         </is>
       </c>
+      <c r="O570" t="inlineStr">
+        <is>
+          <t>被封印的双子‧烈焰</t>
+        </is>
+      </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
@@ -38167,7 +40713,11 @@
 </t>
         </is>
       </c>
-      <c r="N571" t="inlineStr"/>
+      <c r="O571" t="inlineStr">
+        <is>
+          <t>被封印的双子‧琉璃</t>
+        </is>
+      </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
@@ -38240,6 +40790,11 @@
           <t xml:space="preserve">147 146 </t>
         </is>
       </c>
+      <c r="O572" t="inlineStr">
+        <is>
+          <t>玫瑰皇后</t>
+        </is>
+      </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
@@ -38306,6 +40861,11 @@
           <t xml:space="preserve">149 148 </t>
         </is>
       </c>
+      <c r="O573" t="inlineStr">
+        <is>
+          <t>远古精灵</t>
+        </is>
+      </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
@@ -38369,6 +40929,11 @@
       <c r="N574" t="inlineStr">
         <is>
           <t xml:space="preserve">151 150 </t>
+        </is>
+      </c>
+      <c r="O574" t="inlineStr">
+        <is>
+          <t>远古精灵</t>
         </is>
       </c>
     </row>
@@ -38438,7 +41003,11 @@
           <t xml:space="preserve">BP01-T04 </t>
         </is>
       </c>
-      <c r="N575" t="inlineStr"/>
+      <c r="O575" t="inlineStr">
+        <is>
+          <t>海底都市霸主‧乙姬</t>
+        </is>
+      </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
@@ -38503,7 +41072,11 @@
           <t xml:space="preserve">BP01-T04 </t>
         </is>
       </c>
-      <c r="N576" t="inlineStr"/>
+      <c r="O576" t="inlineStr">
+        <is>
+          <t>海底都市霸主‧乙姬</t>
+        </is>
+      </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
@@ -38569,6 +41142,11 @@
           <t xml:space="preserve">243 168 167 </t>
         </is>
       </c>
+      <c r="O577" t="inlineStr">
+        <is>
+          <t>皇家剑士‧奥蕾莉亚</t>
+        </is>
+      </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
@@ -38634,6 +41212,11 @@
           <t xml:space="preserve">184 183 </t>
         </is>
       </c>
+      <c r="O578" t="inlineStr">
+        <is>
+          <t>大召唤师‧伊拉斯莫斯</t>
+        </is>
+      </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
@@ -38699,6 +41282,11 @@
           <t xml:space="preserve">185 </t>
         </is>
       </c>
+      <c r="O579" t="inlineStr">
+        <is>
+          <t>梅林</t>
+        </is>
+      </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
@@ -38763,6 +41351,11 @@
           <t xml:space="preserve">246 186 </t>
         </is>
       </c>
+      <c r="O580" t="inlineStr">
+        <is>
+          <t>梅林</t>
+        </is>
+      </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
@@ -38823,7 +41416,11 @@
 </t>
         </is>
       </c>
-      <c r="N581" t="inlineStr"/>
+      <c r="O581" t="inlineStr">
+        <is>
+          <t>黑龙骑士‧法露特</t>
+        </is>
+      </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
@@ -38883,7 +41480,11 @@
 </t>
         </is>
       </c>
-      <c r="N582" t="inlineStr"/>
+      <c r="O582" t="inlineStr">
+        <is>
+          <t>黑龙骑士‧法露特</t>
+        </is>
+      </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
@@ -38954,6 +41555,11 @@
       <c r="N583" t="inlineStr">
         <is>
           <t xml:space="preserve">201 </t>
+        </is>
+      </c>
+      <c r="O583" t="inlineStr">
+        <is>
+          <t>吉尔尼特拉</t>
         </is>
       </c>
     </row>
@@ -39029,6 +41635,11 @@
           <t xml:space="preserve">213 </t>
         </is>
       </c>
+      <c r="O584" t="inlineStr">
+        <is>
+          <t>凯尔贝洛斯</t>
+        </is>
+      </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
@@ -39098,6 +41709,11 @@
           <t xml:space="preserve">214 </t>
         </is>
       </c>
+      <c r="O585" t="inlineStr">
+        <is>
+          <t>凯尔贝洛斯</t>
+        </is>
+      </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
@@ -39160,6 +41776,11 @@
       <c r="N586" t="inlineStr">
         <is>
           <t xml:space="preserve">271 216 215 </t>
+        </is>
+      </c>
+      <c r="O586" t="inlineStr">
+        <is>
+          <t>骨骸王</t>
         </is>
       </c>
     </row>
@@ -39228,6 +41849,11 @@
           <t xml:space="preserve">225 </t>
         </is>
       </c>
+      <c r="O587" t="inlineStr">
+        <is>
+          <t>黑天月兔妖</t>
+        </is>
+      </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
@@ -39288,7 +41914,11 @@
 </t>
         </is>
       </c>
-      <c r="N588" t="inlineStr"/>
+      <c r="O588" t="inlineStr">
+        <is>
+          <t>圣女贞德</t>
+        </is>
+      </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
@@ -39348,7 +41978,11 @@
 </t>
         </is>
       </c>
-      <c r="N589" t="inlineStr"/>
+      <c r="O589" t="inlineStr">
+        <is>
+          <t>圣女贞德</t>
+        </is>
+      </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
@@ -39409,7 +42043,11 @@
 </t>
         </is>
       </c>
-      <c r="N590" t="inlineStr"/>
+      <c r="O590" t="inlineStr">
+        <is>
+          <t>加百列</t>
+        </is>
+      </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
@@ -39471,7 +42109,11 @@
 </t>
         </is>
       </c>
-      <c r="N591" t="inlineStr"/>
+      <c r="O591" t="inlineStr">
+        <is>
+          <t>路西法</t>
+        </is>
+      </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
@@ -39532,7 +42174,11 @@
 </t>
         </is>
       </c>
-      <c r="N592" t="inlineStr"/>
+      <c r="O592" t="inlineStr">
+        <is>
+          <t>路西法</t>
+        </is>
+      </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
@@ -39593,7 +42239,11 @@
 </t>
         </is>
       </c>
-      <c r="N593" t="inlineStr"/>
+      <c r="O593" t="inlineStr">
+        <is>
+          <t>烈焰‧琉璃</t>
+        </is>
+      </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
@@ -39653,7 +42303,11 @@
 </t>
         </is>
       </c>
-      <c r="N594" t="inlineStr"/>
+      <c r="O594" t="inlineStr">
+        <is>
+          <t>蔷薇的猛击</t>
+        </is>
+      </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
@@ -39706,7 +42360,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="N595" t="inlineStr"/>
+      <c r="O595" t="inlineStr">
+        <is>
+          <t>妖精萤火</t>
+        </is>
+      </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
@@ -39759,7 +42417,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="N596" t="inlineStr"/>
+      <c r="O596" t="inlineStr">
+        <is>
+          <t>妖精</t>
+        </is>
+      </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
@@ -39819,7 +42481,11 @@
 </t>
         </is>
       </c>
-      <c r="N597" t="inlineStr"/>
+      <c r="O597" t="inlineStr">
+        <is>
+          <t>乙姬近卫队</t>
+        </is>
+      </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
@@ -39872,7 +42538,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="N598" t="inlineStr"/>
+      <c r="O598" t="inlineStr">
+        <is>
+          <t>骑士</t>
+        </is>
+      </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
@@ -39932,7 +42602,11 @@
 </t>
         </is>
       </c>
-      <c r="N599" t="inlineStr"/>
+      <c r="O599" t="inlineStr">
+        <is>
+          <t>维京战士</t>
+        </is>
+      </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
@@ -39985,7 +42659,11 @@
           <t>2</t>
         </is>
       </c>
-      <c r="N600" t="inlineStr"/>
+      <c r="O600" t="inlineStr">
+        <is>
+          <t>铁甲骑士</t>
+        </is>
+      </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
@@ -40045,7 +42723,11 @@
 </t>
         </is>
       </c>
-      <c r="N601" t="inlineStr"/>
+      <c r="O601" t="inlineStr">
+        <is>
+          <t>攻击型巨像</t>
+        </is>
+      </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
@@ -40105,7 +42787,11 @@
 </t>
         </is>
       </c>
-      <c r="N602" t="inlineStr"/>
+      <c r="O602" t="inlineStr">
+        <is>
+          <t>防御型巨像</t>
+        </is>
+      </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
@@ -40168,7 +42854,11 @@
 </t>
         </is>
       </c>
-      <c r="N603" t="inlineStr"/>
+      <c r="O603" t="inlineStr">
+        <is>
+          <t>大地之魔片</t>
+        </is>
+      </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
@@ -40221,7 +42911,11 @@
           <t>5</t>
         </is>
       </c>
-      <c r="N604" t="inlineStr"/>
+      <c r="O604" t="inlineStr">
+        <is>
+          <t>飞龙</t>
+        </is>
+      </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
@@ -40281,7 +42975,11 @@
 </t>
         </is>
       </c>
-      <c r="N605" t="inlineStr"/>
+      <c r="O605" t="inlineStr">
+        <is>
+          <t>米米</t>
+        </is>
+      </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
@@ -40341,7 +43039,11 @@
 </t>
         </is>
       </c>
-      <c r="N606" t="inlineStr"/>
+      <c r="O606" t="inlineStr">
+        <is>
+          <t>可可</t>
+        </is>
+      </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
@@ -40402,7 +43104,11 @@
 </t>
         </is>
       </c>
-      <c r="N607" t="inlineStr"/>
+      <c r="O607" t="inlineStr">
+        <is>
+          <t>怨灵</t>
+        </is>
+      </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
@@ -40455,7 +43161,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="N608" t="inlineStr"/>
+      <c r="O608" t="inlineStr">
+        <is>
+          <t>丛林蝙蝠</t>
+        </is>
+      </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
@@ -40515,7 +43225,11 @@
 </t>
         </is>
       </c>
-      <c r="N609" t="inlineStr"/>
+      <c r="O609" t="inlineStr">
+        <is>
+          <t>神圣猎鹰</t>
+        </is>
+      </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
@@ -40575,7 +43289,11 @@
 </t>
         </is>
       </c>
-      <c r="N610" t="inlineStr"/>
+      <c r="O610" t="inlineStr">
+        <is>
+          <t>神圣猛虎</t>
+        </is>
+      </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
@@ -40646,6 +43364,11 @@
           <t xml:space="preserve">147 146 </t>
         </is>
       </c>
+      <c r="O611" t="inlineStr">
+        <is>
+          <t>玫瑰皇后</t>
+        </is>
+      </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
@@ -40710,7 +43433,11 @@
           <t xml:space="preserve">BP01-T04 </t>
         </is>
       </c>
-      <c r="N612" t="inlineStr"/>
+      <c r="O612" t="inlineStr">
+        <is>
+          <t>海底都市霸主‧乙姬</t>
+        </is>
+      </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
@@ -40782,6 +43509,11 @@
           <t xml:space="preserve">194 </t>
         </is>
       </c>
+      <c r="O613" t="inlineStr">
+        <is>
+          <t>诺诺的秘密研究室</t>
+        </is>
+      </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
@@ -40841,7 +43573,11 @@
 </t>
         </is>
       </c>
-      <c r="N614" t="inlineStr"/>
+      <c r="O614" t="inlineStr">
+        <is>
+          <t>黑龙骑士‧法露特</t>
+        </is>
+      </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
@@ -40909,6 +43645,11 @@
           <t xml:space="preserve">217 </t>
         </is>
       </c>
+      <c r="O615" t="inlineStr">
+        <is>
+          <t>梅杜莎</t>
+        </is>
+      </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
@@ -40968,7 +43709,11 @@
 </t>
         </is>
       </c>
-      <c r="N616" t="inlineStr"/>
+      <c r="O616" t="inlineStr">
+        <is>
+          <t>圣女贞德</t>
+        </is>
+      </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
@@ -41029,7 +43774,11 @@
 </t>
         </is>
       </c>
-      <c r="N617" t="inlineStr"/>
+      <c r="O617" t="inlineStr">
+        <is>
+          <t>加百列</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/docs/SVE_card_list.xlsx
+++ b/docs/SVE_card_list.xlsx
@@ -3347,7 +3347,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>フォロワー・エボルヴ</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3501,7 +3501,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>スペル</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3537,7 +3537,7 @@
       <c r="K42" t="inlineStr">
         <is>
           <t xml:space="preserve">
-《クイック》
+《クイック》
 相手の進化していないフォロワー1体を選ぶ。それを手札に戻す。【スペルチェイン_10】代わりにデッキの上に置く。（手札かデッキに戻ったトークンはゲームから取り除く）
 </t>
         </is>
@@ -3650,7 +3650,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>フォロワー・エボルヴ</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3800,7 +3800,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>スペル</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3836,9 +3836,9 @@
       <c r="K46" t="inlineStr">
         <is>
           <t xml:space="preserve">
-下記から2つまでチョイスする。【スペルチェイン_10】代わりに3つまで。
-【1】相手のフォロワー1体を選ぶ。それに3ダメージ。【2】『防御型ゴーレム』1体を出す。【3】1枚引く。
-―――――――――――――――
+下記から2つまでチョイスする。【スペルチェイン_10】代わりに3つまで。
+【1】相手のフォロワー1体を選ぶ。それに3ダメージ。【2】『防御型ゴーレム』1体を出す。【3】1枚引く。
+―――――――――――――――
 『防御型ゴーレム』《ウィッチ》ゴーレム・フォロワー《コスト2》《攻撃力》2/《体力》3【守護】
 </t>
         </is>
@@ -3957,7 +3957,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>フォロワー・エボルヴ</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -4101,7 +4101,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>スペル</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -4170,7 +4170,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>スペル</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -4206,8 +4206,8 @@
       <c r="K51" t="inlineStr">
         <is>
           <t xml:space="preserve">
-『マジカルポーン』1体を出す。
-―――――――――――――――
+『マジカルポーン』1体を出す。
+―――――――――――――――
 『マジカルポーン』《ウィッチ》チェス・フォロワー《コスト1》《攻撃力》2/《体力》1
 </t>
         </is>
@@ -4246,7 +4246,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>アミュレット</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -4396,7 +4396,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>フォロワー・エボルヴ</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -4470,7 +4470,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>アミュレット</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -4506,11 +4506,11 @@
       <c r="K55" t="inlineStr">
         <is>
           <t xml:space="preserve">
-これを自分の手札から捨てたとき、『ヘルフレイムドラゴン』1枚をEXエリアに置く。
+これを自分の手札から捨てたとき、『ヘルフレイムドラゴン』1枚をEXエリアに置く。
 ----------
 《ファンファーレ》《コスト3》：『ヘルフレイムドラゴン』1体を出す。1枚引く。
-《起動》これを《アクト》手札1枚を捨てる：『ヘルフレイムドラゴン』1枚をEXエリアに置く。この能力は【覚醒】状態なら使える。
-―――――――――――――――
+《起動》これを《アクト》手札1枚を捨てる：『ヘルフレイムドラゴン』1枚をEXエリアに置く。この能力は【覚醒】状態なら使える。
+―――――――――――――――
 『ヘルフレイムドラゴン』《ドラゴン》竜族・フォロワー《コスト2》《攻撃力》4/《体力》3【突進】
 </t>
         </is>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>フォロワー・エボルヴ</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -4709,7 +4709,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>スペル</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -4783,7 +4783,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>アミュレット</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -4819,8 +4819,8 @@
       <c r="K59" t="inlineStr">
         <is>
           <t xml:space="preserve">
-自分のターンごとに1回、自分の場に『ドラゴン』が出たとき、相手のリーダー1人か相手のフォロワー1体を選ぶ。それに5ダメージ。
-―――――――――――――――
+自分のターンごとに1回、自分の場に『ドラゴン』が出たとき、相手のリーダー1人か相手のフォロワー1体を選ぶ。それに5ダメージ。
+―――――――――――――――
 『ドラゴン』《ドラゴン》竜族・フォロワー《コスト4》《攻撃力》5/《体力》5
 </t>
         </is>
@@ -4939,7 +4939,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>フォロワー・エボルヴ</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -5099,7 +5099,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>アミュレット</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -5377,7 +5377,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>フォロワー・エボルヴ</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -5533,7 +5533,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>スペル</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -5569,8 +5569,8 @@
       <c r="K69" t="inlineStr">
         <is>
           <t xml:space="preserve">
-『ドラゴウェポン』1つを出す。【覚醒】状態なら、代わりに2つ。
-―――――――――――――――
+『ドラゴウェポン』1つを出す。【覚醒】状態なら、代わりに2つ。
+―――――――――――――――
 『ドラゴウェポン』《ドラゴン》武装・アミュレット《コスト1》《起動》これを《アクト》墓場に置く：自分の《ドラゴン》フォロワー1体を選ぶ。それは《体力》+1して、武装・タイプを持つ。
 </t>
         </is>
@@ -5840,7 +5840,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>フォロワー・エボルヴ</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -6077,7 +6077,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>フォロワー・エボルヴ</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -6157,7 +6157,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>アミュレット</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -6194,8 +6194,8 @@
         <is>
           <t xml:space="preserve">
 《ファンファーレ》自分のデッキの上3枚を見る。その中から、吸血鬼・カード1枚を公開して手札に加えてよい。残りを好きな順にデッキの下に置く。
-《起動》《コスト1》これを《アクト》墓場に置く：『フォレストバット』1体を出す。
-―――――――――――――――
+《起動》《コスト1》これを《アクト》墓場に置く：『フォレストバット』1体を出す。
+―――――――――――――――
 『フォレストバット』《ナイトメア》吸血鬼・フォロワー《コスト1》《攻撃力》1/《体力》1
 </t>
         </is>
@@ -6234,7 +6234,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>アミュレット</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -6386,7 +6386,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>フォロワー・エボルヴ</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -6537,7 +6537,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>スペル</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -6573,8 +6573,8 @@
       <c r="K82" t="inlineStr">
         <is>
           <t xml:space="preserve">
-下記から1つチョイスする。【1】『フォレストバット』を「相手の場のカードの枚数」と同じだけ出す。【2】自分の『フォレストバット』すべては《攻撃力》+1/《体力》+1する。
-―――――――――――――――
+下記から1つチョイスする。【1】『フォレストバット』を「相手の場のカードの枚数」と同じだけ出す。【2】自分の『フォレストバット』すべては《攻撃力》+1/《体力》+1する。
+―――――――――――――――
 『フォレストバット』《ナイトメア》吸血鬼・フォロワー《コスト1》《攻撃力》1/《体力》1
 </t>
         </is>
@@ -6613,7 +6613,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>スペル</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -6895,7 +6895,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>フォロワー・エボルヴ</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -7045,7 +7045,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>スペル</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -7081,9 +7081,9 @@
       <c r="K89" t="inlineStr">
         <is>
           <t xml:space="preserve">
-下記から1つチョイスする。【ネクロチャージ_10】代わりに2つまで。
-【1】自分の墓場のコスト2以下のフォロワー1枚を選ぶ。それを場に出す。【2】『ゴースト』2体を出す。
-―――――――――――――――
+下記から1つチョイスする。【ネクロチャージ_10】代わりに2つまで。
+【1】自分の墓場のコスト2以下のフォロワー1枚を選ぶ。それを場に出す。【2】『ゴースト』2体を出す。
+―――――――――――――――
 『ゴースト』《ナイトメア》死者・フォロワー《コスト1》《攻撃力》1/《体力》1【疾走】自分のエンドフェイズが来たとき、これは消滅する。
 </t>
         </is>
@@ -7209,7 +7209,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>フォロワー・エボルヴ</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -7290,7 +7290,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>アミュレット</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -7326,7 +7326,7 @@
       <c r="K92" t="inlineStr">
         <is>
           <t xml:space="preserve">
-これは能力によって破壊されない。
+これは能力によって破壊されない。
 自分のエンドフェイズが来たとき、これに祈りカウンター1つを置く。その後、祈りカウンターが4つ以上なら、これを墓場に置く。自分のリーダーは《体力》+10する。自分のデッキからカード2枚まで探し、EXエリアに置く。それをプレイする際、コストを0にする。
 </t>
         </is>
@@ -7446,7 +7446,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>フォロワー・エボルヴ</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>アミュレット</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -7598,7 +7598,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>アミュレット</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -7748,7 +7748,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>フォロワー・エボルヴ</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -7897,7 +7897,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>アミュレット</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -7934,9 +7934,9 @@
         <is>
           <t xml:space="preserve">
 《ファンファーレ》『ホーリーファルコン』1体を出す。
-《起動》《コスト2》これを《アクト》墓場に置く：『ホーリータイガー』1体を出す。
-―――――――――――――――
-『ホーリーファルコン』《ビショップ》鳥族・フォロワー《コスト3》《攻撃力》2/《体力》2【疾走】
+《起動》《コスト2》これを《アクト》墓場に置く：『ホーリータイガー』1体を出す。
+―――――――――――――――
+『ホーリーファルコン』《ビショップ》鳥族・フォロワー《コスト3》《攻撃力》2/《体力》2【疾走】
 『ホーリータイガー』《ビショップ》獣・フォロワー《コスト4》《攻撃力》4/《体力》4【突進】
 </t>
         </is>
@@ -8184,7 +8184,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>フォロワー・エボルヴ</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -8557,7 +8557,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>フォロワー・エボルヴ</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -8781,7 +8781,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>フォロワー・エボルヴ</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -8861,7 +8861,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>スペル</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -8897,7 +8897,7 @@
       <c r="K113" t="inlineStr">
         <is>
           <t xml:space="preserve">
-《クイック》
+《クイック》
 相手のフォロワー1体を選ぶ。それに3ダメージ。それがエボルヴフォロワーなら、代わりに4ダメージ。
 </t>
         </is>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>フォロワー・エボルヴ</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -9144,7 +9144,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>スペル</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -9180,7 +9180,7 @@
       <c r="K117" t="inlineStr">
         <is>
           <t xml:space="preserve">
-《クイック》
+《クイック》
 相手のフォロワー1体を選ぶ。それを破壊する。自分のデッキから《ニュートラル》フォロワー1枚を探し、手札に加える。
 </t>
         </is>
@@ -9362,7 +9362,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>フォロワー・エボルヴ</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -9436,7 +9436,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>スペル</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -9505,7 +9505,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>リーダー</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -9562,7 +9562,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>リーダー</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -9619,7 +9619,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>リーダー</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>フォロワー・エボルヴ</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -9902,7 +9902,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>スペル</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -10204,7 +10204,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>フォロワー・エボルヴ</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -10417,7 +10417,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>スペル</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -10453,7 +10453,7 @@
       <c r="K135" t="inlineStr">
         <is>
           <t xml:space="preserve">
-《クイック》
+《クイック》
 相手の進化していないフォロワー1体を選ぶ。それを手札に戻す。【スペルチェイン_10】代わりにデッキの上に置く。（手札かデッキに戻ったトークンはゲームから取り除く）
 </t>
         </is>
@@ -10566,7 +10566,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>フォロワー・エボルヴ</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -10647,7 +10647,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>スペル</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -10683,9 +10683,9 @@
       <c r="K138" t="inlineStr">
         <is>
           <t xml:space="preserve">
-下記から2つまでチョイスする。【スペルチェイン_10】代わりに3つまで。
-【1】相手のフォロワー1体を選ぶ。それに3ダメージ。【2】『防御型ゴーレム』1体を出す。【3】1枚引く。
-―――――――――――――――
+下記から2つまでチョイスする。【スペルチェイン_10】代わりに3つまで。
+【1】相手のフォロワー1体を選ぶ。それに3ダメージ。【2】『防御型ゴーレム』1体を出す。【3】1枚引く。
+―――――――――――――――
 『防御型ゴーレム』《ウィッチ》ゴーレム・フォロワー《コスト2》《攻撃力》2/《体力》3【守護】
 </t>
         </is>
@@ -10729,7 +10729,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>スペル</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -10765,8 +10765,8 @@
       <c r="K139" t="inlineStr">
         <is>
           <t xml:space="preserve">
-『マジカルポーン』1体を出す。
-―――――――――――――――
+『マジカルポーン』1体を出す。
+―――――――――――――――
 『マジカルポーン』《ウィッチ》チェス・フォロワー《コスト1》《攻撃力》2/《体力》1
 </t>
         </is>
@@ -10805,7 +10805,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>スペル</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -10954,7 +10954,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>フォロワー・エボルヴ</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -11033,7 +11033,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>アミュレット</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -11108,7 +11108,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>スペル</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -11144,8 +11144,8 @@
       <c r="K144" t="inlineStr">
         <is>
           <t xml:space="preserve">
-『ドラゴウェポン』1つを出す。【覚醒】状態なら、代わりに2つ。
-―――――――――――――――
+『ドラゴウェポン』1つを出す。【覚醒】状態なら、代わりに2つ。
+―――――――――――――――
 『ドラゴウェポン』《ドラゴン》武装・アミュレット《コスト1》《起動》これを《アクト》墓場に置く：自分の《ドラゴン》フォロワー1体を選ぶ。それは《体力》+1して、武装・タイプを持つ。
 </t>
         </is>
@@ -11336,7 +11336,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>フォロワー・エボルヴ</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -11487,7 +11487,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>スペル</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -11523,9 +11523,9 @@
       <c r="K149" t="inlineStr">
         <is>
           <t xml:space="preserve">
-下記から1つチョイスする。【ネクロチャージ_10】代わりに2つまで。
-【1】自分の墓場のコスト2以下のフォロワー1枚を選ぶ。それを場に出す。【2】『ゴースト』2体を出す。
-―――――――――――――――
+下記から1つチョイスする。【ネクロチャージ_10】代わりに2つまで。
+【1】自分の墓場のコスト2以下のフォロワー1枚を選ぶ。それを場に出す。【2】『ゴースト』2体を出す。
+―――――――――――――――
 『ゴースト』《ナイトメア》死者・フォロワー《コスト1》《攻撃力》1/《体力》1【疾走】自分のエンドフェイズが来たとき、これは消滅する。
 </t>
         </is>
@@ -11564,7 +11564,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>アミュレット</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -11714,7 +11714,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>フォロワー・エボルヴ</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -12087,7 +12087,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>フォロワー・エボルヴ</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -12230,7 +12230,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>スペル</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>フォロワー・エボルヴ</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -12605,7 +12605,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>フォロワー・エボルヴ</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -12842,7 +12842,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>フォロワー・エボルヴ</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -13081,7 +13081,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>フォロワー・エボルヴ</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -13155,7 +13155,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>アミュレット</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -13191,11 +13191,11 @@
       <c r="K171" t="inlineStr">
         <is>
           <t xml:space="preserve">
-これを自分の手札から捨てたとき、『ヘルフレイムドラゴン』1枚をEXエリアに置く。
+これを自分の手札から捨てたとき、『ヘルフレイムドラゴン』1枚をEXエリアに置く。
 ----------
 《ファンファーレ》《コスト3》：『ヘルフレイムドラゴン』1体を出す。1枚引く。
-《起動》これを《アクト》手札1枚を捨てる：『ヘルフレイムドラゴン』1枚をEXエリアに置く。この能力は【覚醒】状態なら使える。
-―――――――――――――――
+《起動》これを《アクト》手札1枚を捨てる：『ヘルフレイムドラゴン』1枚をEXエリアに置く。この能力は【覚醒】状態なら使える。
+―――――――――――――――
 『ヘルフレイムドラゴン』《ドラゴン》竜族・フォロワー《コスト2》《攻撃力》4/《体力》3【突進】
 </t>
         </is>
@@ -13395,7 +13395,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>フォロワー・エボルヴ</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -13557,7 +13557,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>フォロワー・エボルヴ</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -13638,7 +13638,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>アミュレット</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -13674,7 +13674,7 @@
       <c r="K177" t="inlineStr">
         <is>
           <t xml:space="preserve">
-これは能力によって破壊されない。
+これは能力によって破壊されない。
 自分のエンドフェイズが来たとき、これに祈りカウンター1つを置く。その後、祈りカウンターが4つ以上なら、これを墓場に置く。自分のリーダーは《体力》+10する。自分のデッキからカード2枚まで探し、EXエリアに置く。それをプレイする際、コストを0にする。
 </t>
         </is>
@@ -13858,7 +13858,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>フォロワー・エボルヴ</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -13998,7 +13998,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>フォロワー・トークン</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -14055,7 +14055,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>フォロワー・トークン</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -14124,7 +14124,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>アミュレット・トークン</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -14193,7 +14193,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>フォロワー・トークン</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -14255,7 +14255,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>フォロワー・トークン</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -14317,7 +14317,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>フォロワー・トークン</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -14386,7 +14386,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>アミュレット・トークン</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -14460,7 +14460,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>アミュレット・トークン</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -14496,7 +14496,7 @@
       <c r="K189" t="inlineStr">
         <is>
           <t xml:space="preserve">
-これがある限り、自分のターン中、自分の『カグヤ』すべてはダメージを受けない。
+これがある限り、自分のターン中、自分の『カグヤ』すべてはダメージを受けない。
 自分のメインフェイズが来たとき、これは消滅する。
 </t>
         </is>
@@ -14535,7 +14535,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>スペル・トークン</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -14604,7 +14604,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>フォロワー・トークン</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -14666,7 +14666,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>フォロワー・トークン</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>フォロワー・トークン</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -14790,7 +14790,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>フォロワー・トークン</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -14859,7 +14859,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>フォロワー・トークン</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -14928,7 +14928,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>アミュレット・トークン</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -14964,8 +14964,8 @@
       <c r="K196" t="inlineStr">
         <is>
           <t xml:space="preserve">
-【スタック】（【スタック】を持つアミュレットは、スタックカウンター1つを置いた状態で場に出て、下記の能力を持つ）
-これが場を離れるとき、代わりにこれのスタックカウンター1つを取る。
+【スタック】（【スタック】を持つアミュレットは、スタックカウンター1つを置いた状態で場に出て、下記の能力を持つ）
+これが場を離れるとき、代わりにこれのスタックカウンター1つを取る。
 これのスタックカウンターが0になったとき、これを破壊する。
 《起動》これを《アクト》：自分の他の【スタック】を持つアミュレット1つを選ぶ。それにこれのスタックカウンターすべてを移す。
 </t>
@@ -15000,7 +15000,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>フォロワー・トークン</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -15057,7 +15057,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>フォロワー・トークン</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -15093,7 +15093,7 @@
       <c r="K198" t="inlineStr">
         <is>
           <t xml:space="preserve">
-【疾走】
+【疾走】
 自分のエンドフェイズが来たとき、これは消滅する。
 </t>
         </is>
@@ -15127,7 +15127,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>フォロワー・トークン</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -15189,7 +15189,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>フォロワー・トークン</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -15258,7 +15258,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>フォロワー・トークン</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -15327,7 +15327,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>フォロワー・エボルヴ</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -15475,7 +15475,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>フォロワー・エボルヴ</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>フォロワー・エボルヴ</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -15693,7 +15693,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>フォロワー・エボルヴ</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -15773,7 +15773,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>フォロワー</t>
+          <t>フォロワー・エボルヴ</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -15858,7 +15858,7 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>スターターデッキ第6弾 「穢れし洗礼」</t>
+          <t>スターターデッキ第6弾「穢れし洗礼」</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>スターターデッキ第6弾 「穢れし洗礼」</t>
+          <t>スターターデッキ第6弾「穢れし洗礼」</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -15998,7 +15998,7 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>スターターデッキ第6弾 「穢れし洗礼」</t>
+          <t>スターターデッキ第6弾「穢れし洗礼」</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -16067,7 +16067,7 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>スターターデッキ第6弾 「穢れし洗礼」</t>
+          <t>スターターデッキ第6弾「穢れし洗礼」</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -16136,7 +16136,7 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>スターターデッキ第6弾 「穢れし洗礼」</t>
+          <t>スターターデッキ第6弾「穢れし洗礼」</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -16206,7 +16206,7 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>スターターデッキ第6弾 「穢れし洗礼」</t>
+          <t>スターターデッキ第6弾「穢れし洗礼」</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -16283,7 +16283,7 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>スターターデッキ第6弾 「穢れし洗礼」</t>
+          <t>スターターデッキ第6弾「穢れし洗礼」</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -16352,7 +16352,7 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>スターターデッキ第6弾 「穢れし洗礼」</t>
+          <t>スターターデッキ第6弾「穢れし洗礼」</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -16416,7 +16416,7 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>スターターデッキ第6弾 「穢れし洗礼」</t>
+          <t>スターターデッキ第6弾「穢れし洗礼」</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -16487,7 +16487,7 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>スターターデッキ第6弾 「穢れし洗礼」</t>
+          <t>スターターデッキ第6弾「穢れし洗礼」</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -16557,7 +16557,7 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>スターターデッキ第6弾 「穢れし洗礼」</t>
+          <t>スターターデッキ第6弾「穢れし洗礼」</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -16633,7 +16633,7 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>スターターデッキ第6弾 「穢れし洗礼」</t>
+          <t>スターターデッキ第6弾「穢れし洗礼」</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -16708,7 +16708,7 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>スターターデッキ第6弾 「穢れし洗礼」</t>
+          <t>スターターデッキ第6弾「穢れし洗礼」</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -16778,7 +16778,7 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>スターターデッキ第6弾 「穢れし洗礼」</t>
+          <t>スターターデッキ第6弾「穢れし洗礼」</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -16848,7 +16848,7 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>スターターデッキ第6弾 「穢れし洗礼」</t>
+          <t>スターターデッキ第6弾「穢れし洗礼」</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -16924,7 +16924,7 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>スターターデッキ第6弾 「穢れし洗礼」</t>
+          <t>スターターデッキ第6弾「穢れし洗礼」</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -17001,7 +17001,7 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>スターターデッキ第6弾 「穢れし洗礼」</t>
+          <t>スターターデッキ第6弾「穢れし洗礼」</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -17065,7 +17065,7 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>スターターデッキ第6弾 「穢れし洗礼」</t>
+          <t>スターターデッキ第6弾「穢れし洗礼」</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -17135,7 +17135,7 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>スターターデッキ第6弾 「穢れし洗礼」</t>
+          <t>スターターデッキ第6弾「穢れし洗礼」</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -17204,7 +17204,7 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>スターターデッキ第6弾 「穢れし洗礼」</t>
+          <t>スターターデッキ第6弾「穢れし洗礼」</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -17269,7 +17269,7 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>スターターデッキ第6弾 「穢れし洗礼」</t>
+          <t>スターターデッキ第6弾「穢れし洗礼」</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -17326,7 +17326,7 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>スターターデッキ第6弾 「穢れし洗礼」</t>
+          <t>スターターデッキ第6弾「穢れし洗礼」</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -17390,7 +17390,7 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>スターターデッキ第6弾 「穢れし洗礼」</t>
+          <t>スターターデッキ第6弾「穢れし洗礼」</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
@@ -17454,7 +17454,7 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>スターターデッキ第5弾 「永久なる定め」</t>
+          <t>スターターデッキ第5弾「永久なる定め」</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
@@ -17530,7 +17530,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>スターターデッキ第5弾 「永久なる定め」</t>
+          <t>スターターデッキ第5弾「永久なる定め」</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -17601,7 +17601,7 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>スターターデッキ第5弾 「永久なる定め」</t>
+          <t>スターターデッキ第5弾「永久なる定め」</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
@@ -17670,7 +17670,7 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>スターターデッキ第5弾 「永久なる定め」</t>
+          <t>スターターデッキ第5弾「永久なる定め」</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
@@ -17746,7 +17746,7 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>スターターデッキ第5弾 「永久なる定め」</t>
+          <t>スターターデッキ第5弾「永久なる定め」</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
@@ -17821,7 +17821,7 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>スターターデッキ第5弾 「永久なる定め」</t>
+          <t>スターターデッキ第5弾「永久なる定め」</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
@@ -17898,7 +17898,7 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>スターターデッキ第5弾 「永久なる定め」</t>
+          <t>スターターデッキ第5弾「永久なる定め」</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
@@ -17968,7 +17968,7 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>スターターデッキ第5弾 「永久なる定め」</t>
+          <t>スターターデッキ第5弾「永久なる定め」</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
@@ -18037,7 +18037,7 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>スターターデッキ第5弾 「永久なる定め」</t>
+          <t>スターターデッキ第5弾「永久なる定め」</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
@@ -18106,7 +18106,7 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>スターターデッキ第5弾 「永久なる定め」</t>
+          <t>スターターデッキ第5弾「永久なる定め」</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
@@ -18176,7 +18176,7 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>スターターデッキ第5弾 「永久なる定め」</t>
+          <t>スターターデッキ第5弾「永久なる定め」</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
@@ -18252,7 +18252,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>スターターデッキ第5弾 「永久なる定め」</t>
+          <t>スターターデッキ第5弾「永久なる定め」</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
@@ -18329,7 +18329,7 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>スターターデッキ第5弾 「永久なる定め」</t>
+          <t>スターターデッキ第5弾「永久なる定め」</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
@@ -18403,7 +18403,7 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>スターターデッキ第5弾 「永久なる定め」</t>
+          <t>スターターデッキ第5弾「永久なる定め」</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
@@ -18474,7 +18474,7 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>スターターデッキ第5弾 「永久なる定め」</t>
+          <t>スターターデッキ第5弾「永久なる定め」</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
@@ -18544,7 +18544,7 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>スターターデッキ第5弾 「永久なる定め」</t>
+          <t>スターターデッキ第5弾「永久なる定め」</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
@@ -18620,7 +18620,7 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>スターターデッキ第5弾 「永久なる定め」</t>
+          <t>スターターデッキ第5弾「永久なる定め」</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
@@ -18677,7 +18677,7 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>スターターデッキ第5弾 「永久なる定め」</t>
+          <t>スターターデッキ第5弾「永久なる定め」</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
@@ -18746,7 +18746,7 @@
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>スターターデッキ第5弾 「永久なる定め」</t>
+          <t>スターターデッキ第5弾「永久なる定め」</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
@@ -18808,7 +18808,7 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>スターターデッキ第5弾 「永久なる定め」</t>
+          <t>スターターデッキ第5弾「永久なる定め」</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
@@ -18872,7 +18872,7 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>スターターデッキ第5弾 「永久なる定め」</t>
+          <t>スターターデッキ第5弾「永久なる定め」</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
@@ -18929,7 +18929,7 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>スターターデッキ第5弾 「永久なる定め」</t>
+          <t>スターターデッキ第5弾「永久なる定め」</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
@@ -18994,7 +18994,7 @@
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>スターターデッキ第5弾 「永久なる定め」</t>
+          <t>スターターデッキ第5弾「永久なる定め」</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
@@ -19051,7 +19051,7 @@
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>スターターデッキ第4弾 「蛇竜の爪牙」</t>
+          <t>スターターデッキ第4弾「蛇竜の爪牙」</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
@@ -19120,7 +19120,7 @@
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>スターターデッキ第4弾 「蛇竜の爪牙」</t>
+          <t>スターターデッキ第4弾「蛇竜の爪牙」</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
@@ -19189,7 +19189,7 @@
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>スターターデッキ第4弾 「蛇竜の爪牙」</t>
+          <t>スターターデッキ第4弾「蛇竜の爪牙」</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
@@ -19258,7 +19258,7 @@
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>スターターデッキ第4弾 「蛇竜の爪牙」</t>
+          <t>スターターデッキ第4弾「蛇竜の爪牙」</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
@@ -19327,7 +19327,7 @@
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>スターターデッキ第4弾 「蛇竜の爪牙」</t>
+          <t>スターターデッキ第4弾「蛇竜の爪牙」</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
@@ -19391,7 +19391,7 @@
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>スターターデッキ第4弾 「蛇竜の爪牙」</t>
+          <t>スターターデッキ第4弾「蛇竜の爪牙」</t>
         </is>
       </c>
       <c r="H260" t="inlineStr">
@@ -19456,7 +19456,7 @@
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>スターターデッキ第4弾 「蛇竜の爪牙」</t>
+          <t>スターターデッキ第4弾「蛇竜の爪牙」</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
@@ -19520,7 +19520,7 @@
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>スターターデッキ第4弾 「蛇竜の爪牙」</t>
+          <t>スターターデッキ第4弾「蛇竜の爪牙」</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
@@ -19584,7 +19584,7 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>スターターデッキ第4弾 「蛇竜の爪牙」</t>
+          <t>スターターデッキ第4弾「蛇竜の爪牙」</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
@@ -19659,7 +19659,7 @@
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>スターターデッキ第4弾 「蛇竜の爪牙」</t>
+          <t>スターターデッキ第4弾「蛇竜の爪牙」</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
@@ -19733,7 +19733,7 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>スターターデッキ第4弾 「蛇竜の爪牙」</t>
+          <t>スターターデッキ第4弾「蛇竜の爪牙」</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
@@ -19797,7 +19797,7 @@
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>スターターデッキ第4弾 「蛇竜の爪牙」</t>
+          <t>スターターデッキ第4弾「蛇竜の爪牙」</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
@@ -19874,7 +19874,7 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>スターターデッキ第4弾 「蛇竜の爪牙」</t>
+          <t>スターターデッキ第4弾「蛇竜の爪牙」</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
@@ -19943,7 +19943,7 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>スターターデッキ第4弾 「蛇竜の爪牙」</t>
+          <t>スターターデッキ第4弾「蛇竜の爪牙」</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
@@ -20007,7 +20007,7 @@
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>スターターデッキ第4弾 「蛇竜の爪牙」</t>
+          <t>スターターデッキ第4弾「蛇竜の爪牙」</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
@@ -20077,7 +20077,7 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>スターターデッキ第4弾 「蛇竜の爪牙」</t>
+          <t>スターターデッキ第4弾「蛇竜の爪牙」</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
@@ -20146,7 +20146,7 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>スターターデッキ第4弾 「蛇竜の爪牙」</t>
+          <t>スターターデッキ第4弾「蛇竜の爪牙」</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
@@ -20215,7 +20215,7 @@
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>スターターデッキ第4弾 「蛇竜の爪牙」</t>
+          <t>スターターデッキ第4弾「蛇竜の爪牙」</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
@@ -20277,7 +20277,7 @@
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>スターターデッキ第4弾 「蛇竜の爪牙」</t>
+          <t>スターターデッキ第4弾「蛇竜の爪牙」</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
@@ -20341,7 +20341,7 @@
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>スターターデッキ第4弾 「蛇竜の爪牙」</t>
+          <t>スターターデッキ第4弾「蛇竜の爪牙」</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
@@ -20406,7 +20406,7 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>スターターデッキ第4弾 「蛇竜の爪牙」</t>
+          <t>スターターデッキ第4弾「蛇竜の爪牙」</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
@@ -20463,7 +20463,7 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>スターターデッキ第4弾 「蛇竜の爪牙」</t>
+          <t>スターターデッキ第4弾「蛇竜の爪牙」</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
@@ -20520,7 +20520,7 @@
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>スターターデッキ第3弾 「神秘錬成」</t>
+          <t>スターターデッキ第3弾「神秘錬成」</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
@@ -20589,7 +20589,7 @@
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>スターターデッキ第3弾 「神秘錬成」</t>
+          <t>スターターデッキ第3弾「神秘錬成」</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
@@ -20658,7 +20658,7 @@
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>スターターデッキ第3弾 「神秘錬成」</t>
+          <t>スターターデッキ第3弾「神秘錬成」</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
@@ -20727,7 +20727,7 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>スターターデッキ第3弾 「神秘錬成」</t>
+          <t>スターターデッキ第3弾「神秘錬成」</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
@@ -20801,7 +20801,7 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>スターターデッキ第3弾 「神秘錬成」</t>
+          <t>スターターデッキ第3弾「神秘錬成」</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
@@ -20871,7 +20871,7 @@
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>スターターデッキ第3弾 「神秘錬成」</t>
+          <t>スターターデッキ第3弾「神秘錬成」</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
@@ -20941,7 +20941,7 @@
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>スターターデッキ第3弾 「神秘錬成」</t>
+          <t>スターターデッキ第3弾「神秘錬成」</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
@@ -21010,7 +21010,7 @@
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>スターターデッキ第3弾 「神秘錬成」</t>
+          <t>スターターデッキ第3弾「神秘錬成」</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
@@ -21085,7 +21085,7 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>スターターデッキ第3弾 「神秘錬成」</t>
+          <t>スターターデッキ第3弾「神秘錬成」</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
@@ -21160,7 +21160,7 @@
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>スターターデッキ第3弾 「神秘錬成」</t>
+          <t>スターターデッキ第3弾「神秘錬成」</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
@@ -21235,7 +21235,7 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>スターターデッキ第3弾 「神秘錬成」</t>
+          <t>スターターデッキ第3弾「神秘錬成」</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
@@ -21309,7 +21309,7 @@
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>スターターデッキ第3弾 「神秘錬成」</t>
+          <t>スターターデッキ第3弾「神秘錬成」</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
@@ -21378,7 +21378,7 @@
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>スターターデッキ第3弾 「神秘錬成」</t>
+          <t>スターターデッキ第3弾「神秘錬成」</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
@@ -21448,7 +21448,7 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>スターターデッキ第3弾 「神秘錬成」</t>
+          <t>スターターデッキ第3弾「神秘錬成」</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
@@ -21518,7 +21518,7 @@
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>スターターデッキ第3弾 「神秘錬成」</t>
+          <t>スターターデッキ第3弾「神秘錬成」</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
@@ -21588,7 +21588,7 @@
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>スターターデッキ第3弾 「神秘錬成」</t>
+          <t>スターターデッキ第3弾「神秘錬成」</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
@@ -21666,7 +21666,7 @@
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>スターターデッキ第3弾 「神秘錬成」</t>
+          <t>スターターデッキ第3弾「神秘錬成」</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
@@ -21741,7 +21741,7 @@
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>スターターデッキ第3弾 「神秘錬成」</t>
+          <t>スターターデッキ第3弾「神秘錬成」</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
@@ -21815,7 +21815,7 @@
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>スターターデッキ第3弾 「神秘錬成」</t>
+          <t>スターターデッキ第3弾「神秘錬成」</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
@@ -21880,7 +21880,7 @@
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>スターターデッキ第3弾 「神秘錬成」</t>
+          <t>スターターデッキ第3弾「神秘錬成」</t>
         </is>
       </c>
       <c r="H296" t="inlineStr">
@@ -21950,7 +21950,7 @@
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>スターターデッキ第3弾 「神秘錬成」</t>
+          <t>スターターデッキ第3弾「神秘錬成」</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
@@ -22007,7 +22007,7 @@
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>スターターデッキ第3弾 「神秘錬成」</t>
+          <t>スターターデッキ第3弾「神秘錬成」</t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
@@ -22071,7 +22071,7 @@
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>スターターデッキ第3弾 「神秘錬成」</t>
+          <t>スターターデッキ第3弾「神秘錬成」</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
@@ -22135,7 +22135,7 @@
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>スターターデッキ第2弾 「怨讐刀鬼」</t>
+          <t>スターターデッキ第2弾「怨讐刀鬼」</t>
         </is>
       </c>
       <c r="H300" t="inlineStr">
@@ -22204,7 +22204,7 @@
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>スターターデッキ第2弾 「怨讐刀鬼」</t>
+          <t>スターターデッキ第2弾「怨讐刀鬼」</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
@@ -22261,7 +22261,7 @@
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>スターターデッキ第2弾 「怨讐刀鬼」</t>
+          <t>スターターデッキ第2弾「怨讐刀鬼」</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
@@ -22330,7 +22330,7 @@
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>スターターデッキ第2弾 「怨讐刀鬼」</t>
+          <t>スターターデッキ第2弾「怨讐刀鬼」</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
@@ -22407,7 +22407,7 @@
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>スターターデッキ第2弾 「怨讐刀鬼」</t>
+          <t>スターターデッキ第2弾「怨讐刀鬼」</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
@@ -22471,7 +22471,7 @@
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>スターターデッキ第2弾 「怨讐刀鬼」</t>
+          <t>スターターデッキ第2弾「怨讐刀鬼」</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
@@ -22536,7 +22536,7 @@
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>スターターデッキ第2弾 「怨讐刀鬼」</t>
+          <t>スターターデッキ第2弾「怨讐刀鬼」</t>
         </is>
       </c>
       <c r="H306" t="inlineStr">
@@ -22593,7 +22593,7 @@
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>スターターデッキ第2弾 「怨讐刀鬼」</t>
+          <t>スターターデッキ第2弾「怨讐刀鬼」</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
@@ -22657,7 +22657,7 @@
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>スターターデッキ第2弾 「怨讐刀鬼」</t>
+          <t>スターターデッキ第2弾「怨讐刀鬼」</t>
         </is>
       </c>
       <c r="H308" t="inlineStr">
@@ -22721,7 +22721,7 @@
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>スターターデッキ第2弾 「怨讐刀鬼」</t>
+          <t>スターターデッキ第2弾「怨讐刀鬼」</t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
@@ -22798,7 +22798,7 @@
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>スターターデッキ第2弾 「怨讐刀鬼」</t>
+          <t>スターターデッキ第2弾「怨讐刀鬼」</t>
         </is>
       </c>
       <c r="H310" t="inlineStr">
@@ -22867,7 +22867,7 @@
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>スターターデッキ第2弾 「怨讐刀鬼」</t>
+          <t>スターターデッキ第2弾「怨讐刀鬼」</t>
         </is>
       </c>
       <c r="H311" t="inlineStr">
@@ -22937,7 +22937,7 @@
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>スターターデッキ第2弾 「怨讐刀鬼」</t>
+          <t>スターターデッキ第2弾「怨讐刀鬼」</t>
         </is>
       </c>
       <c r="H312" t="inlineStr">
@@ -23006,7 +23006,7 @@
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>スターターデッキ第2弾 「怨讐刀鬼」</t>
+          <t>スターターデッキ第2弾「怨讐刀鬼」</t>
         </is>
       </c>
       <c r="H313" t="inlineStr">
@@ -23076,7 +23076,7 @@
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>スターターデッキ第2弾 「怨讐刀鬼」</t>
+          <t>スターターデッキ第2弾「怨讐刀鬼」</t>
         </is>
       </c>
       <c r="H314" t="inlineStr">
@@ -23152,7 +23152,7 @@
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>スターターデッキ第2弾 「怨讐刀鬼」</t>
+          <t>スターターデッキ第2弾「怨讐刀鬼」</t>
         </is>
       </c>
       <c r="H315" t="inlineStr">
@@ -23222,7 +23222,7 @@
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>スターターデッキ第2弾 「怨讐刀鬼」</t>
+          <t>スターターデッキ第2弾「怨讐刀鬼」</t>
         </is>
       </c>
       <c r="H316" t="inlineStr">
@@ -23291,7 +23291,7 @@
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>スターターデッキ第2弾 「怨讐刀鬼」</t>
+          <t>スターターデッキ第2弾「怨讐刀鬼」</t>
         </is>
       </c>
       <c r="H317" t="inlineStr">
@@ -23353,7 +23353,7 @@
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>スターターデッキ第2弾 「怨讐刀鬼」</t>
+          <t>スターターデッキ第2弾「怨讐刀鬼」</t>
         </is>
       </c>
       <c r="H318" t="inlineStr">
@@ -23410,7 +23410,7 @@
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>スターターデッキ第2弾 「怨讐刀鬼」</t>
+          <t>スターターデッキ第2弾「怨讐刀鬼」</t>
         </is>
       </c>
       <c r="H319" t="inlineStr">
@@ -23474,7 +23474,7 @@
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>スターターデッキ第2弾 「怨讐刀鬼」</t>
+          <t>スターターデッキ第2弾「怨讐刀鬼」</t>
         </is>
       </c>
       <c r="H320" t="inlineStr">
@@ -23531,7 +23531,7 @@
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>スターターデッキ第2弾 「怨讐刀鬼」</t>
+          <t>スターターデッキ第2弾「怨讐刀鬼」</t>
         </is>
       </c>
       <c r="H321" t="inlineStr">
@@ -23588,7 +23588,7 @@
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>スターターデッキ第2弾 「怨讐刀鬼」</t>
+          <t>スターターデッキ第2弾「怨讐刀鬼」</t>
         </is>
       </c>
       <c r="H322" t="inlineStr">
@@ -23645,7 +23645,7 @@
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>スターターデッキ第1弾 「麗しの妖精姫」</t>
+          <t>スターターデッキ第1弾「麗しの妖精姫」</t>
         </is>
       </c>
       <c r="H323" t="inlineStr">
@@ -23721,7 +23721,7 @@
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>スターターデッキ第1弾 「麗しの妖精姫」</t>
+          <t>スターターデッキ第1弾「麗しの妖精姫」</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
@@ -23792,7 +23792,7 @@
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>スターターデッキ第1弾 「麗しの妖精姫」</t>
+          <t>スターターデッキ第1弾「麗しの妖精姫」</t>
         </is>
       </c>
       <c r="H325" t="inlineStr">
@@ -23861,7 +23861,7 @@
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>スターターデッキ第1弾 「麗しの妖精姫」</t>
+          <t>スターターデッキ第1弾「麗しの妖精姫」</t>
         </is>
       </c>
       <c r="H326" t="inlineStr">
@@ -23930,7 +23930,7 @@
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>スターターデッキ第1弾 「麗しの妖精姫」</t>
+          <t>スターターデッキ第1弾「麗しの妖精姫」</t>
         </is>
       </c>
       <c r="H327" t="inlineStr">
@@ -24006,7 +24006,7 @@
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>スターターデッキ第1弾 「麗しの妖精姫」</t>
+          <t>スターターデッキ第1弾「麗しの妖精姫」</t>
         </is>
       </c>
       <c r="H328" t="inlineStr">
@@ -24082,7 +24082,7 @@
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>スターターデッキ第1弾 「麗しの妖精姫」</t>
+          <t>スターターデッキ第1弾「麗しの妖精姫」</t>
         </is>
       </c>
       <c r="H329" t="inlineStr">
@@ -24146,7 +24146,7 @@
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>スターターデッキ第1弾 「麗しの妖精姫」</t>
+          <t>スターターデッキ第1弾「麗しの妖精姫」</t>
         </is>
       </c>
       <c r="H330" t="inlineStr">
@@ -24215,7 +24215,7 @@
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>スターターデッキ第1弾 「麗しの妖精姫」</t>
+          <t>スターターデッキ第1弾「麗しの妖精姫」</t>
         </is>
       </c>
       <c r="H331" t="inlineStr">
@@ -24290,7 +24290,7 @@
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>スターターデッキ第1弾 「麗しの妖精姫」</t>
+          <t>スターターデッキ第1弾「麗しの妖精姫」</t>
         </is>
       </c>
       <c r="H332" t="inlineStr">
@@ -24352,7 +24352,7 @@
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>スターターデッキ第1弾 「麗しの妖精姫」</t>
+          <t>スターターデッキ第1弾「麗しの妖精姫」</t>
         </is>
       </c>
       <c r="H333" t="inlineStr">
@@ -24429,7 +24429,7 @@
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>スターターデッキ第1弾 「麗しの妖精姫」</t>
+          <t>スターターデッキ第1弾「麗しの妖精姫」</t>
         </is>
       </c>
       <c r="H334" t="inlineStr">
@@ -24504,7 +24504,7 @@
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>スターターデッキ第1弾 「麗しの妖精姫」</t>
+          <t>スターターデッキ第1弾「麗しの妖精姫」</t>
         </is>
       </c>
       <c r="H335" t="inlineStr">
@@ -24574,7 +24574,7 @@
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>スターターデッキ第1弾 「麗しの妖精姫」</t>
+          <t>スターターデッキ第1弾「麗しの妖精姫」</t>
         </is>
       </c>
       <c r="H336" t="inlineStr">
@@ -24650,7 +24650,7 @@
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>スターターデッキ第1弾 「麗しの妖精姫」</t>
+          <t>スターターデッキ第1弾「麗しの妖精姫」</t>
         </is>
       </c>
       <c r="H337" t="inlineStr">
@@ -24720,7 +24720,7 @@
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>スターターデッキ第1弾 「麗しの妖精姫」</t>
+          <t>スターターデッキ第1弾「麗しの妖精姫」</t>
         </is>
       </c>
       <c r="H338" t="inlineStr">
@@ -24797,7 +24797,7 @@
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>スターターデッキ第1弾 「麗しの妖精姫」</t>
+          <t>スターターデッキ第1弾「麗しの妖精姫」</t>
         </is>
       </c>
       <c r="H339" t="inlineStr">
@@ -24866,7 +24866,7 @@
       </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>スターターデッキ第1弾 「麗しの妖精姫」</t>
+          <t>スターターデッキ第1弾「麗しの妖精姫」</t>
         </is>
       </c>
       <c r="H340" t="inlineStr">
@@ -24928,7 +24928,7 @@
       </c>
       <c r="G341" t="inlineStr">
         <is>
-          <t>スターターデッキ第1弾 「麗しの妖精姫」</t>
+          <t>スターターデッキ第1弾「麗しの妖精姫」</t>
         </is>
       </c>
       <c r="H341" t="inlineStr">
@@ -24993,7 +24993,7 @@
       </c>
       <c r="G342" t="inlineStr">
         <is>
-          <t>スターターデッキ第1弾 「麗しの妖精姫」</t>
+          <t>スターターデッキ第1弾「麗しの妖精姫」</t>
         </is>
       </c>
       <c r="H342" t="inlineStr">
@@ -25063,7 +25063,7 @@
       </c>
       <c r="G343" t="inlineStr">
         <is>
-          <t>スターターデッキ第1弾 「麗しの妖精姫」</t>
+          <t>スターターデッキ第1弾「麗しの妖精姫」</t>
         </is>
       </c>
       <c r="H343" t="inlineStr">
@@ -25120,7 +25120,7 @@
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>スターターデッキ第1弾 「麗しの妖精姫」</t>
+          <t>スターターデッキ第1弾「麗しの妖精姫」</t>
         </is>
       </c>
       <c r="H344" t="inlineStr">
@@ -25177,7 +25177,7 @@
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H345" t="inlineStr">
@@ -25254,7 +25254,7 @@
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H346" t="inlineStr">
@@ -25330,7 +25330,7 @@
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H347" t="inlineStr">
@@ -25405,7 +25405,7 @@
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H348" t="inlineStr">
@@ -25481,7 +25481,7 @@
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H349" t="inlineStr">
@@ -25555,7 +25555,7 @@
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H350" t="inlineStr">
@@ -25620,7 +25620,7 @@
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H351" t="inlineStr">
@@ -25690,7 +25690,7 @@
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H352" t="inlineStr">
@@ -25759,7 +25759,7 @@
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H353" t="inlineStr">
@@ -25828,7 +25828,7 @@
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H354" t="inlineStr">
@@ -25899,7 +25899,7 @@
       </c>
       <c r="G355" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H355" t="inlineStr">
@@ -25968,7 +25968,7 @@
       </c>
       <c r="G356" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H356" t="inlineStr">
@@ -26033,7 +26033,7 @@
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H357" t="inlineStr">
@@ -26102,7 +26102,7 @@
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H358" t="inlineStr">
@@ -26179,7 +26179,7 @@
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H359" t="inlineStr">
@@ -26248,7 +26248,7 @@
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H360" t="inlineStr">
@@ -26313,7 +26313,7 @@
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H361" t="inlineStr">
@@ -26377,7 +26377,7 @@
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H362" t="inlineStr">
@@ -26452,7 +26452,7 @@
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H363" t="inlineStr">
@@ -26526,7 +26526,7 @@
       </c>
       <c r="G364" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H364" t="inlineStr">
@@ -26597,7 +26597,7 @@
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H365" t="inlineStr">
@@ -26666,7 +26666,7 @@
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H366" t="inlineStr">
@@ -26735,7 +26735,7 @@
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H367" t="inlineStr">
@@ -26811,7 +26811,7 @@
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H368" t="inlineStr">
@@ -26881,7 +26881,7 @@
       </c>
       <c r="G369" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H369" t="inlineStr">
@@ -26951,7 +26951,7 @@
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H370" t="inlineStr">
@@ -27023,7 +27023,7 @@
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H371" t="inlineStr">
@@ -27092,7 +27092,7 @@
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H372" t="inlineStr">
@@ -27162,7 +27162,7 @@
       </c>
       <c r="G373" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H373" t="inlineStr">
@@ -27237,7 +27237,7 @@
       </c>
       <c r="G374" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H374" t="inlineStr">
@@ -27306,7 +27306,7 @@
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H375" t="inlineStr">
@@ -27383,7 +27383,7 @@
       </c>
       <c r="G376" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H376" t="inlineStr">
@@ -27461,7 +27461,7 @@
       </c>
       <c r="G377" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H377" t="inlineStr">
@@ -27531,7 +27531,7 @@
       </c>
       <c r="G378" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H378" t="inlineStr">
@@ -27600,7 +27600,7 @@
       </c>
       <c r="G379" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H379" t="inlineStr">
@@ -27674,7 +27674,7 @@
       </c>
       <c r="G380" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H380" t="inlineStr">
@@ -27743,7 +27743,7 @@
       </c>
       <c r="G381" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H381" t="inlineStr">
@@ -27807,7 +27807,7 @@
       </c>
       <c r="G382" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H382" t="inlineStr">
@@ -27877,7 +27877,7 @@
       </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H383" t="inlineStr">
@@ -27946,7 +27946,7 @@
       </c>
       <c r="G384" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H384" t="inlineStr">
@@ -28015,7 +28015,7 @@
       </c>
       <c r="G385" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H385" t="inlineStr">
@@ -28093,7 +28093,7 @@
       </c>
       <c r="G386" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H386" t="inlineStr">
@@ -28150,7 +28150,7 @@
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H387" t="inlineStr">
@@ -28225,7 +28225,7 @@
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H388" t="inlineStr">
@@ -28299,7 +28299,7 @@
       </c>
       <c r="G389" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H389" t="inlineStr">
@@ -28364,7 +28364,7 @@
       </c>
       <c r="G390" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H390" t="inlineStr">
@@ -28428,7 +28428,7 @@
       </c>
       <c r="G391" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H391" t="inlineStr">
@@ -28492,7 +28492,7 @@
       </c>
       <c r="G392" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H392" t="inlineStr">
@@ -28556,7 +28556,7 @@
       </c>
       <c r="G393" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H393" t="inlineStr">
@@ -28626,7 +28626,7 @@
       </c>
       <c r="G394" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H394" t="inlineStr">
@@ -28702,7 +28702,7 @@
       </c>
       <c r="G395" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H395" t="inlineStr">
@@ -28772,7 +28772,7 @@
       </c>
       <c r="G396" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H396" t="inlineStr">
@@ -28847,7 +28847,7 @@
       </c>
       <c r="G397" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H397" t="inlineStr">
@@ -28921,7 +28921,7 @@
       </c>
       <c r="G398" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H398" t="inlineStr">
@@ -28993,7 +28993,7 @@
       </c>
       <c r="G399" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H399" t="inlineStr">
@@ -29068,7 +29068,7 @@
       </c>
       <c r="G400" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H400" t="inlineStr">
@@ -29139,7 +29139,7 @@
       </c>
       <c r="G401" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H401" t="inlineStr">
@@ -29209,7 +29209,7 @@
       </c>
       <c r="G402" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H402" t="inlineStr">
@@ -29285,7 +29285,7 @@
       </c>
       <c r="G403" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H403" t="inlineStr">
@@ -29360,7 +29360,7 @@
       </c>
       <c r="G404" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H404" t="inlineStr">
@@ -29429,7 +29429,7 @@
       </c>
       <c r="G405" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H405" t="inlineStr">
@@ -29499,7 +29499,7 @@
       </c>
       <c r="G406" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H406" t="inlineStr">
@@ -29569,7 +29569,7 @@
       </c>
       <c r="G407" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H407" t="inlineStr">
@@ -29646,7 +29646,7 @@
       </c>
       <c r="G408" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H408" t="inlineStr">
@@ -29710,7 +29710,7 @@
       </c>
       <c r="G409" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H409" t="inlineStr">
@@ -29780,7 +29780,7 @@
       </c>
       <c r="G410" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H410" t="inlineStr">
@@ -29845,7 +29845,7 @@
       </c>
       <c r="G411" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H411" t="inlineStr">
@@ -29917,7 +29917,7 @@
       </c>
       <c r="G412" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H412" t="inlineStr">
@@ -29989,7 +29989,7 @@
       </c>
       <c r="G413" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H413" t="inlineStr">
@@ -30063,7 +30063,7 @@
       </c>
       <c r="G414" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H414" t="inlineStr">
@@ -30132,7 +30132,7 @@
       </c>
       <c r="G415" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H415" t="inlineStr">
@@ -30201,7 +30201,7 @@
       </c>
       <c r="G416" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H416" t="inlineStr">
@@ -30271,7 +30271,7 @@
       </c>
       <c r="G417" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H417" t="inlineStr">
@@ -30341,7 +30341,7 @@
       </c>
       <c r="G418" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H418" t="inlineStr">
@@ -30413,7 +30413,7 @@
       </c>
       <c r="G419" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H419" t="inlineStr">
@@ -30478,7 +30478,7 @@
       </c>
       <c r="G420" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H420" t="inlineStr">
@@ -30548,7 +30548,7 @@
       </c>
       <c r="G421" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H421" t="inlineStr">
@@ -30617,7 +30617,7 @@
       </c>
       <c r="G422" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H422" t="inlineStr">
@@ -30694,7 +30694,7 @@
       </c>
       <c r="G423" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H423" t="inlineStr">
@@ -30764,7 +30764,7 @@
       </c>
       <c r="G424" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H424" t="inlineStr">
@@ -30828,7 +30828,7 @@
       </c>
       <c r="G425" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H425" t="inlineStr">
@@ -30898,7 +30898,7 @@
       </c>
       <c r="G426" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H426" t="inlineStr">
@@ -30967,7 +30967,7 @@
       </c>
       <c r="G427" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H427" t="inlineStr">
@@ -31036,7 +31036,7 @@
       </c>
       <c r="G428" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H428" t="inlineStr">
@@ -31105,7 +31105,7 @@
       </c>
       <c r="G429" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H429" t="inlineStr">
@@ -31170,7 +31170,7 @@
       </c>
       <c r="G430" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H430" t="inlineStr">
@@ -31241,7 +31241,7 @@
       </c>
       <c r="G431" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H431" t="inlineStr">
@@ -31311,7 +31311,7 @@
       </c>
       <c r="G432" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H432" t="inlineStr">
@@ -31381,7 +31381,7 @@
       </c>
       <c r="G433" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H433" t="inlineStr">
@@ -31445,7 +31445,7 @@
       </c>
       <c r="G434" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H434" t="inlineStr">
@@ -31510,7 +31510,7 @@
       </c>
       <c r="G435" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H435" t="inlineStr">
@@ -31587,7 +31587,7 @@
       </c>
       <c r="G436" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H436" t="inlineStr">
@@ -31656,7 +31656,7 @@
       </c>
       <c r="G437" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H437" t="inlineStr">
@@ -31725,7 +31725,7 @@
       </c>
       <c r="G438" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H438" t="inlineStr">
@@ -31789,7 +31789,7 @@
       </c>
       <c r="G439" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H439" t="inlineStr">
@@ -31859,7 +31859,7 @@
       </c>
       <c r="G440" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H440" t="inlineStr">
@@ -31923,7 +31923,7 @@
       </c>
       <c r="G441" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H441" t="inlineStr">
@@ -31987,7 +31987,7 @@
       </c>
       <c r="G442" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H442" t="inlineStr">
@@ -32057,7 +32057,7 @@
       </c>
       <c r="G443" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H443" t="inlineStr">
@@ -32126,7 +32126,7 @@
       </c>
       <c r="G444" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H444" t="inlineStr">
@@ -32195,7 +32195,7 @@
       </c>
       <c r="G445" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H445" t="inlineStr">
@@ -32273,7 +32273,7 @@
       </c>
       <c r="G446" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H446" t="inlineStr">
@@ -32347,7 +32347,7 @@
       </c>
       <c r="G447" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H447" t="inlineStr">
@@ -32416,7 +32416,7 @@
       </c>
       <c r="G448" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H448" t="inlineStr">
@@ -32493,7 +32493,7 @@
       </c>
       <c r="G449" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H449" t="inlineStr">
@@ -32563,7 +32563,7 @@
       </c>
       <c r="G450" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H450" t="inlineStr">
@@ -32638,7 +32638,7 @@
       </c>
       <c r="G451" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H451" t="inlineStr">
@@ -32702,7 +32702,7 @@
       </c>
       <c r="G452" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H452" t="inlineStr">
@@ -32767,7 +32767,7 @@
       </c>
       <c r="G453" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H453" t="inlineStr">
@@ -32836,7 +32836,7 @@
       </c>
       <c r="G454" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H454" t="inlineStr">
@@ -32905,7 +32905,7 @@
       </c>
       <c r="G455" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H455" t="inlineStr">
@@ -32979,7 +32979,7 @@
       </c>
       <c r="G456" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H456" t="inlineStr">
@@ -33043,7 +33043,7 @@
       </c>
       <c r="G457" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H457" t="inlineStr">
@@ -33107,7 +33107,7 @@
       </c>
       <c r="G458" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H458" t="inlineStr">
@@ -33178,7 +33178,7 @@
       </c>
       <c r="G459" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H459" t="inlineStr">
@@ -33247,7 +33247,7 @@
       </c>
       <c r="G460" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H460" t="inlineStr">
@@ -33317,7 +33317,7 @@
       </c>
       <c r="G461" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H461" t="inlineStr">
@@ -33381,7 +33381,7 @@
       </c>
       <c r="G462" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H462" t="inlineStr">
@@ -33445,7 +33445,7 @@
       </c>
       <c r="G463" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H463" t="inlineStr">
@@ -33515,7 +33515,7 @@
       </c>
       <c r="G464" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H464" t="inlineStr">
@@ -33584,7 +33584,7 @@
       </c>
       <c r="G465" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H465" t="inlineStr">
@@ -33648,7 +33648,7 @@
       </c>
       <c r="G466" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H466" t="inlineStr">
@@ -33722,7 +33722,7 @@
       </c>
       <c r="G467" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H467" t="inlineStr">
@@ -33796,7 +33796,7 @@
       </c>
       <c r="G468" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H468" t="inlineStr">
@@ -33865,7 +33865,7 @@
       </c>
       <c r="G469" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H469" t="inlineStr">
@@ -33936,7 +33936,7 @@
       </c>
       <c r="G470" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H470" t="inlineStr">
@@ -34007,7 +34007,7 @@
       </c>
       <c r="G471" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H471" t="inlineStr">
@@ -34077,7 +34077,7 @@
       </c>
       <c r="G472" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H472" t="inlineStr">
@@ -34146,7 +34146,7 @@
       </c>
       <c r="G473" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H473" t="inlineStr">
@@ -34221,7 +34221,7 @@
       </c>
       <c r="G474" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H474" t="inlineStr">
@@ -34296,7 +34296,7 @@
       </c>
       <c r="G475" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H475" t="inlineStr">
@@ -34365,7 +34365,7 @@
       </c>
       <c r="G476" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H476" t="inlineStr">
@@ -34429,7 +34429,7 @@
       </c>
       <c r="G477" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H477" t="inlineStr">
@@ -34494,7 +34494,7 @@
       </c>
       <c r="G478" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H478" t="inlineStr">
@@ -34564,7 +34564,7 @@
       </c>
       <c r="G479" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H479" t="inlineStr">
@@ -34633,7 +34633,7 @@
       </c>
       <c r="G480" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H480" t="inlineStr">
@@ -34707,7 +34707,7 @@
       </c>
       <c r="G481" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H481" t="inlineStr">
@@ -34777,7 +34777,7 @@
       </c>
       <c r="G482" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H482" t="inlineStr">
@@ -34841,7 +34841,7 @@
       </c>
       <c r="G483" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H483" t="inlineStr">
@@ -34911,7 +34911,7 @@
       </c>
       <c r="G484" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H484" t="inlineStr">
@@ -34981,7 +34981,7 @@
       </c>
       <c r="G485" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H485" t="inlineStr">
@@ -35057,7 +35057,7 @@
       </c>
       <c r="G486" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H486" t="inlineStr">
@@ -35126,7 +35126,7 @@
       </c>
       <c r="G487" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H487" t="inlineStr">
@@ -35190,7 +35190,7 @@
       </c>
       <c r="G488" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H488" t="inlineStr">
@@ -35260,7 +35260,7 @@
       </c>
       <c r="G489" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H489" t="inlineStr">
@@ -35329,7 +35329,7 @@
       </c>
       <c r="G490" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H490" t="inlineStr">
@@ -35393,7 +35393,7 @@
       </c>
       <c r="G491" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H491" t="inlineStr">
@@ -35457,7 +35457,7 @@
       </c>
       <c r="G492" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H492" t="inlineStr">
@@ -35527,7 +35527,7 @@
       </c>
       <c r="G493" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H493" t="inlineStr">
@@ -35592,7 +35592,7 @@
       </c>
       <c r="G494" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H494" t="inlineStr">
@@ -35662,7 +35662,7 @@
       </c>
       <c r="G495" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H495" t="inlineStr">
@@ -35732,7 +35732,7 @@
       </c>
       <c r="G496" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H496" t="inlineStr">
@@ -35808,7 +35808,7 @@
       </c>
       <c r="G497" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H497" t="inlineStr">
@@ -35883,7 +35883,7 @@
       </c>
       <c r="G498" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H498" t="inlineStr">
@@ -35948,7 +35948,7 @@
       </c>
       <c r="G499" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H499" t="inlineStr">
@@ -36023,7 +36023,7 @@
       </c>
       <c r="G500" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H500" t="inlineStr">
@@ -36097,7 +36097,7 @@
       </c>
       <c r="G501" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H501" t="inlineStr">
@@ -36162,7 +36162,7 @@
       </c>
       <c r="G502" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H502" t="inlineStr">
@@ -36226,7 +36226,7 @@
       </c>
       <c r="G503" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H503" t="inlineStr">
@@ -36297,7 +36297,7 @@
       </c>
       <c r="G504" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H504" t="inlineStr">
@@ -36368,7 +36368,7 @@
       </c>
       <c r="G505" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H505" t="inlineStr">
@@ -36437,7 +36437,7 @@
       </c>
       <c r="G506" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H506" t="inlineStr">
@@ -36502,7 +36502,7 @@
       </c>
       <c r="G507" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H507" t="inlineStr">
@@ -36566,7 +36566,7 @@
       </c>
       <c r="G508" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H508" t="inlineStr">
@@ -36637,7 +36637,7 @@
       </c>
       <c r="G509" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H509" t="inlineStr">
@@ -36706,7 +36706,7 @@
       </c>
       <c r="G510" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H510" t="inlineStr">
@@ -36780,7 +36780,7 @@
       </c>
       <c r="G511" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H511" t="inlineStr">
@@ -36844,7 +36844,7 @@
       </c>
       <c r="G512" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H512" t="inlineStr">
@@ -36908,7 +36908,7 @@
       </c>
       <c r="G513" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H513" t="inlineStr">
@@ -36973,7 +36973,7 @@
       </c>
       <c r="G514" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H514" t="inlineStr">
@@ -37044,7 +37044,7 @@
       </c>
       <c r="G515" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H515" t="inlineStr">
@@ -37113,7 +37113,7 @@
       </c>
       <c r="G516" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H516" t="inlineStr">
@@ -37175,7 +37175,7 @@
       </c>
       <c r="G517" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H517" t="inlineStr">
@@ -37232,7 +37232,7 @@
       </c>
       <c r="G518" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H518" t="inlineStr">
@@ -37301,7 +37301,7 @@
       </c>
       <c r="G519" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H519" t="inlineStr">
@@ -37363,7 +37363,7 @@
       </c>
       <c r="G520" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H520" t="inlineStr">
@@ -37427,7 +37427,7 @@
       </c>
       <c r="G521" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H521" t="inlineStr">
@@ -37497,7 +37497,7 @@
       </c>
       <c r="G522" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H522" t="inlineStr">
@@ -37566,7 +37566,7 @@
       </c>
       <c r="G523" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H523" t="inlineStr">
@@ -37631,7 +37631,7 @@
       </c>
       <c r="G524" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H524" t="inlineStr">
@@ -37696,7 +37696,7 @@
       </c>
       <c r="G525" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H525" t="inlineStr">
@@ -37753,7 +37753,7 @@
       </c>
       <c r="G526" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H526" t="inlineStr">
@@ -37810,7 +37810,7 @@
       </c>
       <c r="G527" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H527" t="inlineStr">
@@ -37867,7 +37867,7 @@
       </c>
       <c r="G528" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H528" t="inlineStr">
@@ -37924,7 +37924,7 @@
       </c>
       <c r="G529" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H529" t="inlineStr">
@@ -37981,7 +37981,7 @@
       </c>
       <c r="G530" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H530" t="inlineStr">
@@ -38038,7 +38038,7 @@
       </c>
       <c r="G531" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H531" t="inlineStr">
@@ -38095,7 +38095,7 @@
       </c>
       <c r="G532" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H532" t="inlineStr">
@@ -38152,7 +38152,7 @@
       </c>
       <c r="G533" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H533" t="inlineStr">
@@ -38209,7 +38209,7 @@
       </c>
       <c r="G534" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H534" t="inlineStr">
@@ -38266,7 +38266,7 @@
       </c>
       <c r="G535" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H535" t="inlineStr">
@@ -38323,7 +38323,7 @@
       </c>
       <c r="G536" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H536" t="inlineStr">
@@ -38380,7 +38380,7 @@
       </c>
       <c r="G537" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H537" t="inlineStr">
@@ -38449,7 +38449,7 @@
       </c>
       <c r="G538" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H538" t="inlineStr">
@@ -38514,7 +38514,7 @@
       </c>
       <c r="G539" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H539" t="inlineStr">
@@ -38584,7 +38584,7 @@
       </c>
       <c r="G540" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H540" t="inlineStr">
@@ -38653,7 +38653,7 @@
       </c>
       <c r="G541" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H541" t="inlineStr">
@@ -38729,7 +38729,7 @@
       </c>
       <c r="G542" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H542" t="inlineStr">
@@ -38807,7 +38807,7 @@
       </c>
       <c r="G543" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H543" t="inlineStr">
@@ -38871,7 +38871,7 @@
       </c>
       <c r="G544" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H544" t="inlineStr">
@@ -38940,7 +38940,7 @@
       </c>
       <c r="G545" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H545" t="inlineStr">
@@ -39004,7 +39004,7 @@
       </c>
       <c r="G546" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H546" t="inlineStr">
@@ -39068,7 +39068,7 @@
       </c>
       <c r="G547" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H547" t="inlineStr">
@@ -39138,7 +39138,7 @@
       </c>
       <c r="G548" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H548" t="inlineStr">
@@ -39208,7 +39208,7 @@
       </c>
       <c r="G549" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H549" t="inlineStr">
@@ -39272,7 +39272,7 @@
       </c>
       <c r="G550" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H550" t="inlineStr">
@@ -39337,7 +39337,7 @@
       </c>
       <c r="G551" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H551" t="inlineStr">
@@ -39407,7 +39407,7 @@
       </c>
       <c r="G552" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H552" t="inlineStr">
@@ -39477,7 +39477,7 @@
       </c>
       <c r="G553" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H553" t="inlineStr">
@@ -39543,7 +39543,7 @@
       </c>
       <c r="G554" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H554" t="inlineStr">
@@ -39608,7 +39608,7 @@
       </c>
       <c r="G555" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H555" t="inlineStr">
@@ -39685,7 +39685,7 @@
       </c>
       <c r="G556" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H556" t="inlineStr">
@@ -39755,7 +39755,7 @@
       </c>
       <c r="G557" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H557" t="inlineStr">
@@ -39819,7 +39819,7 @@
       </c>
       <c r="G558" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H558" t="inlineStr">
@@ -39883,7 +39883,7 @@
       </c>
       <c r="G559" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H559" t="inlineStr">
@@ -39952,7 +39952,7 @@
       </c>
       <c r="G560" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H560" t="inlineStr">
@@ -40016,7 +40016,7 @@
       </c>
       <c r="G561" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H561" t="inlineStr">
@@ -40080,7 +40080,7 @@
       </c>
       <c r="G562" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H562" t="inlineStr">
@@ -40149,7 +40149,7 @@
       </c>
       <c r="G563" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H563" t="inlineStr">
@@ -40213,7 +40213,7 @@
       </c>
       <c r="G564" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H564" t="inlineStr">
@@ -40282,7 +40282,7 @@
       </c>
       <c r="G565" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H565" t="inlineStr">
@@ -40352,7 +40352,7 @@
       </c>
       <c r="G566" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H566" t="inlineStr">
@@ -40422,7 +40422,7 @@
       </c>
       <c r="G567" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H567" t="inlineStr">
@@ -40487,7 +40487,7 @@
       </c>
       <c r="G568" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H568" t="inlineStr">
@@ -40553,7 +40553,7 @@
       </c>
       <c r="G569" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H569" t="inlineStr">
@@ -40619,7 +40619,7 @@
       </c>
       <c r="G570" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H570" t="inlineStr">
@@ -40688,7 +40688,7 @@
       </c>
       <c r="G571" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H571" t="inlineStr">
@@ -40752,7 +40752,7 @@
       </c>
       <c r="G572" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H572" t="inlineStr">
@@ -40829,7 +40829,7 @@
       </c>
       <c r="G573" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H573" t="inlineStr">
@@ -40900,7 +40900,7 @@
       </c>
       <c r="G574" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H574" t="inlineStr">
@@ -40970,7 +40970,7 @@
       </c>
       <c r="G575" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H575" t="inlineStr">
@@ -41042,7 +41042,7 @@
       </c>
       <c r="G576" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H576" t="inlineStr">
@@ -41111,7 +41111,7 @@
       </c>
       <c r="G577" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H577" t="inlineStr">
@@ -41181,7 +41181,7 @@
       </c>
       <c r="G578" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H578" t="inlineStr">
@@ -41251,7 +41251,7 @@
       </c>
       <c r="G579" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H579" t="inlineStr">
@@ -41321,7 +41321,7 @@
       </c>
       <c r="G580" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H580" t="inlineStr">
@@ -41390,7 +41390,7 @@
       </c>
       <c r="G581" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H581" t="inlineStr">
@@ -41455,7 +41455,7 @@
       </c>
       <c r="G582" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H582" t="inlineStr">
@@ -41519,7 +41519,7 @@
       </c>
       <c r="G583" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H583" t="inlineStr">
@@ -41596,7 +41596,7 @@
       </c>
       <c r="G584" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H584" t="inlineStr">
@@ -41674,7 +41674,7 @@
       </c>
       <c r="G585" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H585" t="inlineStr">
@@ -41748,7 +41748,7 @@
       </c>
       <c r="G586" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H586" t="inlineStr">
@@ -41817,7 +41817,7 @@
       </c>
       <c r="G587" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H587" t="inlineStr">
@@ -41888,7 +41888,7 @@
       </c>
       <c r="G588" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H588" t="inlineStr">
@@ -41953,7 +41953,7 @@
       </c>
       <c r="G589" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H589" t="inlineStr">
@@ -42017,7 +42017,7 @@
       </c>
       <c r="G590" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H590" t="inlineStr">
@@ -42082,7 +42082,7 @@
       </c>
       <c r="G591" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H591" t="inlineStr">
@@ -42148,7 +42148,7 @@
       </c>
       <c r="G592" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H592" t="inlineStr">
@@ -42213,7 +42213,7 @@
       </c>
       <c r="G593" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H593" t="inlineStr">
@@ -42278,7 +42278,7 @@
       </c>
       <c r="G594" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H594" t="inlineStr">
@@ -42342,7 +42342,7 @@
       </c>
       <c r="G595" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H595" t="inlineStr">
@@ -42399,7 +42399,7 @@
       </c>
       <c r="G596" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H596" t="inlineStr">
@@ -42456,7 +42456,7 @@
       </c>
       <c r="G597" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H597" t="inlineStr">
@@ -42520,7 +42520,7 @@
       </c>
       <c r="G598" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H598" t="inlineStr">
@@ -42577,7 +42577,7 @@
       </c>
       <c r="G599" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H599" t="inlineStr">
@@ -42641,7 +42641,7 @@
       </c>
       <c r="G600" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H600" t="inlineStr">
@@ -42698,7 +42698,7 @@
       </c>
       <c r="G601" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H601" t="inlineStr">
@@ -42762,7 +42762,7 @@
       </c>
       <c r="G602" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H602" t="inlineStr">
@@ -42826,7 +42826,7 @@
       </c>
       <c r="G603" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H603" t="inlineStr">
@@ -42893,7 +42893,7 @@
       </c>
       <c r="G604" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H604" t="inlineStr">
@@ -42950,7 +42950,7 @@
       </c>
       <c r="G605" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H605" t="inlineStr">
@@ -43014,7 +43014,7 @@
       </c>
       <c r="G606" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H606" t="inlineStr">
@@ -43078,7 +43078,7 @@
       </c>
       <c r="G607" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H607" t="inlineStr">
@@ -43143,7 +43143,7 @@
       </c>
       <c r="G608" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H608" t="inlineStr">
@@ -43200,7 +43200,7 @@
       </c>
       <c r="G609" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H609" t="inlineStr">
@@ -43264,7 +43264,7 @@
       </c>
       <c r="G610" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H610" t="inlineStr">
@@ -43328,7 +43328,7 @@
       </c>
       <c r="G611" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H611" t="inlineStr">
@@ -43403,7 +43403,7 @@
       </c>
       <c r="G612" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H612" t="inlineStr">
@@ -43472,7 +43472,7 @@
       </c>
       <c r="G613" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H613" t="inlineStr">
@@ -43548,7 +43548,7 @@
       </c>
       <c r="G614" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H614" t="inlineStr">
@@ -43612,7 +43612,7 @@
       </c>
       <c r="G615" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H615" t="inlineStr">
@@ -43684,7 +43684,7 @@
       </c>
       <c r="G616" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H616" t="inlineStr">
@@ -43748,7 +43748,7 @@
       </c>
       <c r="G617" t="inlineStr">
         <is>
-          <t>ブースターパック第1弾 「創世の夜明け」</t>
+          <t>ブースターパック第1弾「創世の夜明け」</t>
         </is>
       </c>
       <c r="H617" t="inlineStr">

--- a/docs/SVE_card_list.xlsx
+++ b/docs/SVE_card_list.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O617"/>
+  <dimension ref="A1:O640"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3162,7 +3162,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t xml:space="preserve">284 </t>
+          <t xml:space="preserve">329 284 </t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3537,7 +3537,7 @@
       <c r="K42" t="inlineStr">
         <is>
           <t xml:space="preserve">
-《クイック》
+《クイック》
 相手の進化していないフォロワー1体を選ぶ。それを手札に戻す。【スペルチェイン_10】代わりにデッキの上に置く。（手札かデッキに戻ったトークンはゲームから取り除く）
 </t>
         </is>
@@ -3836,9 +3836,9 @@
       <c r="K46" t="inlineStr">
         <is>
           <t xml:space="preserve">
-下記から2つまでチョイスする。【スペルチェイン_10】代わりに3つまで。
-【1】相手のフォロワー1体を選ぶ。それに3ダメージ。【2】『防御型ゴーレム』1体を出す。【3】1枚引く。
-―――――――――――――――
+下記から2つまでチョイスする。【スペルチェイン_10】代わりに3つまで。
+【1】相手のフォロワー1体を選ぶ。それに3ダメージ。【2】『防御型ゴーレム』1体を出す。【3】1枚引く。
+―――――――――――――――
 『防御型ゴーレム』《ウィッチ》ゴーレム・フォロワー《コスト2》《攻撃力》2/《体力》3【守護】
 </t>
         </is>
@@ -4206,8 +4206,8 @@
       <c r="K51" t="inlineStr">
         <is>
           <t xml:space="preserve">
-『マジカルポーン』1体を出す。
-―――――――――――――――
+『マジカルポーン』1体を出す。
+―――――――――――――――
 『マジカルポーン』《ウィッチ》チェス・フォロワー《コスト1》《攻撃力》2/《体力》1
 </t>
         </is>
@@ -4506,11 +4506,11 @@
       <c r="K55" t="inlineStr">
         <is>
           <t xml:space="preserve">
-これを自分の手札から捨てたとき、『ヘルフレイムドラゴン』1枚をEXエリアに置く。
+これを自分の手札から捨てたとき、『ヘルフレイムドラゴン』1枚をEXエリアに置く。
 ----------
 《ファンファーレ》《コスト3》：『ヘルフレイムドラゴン』1体を出す。1枚引く。
-《起動》これを《アクト》手札1枚を捨てる：『ヘルフレイムドラゴン』1枚をEXエリアに置く。この能力は【覚醒】状態なら使える。
-―――――――――――――――
+《起動》これを《アクト》手札1枚を捨てる：『ヘルフレイムドラゴン』1枚をEXエリアに置く。この能力は【覚醒】状態なら使える。
+―――――――――――――――
 『ヘルフレイムドラゴン』《ドラゴン》竜族・フォロワー《コスト2》《攻撃力》4/《体力》3【突進】
 </t>
         </is>
@@ -4819,8 +4819,8 @@
       <c r="K59" t="inlineStr">
         <is>
           <t xml:space="preserve">
-自分のターンごとに1回、自分の場に『ドラゴン』が出たとき、相手のリーダー1人か相手のフォロワー1体を選ぶ。それに5ダメージ。
-―――――――――――――――
+自分のターンごとに1回、自分の場に『ドラゴン』が出たとき、相手のリーダー1人か相手のフォロワー1体を選ぶ。それに5ダメージ。
+―――――――――――――――
 『ドラゴン』《ドラゴン》竜族・フォロワー《コスト4》《攻撃力》5/《体力》5
 </t>
         </is>
@@ -5569,8 +5569,8 @@
       <c r="K69" t="inlineStr">
         <is>
           <t xml:space="preserve">
-『ドラゴウェポン』1つを出す。【覚醒】状態なら、代わりに2つ。
-―――――――――――――――
+『ドラゴウェポン』1つを出す。【覚醒】状態なら、代わりに2つ。
+―――――――――――――――
 『ドラゴウェポン』《ドラゴン》武装・アミュレット《コスト1》《起動》これを《アクト》墓場に置く：自分の《ドラゴン》フォロワー1体を選ぶ。それは《体力》+1して、武装・タイプを持つ。
 </t>
         </is>
@@ -6194,8 +6194,8 @@
         <is>
           <t xml:space="preserve">
 《ファンファーレ》自分のデッキの上3枚を見る。その中から、吸血鬼・カード1枚を公開して手札に加えてよい。残りを好きな順にデッキの下に置く。
-《起動》《コスト1》これを《アクト》墓場に置く：『フォレストバット』1体を出す。
-―――――――――――――――
+《起動》《コスト1》これを《アクト》墓場に置く：『フォレストバット』1体を出す。
+―――――――――――――――
 『フォレストバット』《ナイトメア》吸血鬼・フォロワー《コスト1》《攻撃力》1/《体力》1
 </t>
         </is>
@@ -6573,8 +6573,8 @@
       <c r="K82" t="inlineStr">
         <is>
           <t xml:space="preserve">
-下記から1つチョイスする。【1】『フォレストバット』を「相手の場のカードの枚数」と同じだけ出す。【2】自分の『フォレストバット』すべては《攻撃力》+1/《体力》+1する。
-―――――――――――――――
+下記から1つチョイスする。【1】『フォレストバット』を「相手の場のカードの枚数」と同じだけ出す。【2】自分の『フォレストバット』すべては《攻撃力》+1/《体力》+1する。
+―――――――――――――――
 『フォレストバット』《ナイトメア》吸血鬼・フォロワー《コスト1》《攻撃力》1/《体力》1
 </t>
         </is>
@@ -6948,7 +6948,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t xml:space="preserve">312 </t>
+          <t xml:space="preserve">332 312 </t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -7018,7 +7018,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t xml:space="preserve">313 </t>
+          <t xml:space="preserve">332 313 </t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -7081,9 +7081,9 @@
       <c r="K89" t="inlineStr">
         <is>
           <t xml:space="preserve">
-下記から1つチョイスする。【ネクロチャージ_10】代わりに2つまで。
-【1】自分の墓場のコスト2以下のフォロワー1枚を選ぶ。それを場に出す。【2】『ゴースト』2体を出す。
-―――――――――――――――
+下記から1つチョイスする。【ネクロチャージ_10】代わりに2つまで。
+【1】自分の墓場のコスト2以下のフォロワー1枚を選ぶ。それを場に出す。【2】『ゴースト』2体を出す。
+―――――――――――――――
 『ゴースト』《ナイトメア》死者・フォロワー《コスト1》《攻撃力》1/《体力》1【疾走】自分のエンドフェイズが来たとき、これは消滅する。
 </t>
         </is>
@@ -7326,7 +7326,7 @@
       <c r="K92" t="inlineStr">
         <is>
           <t xml:space="preserve">
-これは能力によって破壊されない。
+これは能力によって破壊されない。
 自分のエンドフェイズが来たとき、これに祈りカウンター1つを置く。その後、祈りカウンターが4つ以上なら、これを墓場に置く。自分のリーダーは《体力》+10する。自分のデッキからカード2枚まで探し、EXエリアに置く。それをプレイする際、コストを0にする。
 </t>
         </is>
@@ -7645,7 +7645,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t xml:space="preserve">318 </t>
+          <t xml:space="preserve">335 333 318 </t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -7934,9 +7934,9 @@
         <is>
           <t xml:space="preserve">
 《ファンファーレ》『ホーリーファルコン』1体を出す。
-《起動》《コスト2》これを《アクト》墓場に置く：『ホーリータイガー』1体を出す。
-―――――――――――――――
-『ホーリーファルコン』《ビショップ》鳥族・フォロワー《コスト3》《攻撃力》2/《体力》2【疾走】
+《起動》《コスト2》これを《アクト》墓場に置く：『ホーリータイガー』1体を出す。
+―――――――――――――――
+『ホーリーファルコン』《ビショップ》鳥族・フォロワー《コスト3》《攻撃力》2/《体力》2【疾走】
 『ホーリータイガー』《ビショップ》獣・フォロワー《コスト4》《攻撃力》4/《体力》4【突進】
 </t>
         </is>
@@ -8454,7 +8454,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t xml:space="preserve">294 293 </t>
+          <t xml:space="preserve">337 336 294 293 </t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
@@ -8897,7 +8897,7 @@
       <c r="K113" t="inlineStr">
         <is>
           <t xml:space="preserve">
-《クイック》
+《クイック》
 相手のフォロワー1体を選ぶ。それに3ダメージ。それがエボルヴフォロワーなら、代わりに4ダメージ。
 </t>
         </is>
@@ -9180,7 +9180,7 @@
       <c r="K117" t="inlineStr">
         <is>
           <t xml:space="preserve">
-《クイック》
+《クイック》
 相手のフォロワー1体を選ぶ。それを破壊する。自分のデッキから《ニュートラル》フォロワー1枚を探し、手札に加える。
 </t>
         </is>
@@ -10453,7 +10453,7 @@
       <c r="K135" t="inlineStr">
         <is>
           <t xml:space="preserve">
-《クイック》
+《クイック》
 相手の進化していないフォロワー1体を選ぶ。それを手札に戻す。【スペルチェイン_10】代わりにデッキの上に置く。（手札かデッキに戻ったトークンはゲームから取り除く）
 </t>
         </is>
@@ -10683,9 +10683,9 @@
       <c r="K138" t="inlineStr">
         <is>
           <t xml:space="preserve">
-下記から2つまでチョイスする。【スペルチェイン_10】代わりに3つまで。
-【1】相手のフォロワー1体を選ぶ。それに3ダメージ。【2】『防御型ゴーレム』1体を出す。【3】1枚引く。
-―――――――――――――――
+下記から2つまでチョイスする。【スペルチェイン_10】代わりに3つまで。
+【1】相手のフォロワー1体を選ぶ。それに3ダメージ。【2】『防御型ゴーレム』1体を出す。【3】1枚引く。
+―――――――――――――――
 『防御型ゴーレム』《ウィッチ》ゴーレム・フォロワー《コスト2》《攻撃力》2/《体力》3【守護】
 </t>
         </is>
@@ -10765,8 +10765,8 @@
       <c r="K139" t="inlineStr">
         <is>
           <t xml:space="preserve">
-『マジカルポーン』1体を出す。
-―――――――――――――――
+『マジカルポーン』1体を出す。
+―――――――――――――――
 『マジカルポーン』《ウィッチ》チェス・フォロワー《コスト1》《攻撃力》2/《体力》1
 </t>
         </is>
@@ -11144,8 +11144,8 @@
       <c r="K144" t="inlineStr">
         <is>
           <t xml:space="preserve">
-『ドラゴウェポン』1つを出す。【覚醒】状態なら、代わりに2つ。
-―――――――――――――――
+『ドラゴウェポン』1つを出す。【覚醒】状態なら、代わりに2つ。
+―――――――――――――――
 『ドラゴウェポン』《ドラゴン》武装・アミュレット《コスト1》《起動》これを《アクト》墓場に置く：自分の《ドラゴン》フォロワー1体を選ぶ。それは《体力》+1して、武装・タイプを持つ。
 </t>
         </is>
@@ -11523,9 +11523,9 @@
       <c r="K149" t="inlineStr">
         <is>
           <t xml:space="preserve">
-下記から1つチョイスする。【ネクロチャージ_10】代わりに2つまで。
-【1】自分の墓場のコスト2以下のフォロワー1枚を選ぶ。それを場に出す。【2】『ゴースト』2体を出す。
-―――――――――――――――
+下記から1つチョイスする。【ネクロチャージ_10】代わりに2つまで。
+【1】自分の墓場のコスト2以下のフォロワー1枚を選ぶ。それを場に出す。【2】『ゴースト』2体を出す。
+―――――――――――――――
 『ゴースト』《ナイトメア》死者・フォロワー《コスト1》《攻撃力》1/《体力》1【疾走】自分のエンドフェイズが来たとき、これは消滅する。
 </t>
         </is>
@@ -11611,7 +11611,7 @@
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t xml:space="preserve">318 </t>
+          <t xml:space="preserve">335 333 318 </t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
@@ -12896,7 +12896,7 @@
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t xml:space="preserve">284 </t>
+          <t xml:space="preserve">329 284 </t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
@@ -13191,11 +13191,11 @@
       <c r="K171" t="inlineStr">
         <is>
           <t xml:space="preserve">
-これを自分の手札から捨てたとき、『ヘルフレイムドラゴン』1枚をEXエリアに置く。
+これを自分の手札から捨てたとき、『ヘルフレイムドラゴン』1枚をEXエリアに置く。
 ----------
 《ファンファーレ》《コスト3》：『ヘルフレイムドラゴン』1体を出す。1枚引く。
-《起動》これを《アクト》手札1枚を捨てる：『ヘルフレイムドラゴン』1枚をEXエリアに置く。この能力は【覚醒】状態なら使える。
-―――――――――――――――
+《起動》これを《アクト》手札1枚を捨てる：『ヘルフレイムドラゴン』1枚をEXエリアに置く。この能力は【覚醒】状態なら使える。
+―――――――――――――――
 『ヘルフレイムドラゴン』《ドラゴン》竜族・フォロワー《コスト2》《攻撃力》4/《体力》3【突進】
 </t>
         </is>
@@ -13674,7 +13674,7 @@
       <c r="K177" t="inlineStr">
         <is>
           <t xml:space="preserve">
-これは能力によって破壊されない。
+これは能力によって破壊されない。
 自分のエンドフェイズが来たとき、これに祈りカウンター1つを置く。その後、祈りカウンターが4つ以上なら、これを墓場に置く。自分のリーダーは《体力》+10する。自分のデッキからカード2枚まで探し、EXエリアに置く。それをプレイする際、コストを0にする。
 </t>
         </is>
@@ -13760,7 +13760,7 @@
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t xml:space="preserve">294 293 </t>
+          <t xml:space="preserve">337 336 294 293 </t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
@@ -14496,7 +14496,7 @@
       <c r="K189" t="inlineStr">
         <is>
           <t xml:space="preserve">
-これがある限り、自分のターン中、自分の『カグヤ』すべてはダメージを受けない。
+これがある限り、自分のターン中、自分の『カグヤ』すべてはダメージを受けない。
 自分のメインフェイズが来たとき、これは消滅する。
 </t>
         </is>
@@ -14964,8 +14964,8 @@
       <c r="K196" t="inlineStr">
         <is>
           <t xml:space="preserve">
-【スタック】（【スタック】を持つアミュレットは、スタックカウンター1つを置いた状態で場に出て、下記の能力を持つ）
-これが場を離れるとき、代わりにこれのスタックカウンター1つを取る。
+【スタック】（【スタック】を持つアミュレットは、スタックカウンター1つを置いた状態で場に出て、下記の能力を持つ）
+これが場を離れるとき、代わりにこれのスタックカウンター1つを取る。
 これのスタックカウンターが0になったとき、これを破壊する。
 《起動》これを《アクト》：自分の他の【スタック】を持つアミュレット1つを選ぶ。それにこれのスタックカウンターすべてを移す。
 </t>
@@ -15093,7 +15093,7 @@
       <c r="K198" t="inlineStr">
         <is>
           <t xml:space="preserve">
-【疾走】
+【疾走】
 自分のエンドフェイズが来たとき、これは消滅する。
 </t>
         </is>
@@ -15884,6 +15884,11 @@
 </t>
         </is>
       </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>SEMSEI</t>
+        </is>
+      </c>
       <c r="N209" t="inlineStr">
         <is>
           <t xml:space="preserve">128 127 </t>
@@ -15954,6 +15959,11 @@
 </t>
         </is>
       </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>けりる</t>
+        </is>
+      </c>
       <c r="N210" t="inlineStr">
         <is>
           <t xml:space="preserve">265 130 129 </t>
@@ -16160,6 +16170,11 @@
 《クイック》
 相手のフォロワー1体を選ぶ。それを消滅させる。自分のリーダーは《体力》+2する。
 </t>
+        </is>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>Tob</t>
         </is>
       </c>
       <c r="N213" t="inlineStr">
@@ -16377,6 +16392,11 @@
 </t>
         </is>
       </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>COGA</t>
+        </is>
+      </c>
       <c r="O216" t="inlineStr">
         <is>
           <t>蛇神女祭司</t>
@@ -16443,6 +16463,11 @@
 </t>
         </is>
       </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>Shukei</t>
+        </is>
+      </c>
       <c r="M217" t="inlineStr">
         <is>
           <t xml:space="preserve">SD06-010 </t>
@@ -16511,6 +16536,11 @@
 【守護】
 相手のターン中、これが与えるダメージを+2する。
 </t>
+        </is>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>Shukei</t>
         </is>
       </c>
       <c r="M218" t="inlineStr">
@@ -16584,6 +16614,11 @@
 </t>
         </is>
       </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>lack</t>
+        </is>
+      </c>
       <c r="M219" t="inlineStr">
         <is>
           <t xml:space="preserve">SD06-012 </t>
@@ -16659,6 +16694,11 @@
 </t>
         </is>
       </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>lack</t>
+        </is>
+      </c>
       <c r="M220" t="inlineStr">
         <is>
           <t xml:space="preserve">SD06-011 </t>
@@ -16734,6 +16774,11 @@
 </t>
         </is>
       </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>五十嵐</t>
+        </is>
+      </c>
       <c r="N221" t="inlineStr">
         <is>
           <t xml:space="preserve">138 137 </t>
@@ -16802,6 +16847,11 @@
 これはアクト状態で場に出る。
 《起動》これを《アクト》墓場に置く：相手のフォロワー1体を選ぶ。それを破壊する。
 </t>
+        </is>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>hikaru</t>
         </is>
       </c>
       <c r="N222" t="inlineStr">
@@ -16873,6 +16923,11 @@
 ―――――――――――――――
 『ホーリーファルコン』《ビショップ》鳥族・フォロワー《コスト3》《攻撃力》2/《体力》2【疾走】
 </t>
+        </is>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>JNAME</t>
         </is>
       </c>
       <c r="M223" t="inlineStr">
@@ -16952,6 +17007,11 @@
 </t>
         </is>
       </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>まよこ</t>
+        </is>
+      </c>
       <c r="M224" t="inlineStr">
         <is>
           <t xml:space="preserve">SD06-T02 </t>
@@ -17026,6 +17086,11 @@
 </t>
         </is>
       </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>Melodyoflost</t>
+        </is>
+      </c>
       <c r="O225" t="inlineStr">
         <is>
           <t>天女剑士</t>
@@ -17230,6 +17295,11 @@
 </t>
         </is>
       </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>廣岡政樹</t>
+        </is>
+      </c>
       <c r="O228" t="inlineStr">
         <is>
           <t>天使的圣箭</t>
@@ -17351,6 +17421,11 @@
 </t>
         </is>
       </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>ねじ太</t>
+        </is>
+      </c>
       <c r="O230" t="inlineStr">
         <is>
           <t>神圣猎鹰</t>
@@ -17413,6 +17488,11 @@
           <t xml:space="preserve">
 【突進】(【突進】を持つフォロワーは、場に出たターンから相手のフォロワーを攻撃できる)
 </t>
+        </is>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>永守浩太</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
@@ -17481,6 +17561,11 @@
 </t>
         </is>
       </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>虫麻呂</t>
+        </is>
+      </c>
       <c r="M232" t="inlineStr">
         <is>
           <t xml:space="preserve">SD05-T02 </t>
@@ -17557,6 +17642,11 @@
 </t>
         </is>
       </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>タカヤマトシアキ</t>
+        </is>
+      </c>
       <c r="N233" t="inlineStr">
         <is>
           <t xml:space="preserve">268 112 </t>
@@ -17624,6 +17714,11 @@
           <t xml:space="preserve">
 《進化》《コスト1》：これは進化する。
 </t>
+        </is>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>TEDDY</t>
         </is>
       </c>
       <c r="M234" t="inlineStr">
@@ -17697,6 +17792,11 @@
 </t>
         </is>
       </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>TEDDY</t>
+        </is>
+      </c>
       <c r="M235" t="inlineStr">
         <is>
           <t xml:space="preserve">SD05-003 SD05-T01 </t>
@@ -17770,6 +17870,11 @@
 これがいる限り、自分の『フォレストバット』すべては【ドレイン】を持つ。(【ドレイン】を持つフォロワーが攻撃して与えたダメージと同じだけ、自分のリーダーは体力を+する)
 《ファンファーレ》『フォレストバット』1体を出す。
 </t>
+        </is>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>麻谷知世</t>
         </is>
       </c>
       <c r="M236" t="inlineStr">
@@ -17924,6 +18029,11 @@
 </t>
         </is>
       </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>hippo</t>
+        </is>
+      </c>
       <c r="N238" t="inlineStr">
         <is>
           <t xml:space="preserve">263 116 </t>
@@ -18062,6 +18172,11 @@
 </t>
         </is>
       </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>Scott Murphy</t>
+        </is>
+      </c>
       <c r="N240" t="inlineStr">
         <is>
           <t xml:space="preserve">119 118 </t>
@@ -18130,6 +18245,11 @@
 《進化》《コスト1》：これは進化する。
 《ファンファーレ》【ネクロチャージ_10】これは【疾走】を持つ。(自分の墓場が10枚以上なら、【ネクロチャージ_10】の後の能力が働く)
 </t>
+        </is>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>ZoeZong</t>
         </is>
       </c>
       <c r="M241" t="inlineStr">
@@ -18201,6 +18321,11 @@
 ―――――――――――――――
 『ゴースト』《ナイトメア》死者・フォロワー《コスト1》《攻撃力》1/《体力》1【疾走】自分のエンドフェイズが来たとき、これは消滅する。
 </t>
+        </is>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>ZoeZong</t>
         </is>
       </c>
       <c r="M242" t="inlineStr">
@@ -18430,6 +18555,11 @@
 </t>
         </is>
       </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>羽山晃平</t>
+        </is>
+      </c>
       <c r="N245" t="inlineStr">
         <is>
           <t xml:space="preserve">123 </t>
@@ -18571,6 +18701,11 @@
 </t>
         </is>
       </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>まよこ</t>
+        </is>
+      </c>
       <c r="M247" t="inlineStr">
         <is>
           <t xml:space="preserve">SD05-T02 </t>
@@ -18638,6 +18773,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>tricky胡坐</t>
+        </is>
+      </c>
       <c r="O248" t="inlineStr">
         <is>
           <t>剑斗士</t>
@@ -18702,6 +18842,11 @@
 </t>
         </is>
       </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>hippo</t>
+        </is>
+      </c>
       <c r="M249" t="inlineStr">
         <is>
           <t xml:space="preserve">SD05-019 </t>
@@ -18764,6 +18909,11 @@
           <t>6</t>
         </is>
       </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>hippo</t>
+        </is>
+      </c>
       <c r="M250" t="inlineStr">
         <is>
           <t xml:space="preserve">SD05-018 </t>
@@ -18833,6 +18983,11 @@
 </t>
         </is>
       </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>Melodyoflost</t>
+        </is>
+      </c>
       <c r="O251" t="inlineStr">
         <is>
           <t>天女剑士</t>
@@ -18955,6 +19110,11 @@
 </t>
         </is>
       </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>銀</t>
+        </is>
+      </c>
       <c r="O253" t="inlineStr">
         <is>
           <t>怨灵</t>
@@ -19012,6 +19172,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>米谷尚展</t>
+        </is>
+      </c>
       <c r="O254" t="inlineStr">
         <is>
           <t>丛林蝙蝠</t>
@@ -19076,6 +19241,11 @@
 </t>
         </is>
       </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>虫麻呂</t>
+        </is>
+      </c>
       <c r="N255" t="inlineStr">
         <is>
           <t xml:space="preserve">100 </t>
@@ -19145,6 +19315,11 @@
 </t>
         </is>
       </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>mstk</t>
+        </is>
+      </c>
       <c r="N256" t="inlineStr">
         <is>
           <t xml:space="preserve">298 102 101 </t>
@@ -19214,6 +19389,11 @@
 </t>
         </is>
       </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>honart</t>
+        </is>
+      </c>
       <c r="M257" t="inlineStr">
         <is>
           <t xml:space="preserve">SD04-004 </t>
@@ -19283,6 +19463,11 @@
 </t>
         </is>
       </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>honart</t>
+        </is>
+      </c>
       <c r="M258" t="inlineStr">
         <is>
           <t xml:space="preserve">SD04-003 </t>
@@ -19352,6 +19537,11 @@
 </t>
         </is>
       </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>ぽんず</t>
+        </is>
+      </c>
       <c r="O259" t="inlineStr">
         <is>
           <t>龙人公主</t>
@@ -19417,6 +19607,11 @@
 </t>
         </is>
       </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>四々九</t>
+        </is>
+      </c>
       <c r="O260" t="inlineStr">
         <is>
           <t>龙骑士守护者</t>
@@ -19545,6 +19740,11 @@
 </t>
         </is>
       </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>山本しかく</t>
+        </is>
+      </c>
       <c r="O262" t="inlineStr">
         <is>
           <t>恐惧龙兽</t>
@@ -19610,6 +19810,11 @@
 </t>
         </is>
       </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>米谷尚展</t>
+        </is>
+      </c>
       <c r="M263" t="inlineStr">
         <is>
           <t xml:space="preserve">SD04-010 </t>
@@ -19682,6 +19887,11 @@
           <t xml:space="preserve">
 【攻撃時】これは《攻撃力》+1/《体力》+1する。
 </t>
+        </is>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>米谷尚展</t>
         </is>
       </c>
       <c r="M264" t="inlineStr">
@@ -19825,6 +20035,11 @@
 </t>
         </is>
       </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>tricky胡坐</t>
+        </is>
+      </c>
       <c r="M266" t="inlineStr">
         <is>
           <t xml:space="preserve">SD04-013 SD04-T01 </t>
@@ -19899,6 +20114,11 @@
 </t>
         </is>
       </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>tricky胡坐</t>
+        </is>
+      </c>
       <c r="M267" t="inlineStr">
         <is>
           <t xml:space="preserve">SD04-012 </t>
@@ -19968,6 +20188,11 @@
 </t>
         </is>
       </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>宮﨑章</t>
+        </is>
+      </c>
       <c r="O268" t="inlineStr">
         <is>
           <t>海剑龙</t>
@@ -20033,6 +20258,11 @@
 </t>
         </is>
       </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>Illfill</t>
+        </is>
+      </c>
       <c r="N269" t="inlineStr">
         <is>
           <t xml:space="preserve">106 </t>
@@ -20102,6 +20332,11 @@
 </t>
         </is>
       </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>Siswanto Budi Cahyono</t>
+        </is>
+      </c>
       <c r="N270" t="inlineStr">
         <is>
           <t xml:space="preserve">109 108 107 </t>
@@ -20171,6 +20406,11 @@
 </t>
         </is>
       </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>hippo</t>
+        </is>
+      </c>
       <c r="M271" t="inlineStr">
         <is>
           <t xml:space="preserve">SD04-018 </t>
@@ -20233,6 +20473,11 @@
           <t>6</t>
         </is>
       </c>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>hippo</t>
+        </is>
+      </c>
       <c r="M272" t="inlineStr">
         <is>
           <t xml:space="preserve">SD04-017 </t>
@@ -20302,6 +20547,11 @@
 </t>
         </is>
       </c>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>Melodyoflost</t>
+        </is>
+      </c>
       <c r="O273" t="inlineStr">
         <is>
           <t>天女剑士</t>
@@ -20367,6 +20617,11 @@
 </t>
         </is>
       </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>廣岡政樹</t>
+        </is>
+      </c>
       <c r="O274" t="inlineStr">
         <is>
           <t>天使的圣箭</t>
@@ -20545,6 +20800,11 @@
 </t>
         </is>
       </c>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>虫麻呂</t>
+        </is>
+      </c>
       <c r="N277" t="inlineStr">
         <is>
           <t xml:space="preserve">74 73 72 </t>
@@ -20614,6 +20874,11 @@
 </t>
         </is>
       </c>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>irua</t>
+        </is>
+      </c>
       <c r="N278" t="inlineStr">
         <is>
           <t xml:space="preserve">75 </t>
@@ -20683,6 +20948,11 @@
 </t>
         </is>
       </c>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>Savin</t>
+        </is>
+      </c>
       <c r="M279" t="inlineStr">
         <is>
           <t xml:space="preserve">SD03-004 </t>
@@ -20752,6 +21022,11 @@
 </t>
         </is>
       </c>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>Savin</t>
+        </is>
+      </c>
       <c r="M280" t="inlineStr">
         <is>
           <t xml:space="preserve">SD03-003 </t>
@@ -20827,6 +21102,11 @@
 </t>
         </is>
       </c>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>Shukei</t>
+        </is>
+      </c>
       <c r="N281" t="inlineStr">
         <is>
           <t xml:space="preserve">77 </t>
@@ -20897,6 +21177,11 @@
 </t>
         </is>
       </c>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>まじ</t>
+        </is>
+      </c>
       <c r="N282" t="inlineStr">
         <is>
           <t xml:space="preserve">279 79 78 </t>
@@ -21036,6 +21321,11 @@
 </t>
         </is>
       </c>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>米谷尚展</t>
+        </is>
+      </c>
       <c r="M284" t="inlineStr">
         <is>
           <t xml:space="preserve">SD03-009 </t>
@@ -21111,6 +21401,11 @@
 </t>
         </is>
       </c>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>米谷尚展</t>
+        </is>
+      </c>
       <c r="M285" t="inlineStr">
         <is>
           <t xml:space="preserve">SD03-008 </t>
@@ -21334,6 +21629,11 @@
 </t>
         </is>
       </c>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>lack</t>
+        </is>
+      </c>
       <c r="N288" t="inlineStr">
         <is>
           <t xml:space="preserve">90 </t>
@@ -21404,6 +21704,11 @@
 </t>
         </is>
       </c>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>COGA</t>
+        </is>
+      </c>
       <c r="N289" t="inlineStr">
         <is>
           <t xml:space="preserve">93 92 91 </t>
@@ -21474,6 +21779,11 @@
 </t>
         </is>
       </c>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>Shukei</t>
+        </is>
+      </c>
       <c r="N290" t="inlineStr">
         <is>
           <t xml:space="preserve">266 94 </t>
@@ -21542,6 +21852,11 @@
 《クイック》
 相手のフォロワー1体を選ぶ。それに2ダメージ。1枚引く。
 </t>
+        </is>
+      </c>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>壱子みるく亭</t>
         </is>
       </c>
       <c r="N291" t="inlineStr">
@@ -21617,6 +21932,11 @@
 </t>
         </is>
       </c>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>tricky胡坐</t>
+        </is>
+      </c>
       <c r="M292" t="inlineStr">
         <is>
           <t xml:space="preserve">SD03-T01 SD03-T02 </t>
@@ -21841,6 +22161,11 @@
 </t>
         </is>
       </c>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>廣岡政樹</t>
+        </is>
+      </c>
       <c r="O295" t="inlineStr">
         <is>
           <t>天使的圣箭</t>
@@ -21906,6 +22231,11 @@
 </t>
         </is>
       </c>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>タカヤマトシアキ</t>
+        </is>
+      </c>
       <c r="N296" t="inlineStr">
         <is>
           <t xml:space="preserve">64 </t>
@@ -22032,6 +22362,11 @@
 </t>
         </is>
       </c>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>Siswanto Budi Cahyono</t>
+        </is>
+      </c>
       <c r="O298" t="inlineStr">
         <is>
           <t>攻击型巨像</t>
@@ -22096,6 +22431,11 @@
 </t>
         </is>
       </c>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>Siswanto Budi Cahyono</t>
+        </is>
+      </c>
       <c r="O299" t="inlineStr">
         <is>
           <t>防御型巨像</t>
@@ -22160,6 +22500,11 @@
 </t>
         </is>
       </c>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>久方綜司</t>
+        </is>
+      </c>
       <c r="N300" t="inlineStr">
         <is>
           <t xml:space="preserve">65 </t>
@@ -22222,6 +22567,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>InHyuk Lee</t>
+        </is>
+      </c>
       <c r="O301" t="inlineStr">
         <is>
           <t>无惧的先锋‧雷瑟姆</t>
@@ -22284,6 +22634,11 @@
           <t xml:space="preserve">
 《進化》《コスト1》：これは進化する。
 </t>
+        </is>
+      </c>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>LM7</t>
         </is>
       </c>
       <c r="M302" t="inlineStr">
@@ -22358,6 +22713,11 @@
 </t>
         </is>
       </c>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>LM7</t>
+        </is>
+      </c>
       <c r="M303" t="inlineStr">
         <is>
           <t xml:space="preserve">SD02-003 SD02-T01 SD02-T02 </t>
@@ -22497,6 +22857,11 @@
 </t>
         </is>
       </c>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>hikaru</t>
+        </is>
+      </c>
       <c r="O305" t="inlineStr">
         <is>
           <t>白银将军</t>
@@ -22554,6 +22919,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>tricky胡坐</t>
+        </is>
+      </c>
       <c r="O306" t="inlineStr">
         <is>
           <t>忍者学徒</t>
@@ -22616,6 +22986,11 @@
           <t xml:space="preserve">
 【守護】(これが場に出たときか、自分のエンドフェイズにこれをアクトできる。相手は、アクト状態の【守護】を持つフォロワー以外を攻撃できない)
 </t>
+        </is>
+      </c>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>hippo</t>
         </is>
       </c>
       <c r="O307" t="inlineStr">
@@ -22893,6 +23268,11 @@
 </t>
         </is>
       </c>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>LQH</t>
+        </is>
+      </c>
       <c r="M311" t="inlineStr">
         <is>
           <t xml:space="preserve">SD02-013 </t>
@@ -22960,6 +23340,11 @@
           <t xml:space="preserve">
 【疾走】
 </t>
+        </is>
+      </c>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>LQH</t>
         </is>
       </c>
       <c r="M312" t="inlineStr">
@@ -23103,6 +23488,11 @@
 </t>
         </is>
       </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>クロとブチ</t>
+        </is>
+      </c>
       <c r="M314" t="inlineStr">
         <is>
           <t xml:space="preserve">SD02-T01 </t>
@@ -23178,6 +23568,11 @@
 </t>
         </is>
       </c>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>doughnutz</t>
+        </is>
+      </c>
       <c r="N315" t="inlineStr">
         <is>
           <t xml:space="preserve">71 </t>
@@ -23247,6 +23642,11 @@
 </t>
         </is>
       </c>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>tricky胡坐</t>
+        </is>
+      </c>
       <c r="M316" t="inlineStr">
         <is>
           <t xml:space="preserve">SD02-018 </t>
@@ -23309,6 +23709,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>tricky胡坐</t>
+        </is>
+      </c>
       <c r="M317" t="inlineStr">
         <is>
           <t xml:space="preserve">SD02-017 </t>
@@ -23371,6 +23776,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>tricky胡坐</t>
+        </is>
+      </c>
       <c r="O318" t="inlineStr">
         <is>
           <t>剑斗士</t>
@@ -23435,6 +23845,11 @@
 </t>
         </is>
       </c>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>Melodyoflost</t>
+        </is>
+      </c>
       <c r="O319" t="inlineStr">
         <is>
           <t>天女剑士</t>
@@ -23547,6 +23962,11 @@
       <c r="J321" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>hikaru</t>
         </is>
       </c>
       <c r="O321" t="inlineStr">
@@ -23672,6 +24092,11 @@
 </t>
         </is>
       </c>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>虫麻呂</t>
+        </is>
+      </c>
       <c r="M323" t="inlineStr">
         <is>
           <t xml:space="preserve">SD01-T01 </t>
@@ -23748,6 +24173,11 @@
 </t>
         </is>
       </c>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>ぽんず</t>
+        </is>
+      </c>
       <c r="N324" t="inlineStr">
         <is>
           <t xml:space="preserve">269 48 47 </t>
@@ -23817,6 +24247,11 @@
 </t>
         </is>
       </c>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>七語つきみ</t>
+        </is>
+      </c>
       <c r="M325" t="inlineStr">
         <is>
           <t xml:space="preserve">SD01-004 </t>
@@ -23884,6 +24319,11 @@
           <t xml:space="preserve">
 【進化時】相手のフォロワー1体を選ぶ。それを手札に戻す。【コンボ_3】1枚引く。（手札に戻ったトークンはゲームから取り除く）
 </t>
+        </is>
+      </c>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>七語つきみ</t>
         </is>
       </c>
       <c r="M326" t="inlineStr">
@@ -24107,6 +24547,11 @@
 </t>
         </is>
       </c>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>えいひ</t>
+        </is>
+      </c>
       <c r="O329" t="inlineStr">
         <is>
           <t>金属精灵法师</t>
@@ -24171,6 +24616,11 @@
 </t>
         </is>
       </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>tricky胡坐</t>
+        </is>
+      </c>
       <c r="N330" t="inlineStr">
         <is>
           <t xml:space="preserve">54 53 52 </t>
@@ -24241,6 +24691,11 @@
 </t>
         </is>
       </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>宮﨑章</t>
+        </is>
+      </c>
       <c r="M331" t="inlineStr">
         <is>
           <t xml:space="preserve">SD01-010 </t>
@@ -24306,6 +24761,11 @@
       <c r="J332" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>宮﨑章</t>
         </is>
       </c>
       <c r="M332" t="inlineStr">
@@ -24380,6 +24840,11 @@
 </t>
         </is>
       </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>ezusuke</t>
+        </is>
+      </c>
       <c r="M333" t="inlineStr">
         <is>
           <t xml:space="preserve">SD01-012 SD01-T01 </t>
@@ -24455,6 +24920,11 @@
 </t>
         </is>
       </c>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>ezusuke</t>
+        </is>
+      </c>
       <c r="M334" t="inlineStr">
         <is>
           <t xml:space="preserve">SD01-011 SD01-T01 </t>
@@ -24528,6 +24998,11 @@
 【指定攻撃】(【指定攻撃】を持つフォロワーは、スタンド状態のフォロワーを攻撃できる)
 これは【守護】を無視して攻撃できる。
 </t>
+        </is>
+      </c>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>u介</t>
         </is>
       </c>
       <c r="N335" t="inlineStr">
@@ -24601,6 +25076,11 @@
 </t>
         </is>
       </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>若月さな</t>
+        </is>
+      </c>
       <c r="M336" t="inlineStr">
         <is>
           <t xml:space="preserve">SD01-T01 </t>
@@ -24674,6 +25154,11 @@
 《ファンファーレ》自分の妖精・フォロワー1体を選ぶ。それは《攻撃力》+1する。
 《起動》《コスト1》これを《アクト》：これを手札に戻す。
 </t>
+        </is>
+      </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>米谷尚展</t>
         </is>
       </c>
       <c r="N337" t="inlineStr">
@@ -24748,6 +25233,11 @@
 </t>
         </is>
       </c>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>Tabaroki</t>
+        </is>
+      </c>
       <c r="M338" t="inlineStr">
         <is>
           <t xml:space="preserve">SD01-T01 </t>
@@ -24822,6 +25312,11 @@
 </t>
         </is>
       </c>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>tricky胡坐</t>
+        </is>
+      </c>
       <c r="M339" t="inlineStr">
         <is>
           <t xml:space="preserve">SD01-018 </t>
@@ -24884,6 +25379,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>tricky胡坐</t>
+        </is>
+      </c>
       <c r="M340" t="inlineStr">
         <is>
           <t xml:space="preserve">SD01-017 </t>
@@ -24954,6 +25454,11 @@
 </t>
         </is>
       </c>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>廣岡政樹</t>
+        </is>
+      </c>
       <c r="O341" t="inlineStr">
         <is>
           <t>天使的圣箭</t>
@@ -25019,6 +25524,11 @@
 </t>
         </is>
       </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>タカヤマトシアキ</t>
+        </is>
+      </c>
       <c r="N342" t="inlineStr">
         <is>
           <t xml:space="preserve">64 </t>
@@ -25081,6 +25591,11 @@
           <t>-</t>
         </is>
       </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>南保あたる</t>
+        </is>
+      </c>
       <c r="O343" t="inlineStr">
         <is>
           <t>亚里莎</t>
@@ -25136,6 +25651,11 @@
       <c r="J344" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>カイエダヒロシ</t>
         </is>
       </c>
       <c r="O344" t="inlineStr">
@@ -25205,6 +25725,11 @@
 </t>
         </is>
       </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>久方綜司</t>
+        </is>
+      </c>
       <c r="M345" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-T01 </t>
@@ -25281,6 +25806,11 @@
 </t>
         </is>
       </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>相場良祐</t>
+        </is>
+      </c>
       <c r="M346" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-003 </t>
@@ -25354,6 +25884,11 @@
 【守護】
 【進化時】場の他のカード1枚を手札に戻す：これは《攻撃力》+1/《体力》+1する。
 </t>
+        </is>
+      </c>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>相場良祐</t>
         </is>
       </c>
       <c r="M347" t="inlineStr">
@@ -25432,6 +25967,11 @@
 </t>
         </is>
       </c>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>ねじ太</t>
+        </is>
+      </c>
       <c r="M348" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-005 </t>
@@ -25506,6 +26046,11 @@
 </t>
         </is>
       </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>ねじ太</t>
+        </is>
+      </c>
       <c r="M349" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-004 </t>
@@ -25581,6 +26126,11 @@
 </t>
         </is>
       </c>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>久方綜司</t>
+        </is>
+      </c>
       <c r="O350" t="inlineStr">
         <is>
           <t>罗宾汉</t>
@@ -25646,6 +26196,11 @@
 </t>
         </is>
       </c>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>相場良祐</t>
+        </is>
+      </c>
       <c r="N351" t="inlineStr">
         <is>
           <t xml:space="preserve">155 154 </t>
@@ -25715,6 +26270,11 @@
 </t>
         </is>
       </c>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>ぽんず</t>
+        </is>
+      </c>
       <c r="N352" t="inlineStr">
         <is>
           <t xml:space="preserve">156 </t>
@@ -25782,6 +26342,11 @@
           <t xml:space="preserve">
 《進化》《コスト1》：これは進化する。
 </t>
+        </is>
+      </c>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>四々九</t>
         </is>
       </c>
       <c r="M353" t="inlineStr">
@@ -25855,6 +26420,11 @@
 </t>
         </is>
       </c>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>四々九</t>
+        </is>
+      </c>
       <c r="M354" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-009 BP01-T02 </t>
@@ -25924,6 +26494,11 @@
 </t>
         </is>
       </c>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>ヘスン</t>
+        </is>
+      </c>
       <c r="N355" t="inlineStr">
         <is>
           <t xml:space="preserve">157 </t>
@@ -25994,6 +26569,11 @@
 </t>
         </is>
       </c>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>ツネくん</t>
+        </is>
+      </c>
       <c r="O356" t="inlineStr">
         <is>
           <t>精灵女孩‧小梅</t>
@@ -26056,6 +26636,11 @@
           <t xml:space="preserve">
 《起動》EXエリアの妖精・フォロワー1枚を消滅：自分のリーダーは《体力》+3する。1枚引く。この能力は1ターンに1回使える。
 </t>
+        </is>
+      </c>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>風篠</t>
         </is>
       </c>
       <c r="N357" t="inlineStr">
@@ -26338,6 +26923,11 @@
 </t>
         </is>
       </c>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>えいひ</t>
+        </is>
+      </c>
       <c r="O361" t="inlineStr">
         <is>
           <t>金属精灵法师</t>
@@ -26403,6 +26993,11 @@
 </t>
         </is>
       </c>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>虹原</t>
+        </is>
+      </c>
       <c r="M362" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-019 </t>
@@ -26410,7 +27005,7 @@
       </c>
       <c r="N362" t="inlineStr">
         <is>
-          <t xml:space="preserve">161 </t>
+          <t xml:space="preserve">326 161 </t>
         </is>
       </c>
       <c r="O362" t="inlineStr">
@@ -26477,6 +27072,11 @@
 </t>
         </is>
       </c>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>虹原</t>
+        </is>
+      </c>
       <c r="M363" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-018 </t>
@@ -26484,7 +27084,7 @@
       </c>
       <c r="N363" t="inlineStr">
         <is>
-          <t xml:space="preserve">163 162 </t>
+          <t xml:space="preserve">326 163 162 </t>
         </is>
       </c>
       <c r="O363" t="inlineStr">
@@ -26553,6 +27153,11 @@
 </t>
         </is>
       </c>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>haru</t>
+        </is>
+      </c>
       <c r="M364" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-T03 </t>
@@ -26620,6 +27225,11 @@
           <t xml:space="preserve">
 自分の場に他のフォロワーが出たとき、これは《攻撃力》+1/《体力》+1する。
 </t>
+        </is>
+      </c>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>tricky胡坐</t>
         </is>
       </c>
       <c r="N365" t="inlineStr">
@@ -26762,6 +27372,11 @@
 </t>
         </is>
       </c>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>若月さな</t>
+        </is>
+      </c>
       <c r="M367" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-T03 </t>
@@ -26837,6 +27452,11 @@
 </t>
         </is>
       </c>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>風篠</t>
+        </is>
+      </c>
       <c r="N368" t="inlineStr">
         <is>
           <t xml:space="preserve">166 165 </t>
@@ -26905,6 +27525,11 @@
 《ファンファーレ》自分の妖精・フォロワー1体を選ぶ。それは《攻撃力》+1する。
 《起動》《コスト1》これを《アクト》：これを手札に戻す。
 </t>
+        </is>
+      </c>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>米谷尚展</t>
         </is>
       </c>
       <c r="N369" t="inlineStr">
@@ -26979,6 +27604,11 @@
 </t>
         </is>
       </c>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>ぽんず</t>
+        </is>
+      </c>
       <c r="M370" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-027 BP01-T04 </t>
@@ -27048,6 +27678,11 @@
 </t>
         </is>
       </c>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>ぽんず</t>
+        </is>
+      </c>
       <c r="M371" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-026 BP01-T04 </t>
@@ -27118,6 +27753,11 @@
 </t>
         </is>
       </c>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>虫麻呂</t>
+        </is>
+      </c>
       <c r="N372" t="inlineStr">
         <is>
           <t xml:space="preserve">243 168 167 </t>
@@ -27188,6 +27828,11 @@
 </t>
         </is>
       </c>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>ヘスン</t>
+        </is>
+      </c>
       <c r="M373" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-030 </t>
@@ -27260,6 +27905,11 @@
           <t xml:space="preserve">
 【進化時】アクト状態の相手のフォロワー1体を選ぶ。それを破壊する。
 </t>
+        </is>
+      </c>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>ヘスン</t>
         </is>
       </c>
       <c r="M374" t="inlineStr">
@@ -27332,6 +27982,11 @@
 ―――――――――――――――
 『スティールナイト』《ロイヤル》兵士・フォロワー《コスト2》《攻撃力》2/《体力》2
 </t>
+        </is>
+      </c>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>InHyuk Lee</t>
         </is>
       </c>
       <c r="M375" t="inlineStr">
@@ -27412,6 +28067,11 @@
 </t>
         </is>
       </c>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>まよこ</t>
+        </is>
+      </c>
       <c r="M376" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-T05 BP01-T06 BP01-T07 </t>
@@ -27487,6 +28147,11 @@
 </t>
         </is>
       </c>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>藤木ゆう</t>
+        </is>
+      </c>
       <c r="N377" t="inlineStr">
         <is>
           <t xml:space="preserve">172 </t>
@@ -27699,6 +28364,11 @@
 </t>
         </is>
       </c>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>JNAME</t>
+        </is>
+      </c>
       <c r="N380" t="inlineStr">
         <is>
           <t xml:space="preserve">176 175 </t>
@@ -27768,6 +28438,11 @@
 </t>
         </is>
       </c>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>ZEN</t>
+        </is>
+      </c>
       <c r="O381" t="inlineStr">
         <is>
           <t>睿智指挥官</t>
@@ -27900,6 +28575,11 @@
           <t xml:space="preserve">
 《ファンファーレ》自分のデッキの上5枚を見る。その中から、コスト1のフォロワー1枚を場に出してよい。残りを好きな順にデッキの下に置く。
 </t>
+        </is>
+      </c>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>ヤッペン</t>
         </is>
       </c>
       <c r="N383" t="inlineStr">
@@ -28044,6 +28724,11 @@
 </t>
         </is>
       </c>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>相場良祐</t>
+        </is>
+      </c>
       <c r="M385" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-T05 </t>
@@ -28111,6 +28796,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>tricky胡坐</t>
+        </is>
+      </c>
       <c r="O386" t="inlineStr">
         <is>
           <t>忍者学徒</t>
@@ -28389,6 +29079,11 @@
 </t>
         </is>
       </c>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>hippo</t>
+        </is>
+      </c>
       <c r="O390" t="inlineStr">
         <is>
           <t>身经百战的长枪兵</t>
@@ -28453,6 +29148,11 @@
 </t>
         </is>
       </c>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>tricky胡坐</t>
+        </is>
+      </c>
       <c r="O391" t="inlineStr">
         <is>
           <t>舰队指挥官</t>
@@ -28515,6 +29215,11 @@
           <t xml:space="preserve">
 【疾走】
 </t>
+        </is>
+      </c>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>陽春</t>
         </is>
       </c>
       <c r="O392" t="inlineStr">
@@ -28653,6 +29358,11 @@
 </t>
         </is>
       </c>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>クロとブチ</t>
+        </is>
+      </c>
       <c r="M394" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-T05 </t>
@@ -28728,6 +29438,11 @@
 </t>
         </is>
       </c>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>mstk</t>
+        </is>
+      </c>
       <c r="N395" t="inlineStr">
         <is>
           <t xml:space="preserve">184 183 </t>
@@ -28798,6 +29513,11 @@
 </t>
         </is>
       </c>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>虫麻呂</t>
+        </is>
+      </c>
       <c r="M396" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-053 </t>
@@ -28870,6 +29590,11 @@
           <t xml:space="preserve">
 【進化時】自分の墓場のコスト3以下のスペル1枚を選ぶ。それのコストを0にしてプレイする。
 </t>
+        </is>
+      </c>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>虫麻呂</t>
         </is>
       </c>
       <c r="M397" t="inlineStr">
@@ -28949,6 +29674,11 @@
 </t>
         </is>
       </c>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>irua</t>
+        </is>
+      </c>
       <c r="M398" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-055 BP01-T09 </t>
@@ -29017,6 +29747,11 @@
 これがいる限り、自分がゴーレム・フォロワーをプレイするコストを-1する。
 自分の場にゴーレム・フォロワーが出たとき、相手のリーダー1人か相手のフォロワー1体を選ぶ。それに3ダメージ。
 </t>
+        </is>
+      </c>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>irua</t>
         </is>
       </c>
       <c r="M399" t="inlineStr">
@@ -29095,6 +29830,11 @@
 </t>
         </is>
       </c>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>ツネくん</t>
+        </is>
+      </c>
       <c r="N400" t="inlineStr">
         <is>
           <t xml:space="preserve">191 190 189 188 </t>
@@ -29165,9 +29905,14 @@
 </t>
         </is>
       </c>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>久方綜司</t>
+        </is>
+      </c>
       <c r="N401" t="inlineStr">
         <is>
-          <t xml:space="preserve">193 192 </t>
+          <t xml:space="preserve">329 193 192 </t>
         </is>
       </c>
       <c r="O401" t="inlineStr">
@@ -29236,6 +29981,11 @@
 </t>
         </is>
       </c>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>えなれいん</t>
+        </is>
+      </c>
       <c r="M402" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-T08 BP01-T09 BP01-T10 </t>
@@ -29311,6 +30061,11 @@
 </t>
         </is>
       </c>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>Hachi</t>
+        </is>
+      </c>
       <c r="M403" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-060 </t>
@@ -29385,6 +30140,11 @@
 </t>
         </is>
       </c>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>Hachi</t>
+        </is>
+      </c>
       <c r="M404" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-059 </t>
@@ -29455,6 +30215,11 @@
 </t>
         </is>
       </c>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>ゾウノセ</t>
+        </is>
+      </c>
       <c r="N405" t="inlineStr">
         <is>
           <t xml:space="preserve">196 </t>
@@ -29523,6 +30288,11 @@
 自分がスペルをプレイしたとき、これにスペルカウンター1つを置く。
 《起動》これのスペルカウンター3つを取る：相手のフォロワー1体を選ぶ。それに5ダメージ。
 </t>
+        </is>
+      </c>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>藤木ゆう</t>
         </is>
       </c>
       <c r="N406" t="inlineStr">
@@ -29597,6 +30367,11 @@
 </t>
         </is>
       </c>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>dakun</t>
+        </is>
+      </c>
       <c r="M407" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-T09 </t>
@@ -29671,6 +30446,11 @@
 </t>
         </is>
       </c>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>Xavier Lozano Ribeiro</t>
+        </is>
+      </c>
       <c r="O408" t="inlineStr">
         <is>
           <t>炼金术的知识</t>
@@ -29736,6 +30516,11 @@
 </t>
         </is>
       </c>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>Shukei</t>
+        </is>
+      </c>
       <c r="N409" t="inlineStr">
         <is>
           <t xml:space="preserve">199 </t>
@@ -29804,6 +30589,11 @@
 【スタック】
 《ファンファーレ》体力4以下の相手のフォロワー1体を選ぶ。それを消滅させる。
 </t>
+        </is>
+      </c>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>JNAME</t>
         </is>
       </c>
       <c r="O410" t="inlineStr">
@@ -29873,6 +30663,11 @@
 </t>
         </is>
       </c>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>TEDDY</t>
+        </is>
+      </c>
       <c r="M411" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-T10 </t>
@@ -29945,6 +30740,11 @@
 </t>
         </is>
       </c>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>麻谷知世</t>
+        </is>
+      </c>
       <c r="M412" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-069 BP01-T10 </t>
@@ -30014,6 +30814,11 @@
 </t>
         </is>
       </c>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>麻谷知世</t>
+        </is>
+      </c>
       <c r="M413" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-068 BP01-T10 </t>
@@ -30021,7 +30826,7 @@
       </c>
       <c r="N413" t="inlineStr">
         <is>
-          <t xml:space="preserve">200 </t>
+          <t xml:space="preserve">327 200 </t>
         </is>
       </c>
       <c r="O413" t="inlineStr">
@@ -30157,6 +30962,11 @@
 </t>
         </is>
       </c>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>lack</t>
+        </is>
+      </c>
       <c r="N415" t="inlineStr">
         <is>
           <t xml:space="preserve">90 </t>
@@ -30227,6 +31037,11 @@
 </t>
         </is>
       </c>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>COGA</t>
+        </is>
+      </c>
       <c r="N416" t="inlineStr">
         <is>
           <t xml:space="preserve">93 92 91 </t>
@@ -30295,6 +31110,11 @@
 《クイック》
 相手のフォロワー1体を選ぶ。それを破壊する。【スペルチェイン_10】それのリーダーに3ダメージ。
 </t>
+        </is>
+      </c>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>Shukei</t>
         </is>
       </c>
       <c r="N417" t="inlineStr">
@@ -30369,6 +31189,11 @@
 </t>
         </is>
       </c>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>巻</t>
+        </is>
+      </c>
       <c r="M418" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-T08 </t>
@@ -30439,6 +31264,11 @@
 </t>
         </is>
       </c>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>姚亮</t>
+        </is>
+      </c>
       <c r="O419" t="inlineStr">
         <is>
           <t>睿智的教诲</t>
@@ -30504,6 +31334,11 @@
 </t>
         </is>
       </c>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>虫麻呂</t>
+        </is>
+      </c>
       <c r="M420" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-077 </t>
@@ -30571,6 +31406,11 @@
           <t xml:space="preserve">
 【疾走】【オーラ】
 </t>
+        </is>
+      </c>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>虫麻呂</t>
         </is>
       </c>
       <c r="M421" t="inlineStr">
@@ -30645,6 +31485,11 @@
 </t>
         </is>
       </c>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>相場良祐</t>
+        </is>
+      </c>
       <c r="M422" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-T11 </t>
@@ -30720,6 +31565,11 @@
 </t>
         </is>
       </c>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>ぽんず</t>
+        </is>
+      </c>
       <c r="N423" t="inlineStr">
         <is>
           <t xml:space="preserve">202 </t>
@@ -30789,6 +31639,11 @@
 </t>
         </is>
       </c>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>風篠</t>
+        </is>
+      </c>
       <c r="O424" t="inlineStr">
         <is>
           <t>创世龙</t>
@@ -30992,6 +31847,11 @@
 </t>
         </is>
       </c>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>タカヤマトシアキ</t>
+        </is>
+      </c>
       <c r="N427" t="inlineStr">
         <is>
           <t xml:space="preserve">204 203 </t>
@@ -31059,6 +31919,11 @@
           <t xml:space="preserve">
 《ファンファーレ》自分のデッキの上1枚をEXエリアに置く。それをプレイする際、コストを-2する。
 </t>
+        </is>
+      </c>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>タカヤマトシアキ</t>
         </is>
       </c>
       <c r="N428" t="inlineStr">
@@ -31197,6 +32062,11 @@
 </t>
         </is>
       </c>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>タカヤマトシアキ</t>
+        </is>
+      </c>
       <c r="M430" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-087 </t>
@@ -31267,6 +32137,11 @@
 </t>
         </is>
       </c>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t>タカヤマトシアキ</t>
+        </is>
+      </c>
       <c r="M431" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-086 </t>
@@ -31406,6 +32281,11 @@
 </t>
         </is>
       </c>
+      <c r="L433" t="inlineStr">
+        <is>
+          <t>タカヤマトシアキ</t>
+        </is>
+      </c>
       <c r="O433" t="inlineStr">
         <is>
           <t>灼热风暴</t>
@@ -31469,6 +32349,11 @@
 《クイック》
 相手のフォロワー1体を選ぶ。それに5ダメージ。【覚醒】状態なら、1枚引く。
 </t>
+        </is>
+      </c>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>アオガチョウ</t>
         </is>
       </c>
       <c r="O434" t="inlineStr">
@@ -31612,6 +32497,11 @@
 </t>
         </is>
       </c>
+      <c r="L436" t="inlineStr">
+        <is>
+          <t>イシバシヨウスケ</t>
+        </is>
+      </c>
       <c r="M436" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-093 </t>
@@ -31681,6 +32571,11 @@
 </t>
         </is>
       </c>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t>イシバシヨウスケ</t>
+        </is>
+      </c>
       <c r="M437" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-092 </t>
@@ -31815,6 +32710,11 @@
 </t>
         </is>
       </c>
+      <c r="L439" t="inlineStr">
+        <is>
+          <t>藤木ゆう</t>
+        </is>
+      </c>
       <c r="N439" t="inlineStr">
         <is>
           <t xml:space="preserve">211 210 209 </t>
@@ -31948,6 +32848,11 @@
 </t>
         </is>
       </c>
+      <c r="L441" t="inlineStr">
+        <is>
+          <t>山本しかく</t>
+        </is>
+      </c>
       <c r="O441" t="inlineStr">
         <is>
           <t>恐惧龙兽</t>
@@ -32013,6 +32918,11 @@
 </t>
         </is>
       </c>
+      <c r="L442" t="inlineStr">
+        <is>
+          <t>Illfill</t>
+        </is>
+      </c>
       <c r="N442" t="inlineStr">
         <is>
           <t xml:space="preserve">106 </t>
@@ -32082,6 +32992,11 @@
 </t>
         </is>
       </c>
+      <c r="L443" t="inlineStr">
+        <is>
+          <t>Siswanto Budi Cahyono</t>
+        </is>
+      </c>
       <c r="N443" t="inlineStr">
         <is>
           <t xml:space="preserve">109 108 107 </t>
@@ -32149,6 +33064,11 @@
           <t xml:space="preserve">
 自分のデッキの上5枚を見る。その中から、コスト5以上の《ドラゴン》カード1枚を公開して手札に加えてよい。残りを好きな順にデッキの下に置く。
 </t>
+        </is>
+      </c>
+      <c r="L444" t="inlineStr">
+        <is>
+          <t>ゾウノセ</t>
         </is>
       </c>
       <c r="N444" t="inlineStr">
@@ -32224,6 +33144,11 @@
 </t>
         </is>
       </c>
+      <c r="L445" t="inlineStr">
+        <is>
+          <t>虫麻呂</t>
+        </is>
+      </c>
       <c r="M445" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-102 BP01-T12 BP01-T13 </t>
@@ -32298,6 +33223,11 @@
 </t>
         </is>
       </c>
+      <c r="L446" t="inlineStr">
+        <is>
+          <t>虫麻呂</t>
+        </is>
+      </c>
       <c r="M446" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-101 BP01-T12 BP01-T13 </t>
@@ -32370,6 +33300,11 @@
           <t xml:space="preserve">
 これをプレイする際、場のスタンド状態の《ナイトメア》カード4枚を墓場に置く、または、EXエリアの《ナイトメア》カード4枚を消滅：コストを-9する。
 </t>
+        </is>
+      </c>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>Jang seungpil</t>
         </is>
       </c>
       <c r="N447" t="inlineStr">
@@ -32444,6 +33379,11 @@
 </t>
         </is>
       </c>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>久方綜司</t>
+        </is>
+      </c>
       <c r="M448" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-U05 </t>
@@ -32519,6 +33459,11 @@
 </t>
         </is>
       </c>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>疾速k</t>
+        </is>
+      </c>
       <c r="M449" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-106 </t>
@@ -32589,6 +33534,11 @@
 </t>
         </is>
       </c>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t>疾速k</t>
+        </is>
+      </c>
       <c r="M450" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-105 </t>
@@ -32596,7 +33546,7 @@
       </c>
       <c r="N450" t="inlineStr">
         <is>
-          <t xml:space="preserve">219 218 </t>
+          <t xml:space="preserve">331 219 218 </t>
         </is>
       </c>
       <c r="O450" t="inlineStr">
@@ -32663,6 +33613,11 @@
 </t>
         </is>
       </c>
+      <c r="L451" t="inlineStr">
+        <is>
+          <t>日田慶治</t>
+        </is>
+      </c>
       <c r="O451" t="inlineStr">
         <is>
           <t>不死斗士‧莫迪凯</t>
@@ -32728,6 +33683,11 @@
 </t>
         </is>
       </c>
+      <c r="L452" t="inlineStr">
+        <is>
+          <t>irua</t>
+        </is>
+      </c>
       <c r="O452" t="inlineStr">
         <is>
           <t>漆黑之契</t>
@@ -33002,6 +33962,11 @@
           <t xml:space="preserve">
 《ファンファーレ》【真紅】状態なら、これは《攻撃力》+1/《体力》+1して、【突進】を持つ。
 </t>
+        </is>
+      </c>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>Shukei</t>
         </is>
       </c>
       <c r="O456" t="inlineStr">
@@ -33134,6 +34099,11 @@
 </t>
         </is>
       </c>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>mstk</t>
+        </is>
+      </c>
       <c r="M458" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-T14 </t>
@@ -33203,6 +34173,11 @@
 </t>
         </is>
       </c>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>おにねこ</t>
+        </is>
+      </c>
       <c r="N459" t="inlineStr">
         <is>
           <t xml:space="preserve">272 247 222 </t>
@@ -33273,6 +34248,11 @@
 </t>
         </is>
       </c>
+      <c r="L460" t="inlineStr">
+        <is>
+          <t>松吉</t>
+        </is>
+      </c>
       <c r="N460" t="inlineStr">
         <is>
           <t xml:space="preserve">268 223 </t>
@@ -33342,6 +34322,11 @@
 </t>
         </is>
       </c>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t>銀</t>
+        </is>
+      </c>
       <c r="O461" t="inlineStr">
         <is>
           <t>骷髅战将</t>
@@ -33471,6 +34456,11 @@
 </t>
         </is>
       </c>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>hippo</t>
+        </is>
+      </c>
       <c r="N463" t="inlineStr">
         <is>
           <t xml:space="preserve">263 116 </t>
@@ -33609,6 +34599,11 @@
 </t>
         </is>
       </c>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>姚亮</t>
+        </is>
+      </c>
       <c r="O465" t="inlineStr">
         <is>
           <t>兔灵邪法师</t>
@@ -33819,6 +34814,11 @@
           <t xml:space="preserve">
 《ファンファーレ》自分の墓場のフォロワー2枚まで選ぶ。それを手札に加える。
 </t>
+        </is>
+      </c>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>Scott Murphy</t>
         </is>
       </c>
       <c r="N468" t="inlineStr">
@@ -33892,6 +34892,11 @@
 </t>
         </is>
       </c>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>羽山晃平</t>
+        </is>
+      </c>
       <c r="N469" t="inlineStr">
         <is>
           <t xml:space="preserve">123 </t>
@@ -33963,6 +34968,11 @@
 </t>
         </is>
       </c>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>虫麻呂</t>
+        </is>
+      </c>
       <c r="N470" t="inlineStr">
         <is>
           <t xml:space="preserve">225 </t>
@@ -34033,6 +35043,11 @@
 </t>
         </is>
       </c>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t>久方綜司</t>
+        </is>
+      </c>
       <c r="M471" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-128 </t>
@@ -34102,6 +35117,11 @@
 </t>
         </is>
       </c>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t>久方綜司</t>
+        </is>
+      </c>
       <c r="M472" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-127 </t>
@@ -34172,6 +35192,11 @@
 </t>
         </is>
       </c>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>まよこ</t>
+        </is>
+      </c>
       <c r="M473" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-130 </t>
@@ -34247,6 +35272,11 @@
 </t>
         </is>
       </c>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>まよこ</t>
+        </is>
+      </c>
       <c r="M474" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-129 </t>
@@ -34321,6 +35351,11 @@
 </t>
         </is>
       </c>
+      <c r="L475" t="inlineStr">
+        <is>
+          <t>sime</t>
+        </is>
+      </c>
       <c r="N475" t="inlineStr">
         <is>
           <t xml:space="preserve">229 </t>
@@ -34390,6 +35425,11 @@
 </t>
         </is>
       </c>
+      <c r="L476" t="inlineStr">
+        <is>
+          <t>まじ</t>
+        </is>
+      </c>
       <c r="O476" t="inlineStr">
         <is>
           <t>咏唱：祈愿者的号召</t>
@@ -34455,6 +35495,11 @@
 </t>
         </is>
       </c>
+      <c r="L477" t="inlineStr">
+        <is>
+          <t>須田彩加</t>
+        </is>
+      </c>
       <c r="O477" t="inlineStr">
         <is>
           <t>神圣祈愿</t>
@@ -34520,6 +35565,11 @@
 </t>
         </is>
       </c>
+      <c r="L478" t="inlineStr">
+        <is>
+          <t>チンケンカン</t>
+        </is>
+      </c>
       <c r="N478" t="inlineStr">
         <is>
           <t xml:space="preserve">230 </t>
@@ -34589,6 +35639,11 @@
 </t>
         </is>
       </c>
+      <c r="L479" t="inlineStr">
+        <is>
+          <t>ツネくん</t>
+        </is>
+      </c>
       <c r="M479" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-136 </t>
@@ -34658,6 +35713,11 @@
 </t>
         </is>
       </c>
+      <c r="L480" t="inlineStr">
+        <is>
+          <t>ツネくん</t>
+        </is>
+      </c>
       <c r="M480" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-135 </t>
@@ -34802,6 +35862,11 @@
 </t>
         </is>
       </c>
+      <c r="L482" t="inlineStr">
+        <is>
+          <t>CACAO</t>
+        </is>
+      </c>
       <c r="O482" t="inlineStr">
         <is>
           <t>圣殿女骑士</t>
@@ -34935,6 +36000,11 @@
 《クイック》
 自分の場のカード1枚を選ぶ。それを破壊する。自分のリーダーは《体力》+3する。1枚引く。
 </t>
+        </is>
+      </c>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t>ぽんず</t>
         </is>
       </c>
       <c r="N484" t="inlineStr">
@@ -35008,6 +36078,11 @@
 </t>
         </is>
       </c>
+      <c r="L485" t="inlineStr">
+        <is>
+          <t>藤ちょこ</t>
+        </is>
+      </c>
       <c r="M485" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-T17 </t>
@@ -35015,7 +36090,7 @@
       </c>
       <c r="N485" t="inlineStr">
         <is>
-          <t xml:space="preserve">236 </t>
+          <t xml:space="preserve">334 236 </t>
         </is>
       </c>
       <c r="O485" t="inlineStr">
@@ -35151,6 +36226,11 @@
 </t>
         </is>
       </c>
+      <c r="L487" t="inlineStr">
+        <is>
+          <t>かわく</t>
+        </is>
+      </c>
       <c r="O487" t="inlineStr">
         <is>
           <t>见习修女</t>
@@ -35216,6 +36296,11 @@
 </t>
         </is>
       </c>
+      <c r="L488" t="inlineStr">
+        <is>
+          <t>pru</t>
+        </is>
+      </c>
       <c r="M488" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-145 </t>
@@ -35285,6 +36370,11 @@
 </t>
         </is>
       </c>
+      <c r="L489" t="inlineStr">
+        <is>
+          <t>pru</t>
+        </is>
+      </c>
       <c r="M489" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-144 </t>
@@ -35354,6 +36444,11 @@
 </t>
         </is>
       </c>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>COGA</t>
+        </is>
+      </c>
       <c r="O490" t="inlineStr">
         <is>
           <t>蛇神女祭司</t>
@@ -35418,6 +36513,11 @@
 </t>
         </is>
       </c>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>liiko</t>
+        </is>
+      </c>
       <c r="O491" t="inlineStr">
         <is>
           <t>伟大的女修士</t>
@@ -35483,6 +36583,11 @@
 </t>
         </is>
       </c>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>五十嵐</t>
+        </is>
+      </c>
       <c r="N492" t="inlineStr">
         <is>
           <t xml:space="preserve">138 137 </t>
@@ -35553,6 +36658,11 @@
 </t>
         </is>
       </c>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>NOTT</t>
+        </is>
+      </c>
       <c r="O493" t="inlineStr">
         <is>
           <t>庇护的天光</t>
@@ -35618,6 +36728,11 @@
 </t>
         </is>
       </c>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>hikaru</t>
+        </is>
+      </c>
       <c r="N494" t="inlineStr">
         <is>
           <t xml:space="preserve">140 139 </t>
@@ -35686,6 +36801,11 @@
 【守護】
 《ファンファーレ》自分の他のフォロワー1体を選ぶ。それは《攻撃力》+4/《体力》+3して、【指定攻撃】を持つ。
 </t>
+        </is>
+      </c>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>久方綜司</t>
         </is>
       </c>
       <c r="M495" t="inlineStr">
@@ -35759,6 +36879,11 @@
 </t>
         </is>
       </c>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>虫麻呂</t>
+        </is>
+      </c>
       <c r="M496" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-153 </t>
@@ -35834,6 +36959,11 @@
 </t>
         </is>
       </c>
+      <c r="L497" t="inlineStr">
+        <is>
+          <t>虫麻呂</t>
+        </is>
+      </c>
       <c r="M497" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-152 </t>
@@ -35974,6 +37104,11 @@
 </t>
         </is>
       </c>
+      <c r="L499" t="inlineStr">
+        <is>
+          <t>ぽんず</t>
+        </is>
+      </c>
       <c r="M499" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-156 </t>
@@ -36048,6 +37183,11 @@
 </t>
         </is>
       </c>
+      <c r="L500" t="inlineStr">
+        <is>
+          <t>ぽんず</t>
+        </is>
+      </c>
       <c r="M500" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-155 </t>
@@ -36123,6 +37263,11 @@
 </t>
         </is>
       </c>
+      <c r="L501" t="inlineStr">
+        <is>
+          <t>虫麻呂</t>
+        </is>
+      </c>
       <c r="O501" t="inlineStr">
         <is>
           <t>风神</t>
@@ -36185,6 +37330,11 @@
           <t xml:space="preserve">
 【疾走】
 </t>
+        </is>
+      </c>
+      <c r="L502" t="inlineStr">
+        <is>
+          <t>相場良祐</t>
         </is>
       </c>
       <c r="O502" t="inlineStr">
@@ -36463,6 +37613,11 @@
 </t>
         </is>
       </c>
+      <c r="L506" t="inlineStr">
+        <is>
+          <t>相場良祐</t>
+        </is>
+      </c>
       <c r="O506" t="inlineStr">
         <is>
           <t>冥府之路</t>
@@ -36593,6 +37748,11 @@
 </t>
         </is>
       </c>
+      <c r="L508" t="inlineStr">
+        <is>
+          <t>honart</t>
+        </is>
+      </c>
       <c r="M508" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-165 </t>
@@ -36662,6 +37822,11 @@
 </t>
         </is>
       </c>
+      <c r="L509" t="inlineStr">
+        <is>
+          <t>honart</t>
+        </is>
+      </c>
       <c r="M509" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-164 </t>
@@ -36869,6 +38034,11 @@
 </t>
         </is>
       </c>
+      <c r="L512" t="inlineStr">
+        <is>
+          <t>tricky胡坐</t>
+        </is>
+      </c>
       <c r="O512" t="inlineStr">
         <is>
           <t>恶魔冲击波</t>
@@ -36932,6 +38102,11 @@
 《クイック》
 相手の場のカード1枚を選ぶ。それを破壊する。
 </t>
+        </is>
+      </c>
+      <c r="L513" t="inlineStr">
+        <is>
+          <t>tricky胡坐</t>
         </is>
       </c>
       <c r="O513" t="inlineStr">
@@ -37069,6 +38244,11 @@
 </t>
         </is>
       </c>
+      <c r="L515" t="inlineStr">
+        <is>
+          <t>tricky胡坐</t>
+        </is>
+      </c>
       <c r="M515" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-172 </t>
@@ -37131,6 +38311,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="L516" t="inlineStr">
+        <is>
+          <t>tricky胡坐</t>
+        </is>
+      </c>
       <c r="M516" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-171 </t>
@@ -37193,6 +38378,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="L517" t="inlineStr">
+        <is>
+          <t>tricky胡坐</t>
+        </is>
+      </c>
       <c r="O517" t="inlineStr">
         <is>
           <t>剑斗士</t>
@@ -37257,6 +38447,11 @@
 </t>
         </is>
       </c>
+      <c r="L518" t="inlineStr">
+        <is>
+          <t>hippo</t>
+        </is>
+      </c>
       <c r="M518" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-175 </t>
@@ -37319,6 +38514,11 @@
           <t>6</t>
         </is>
       </c>
+      <c r="L519" t="inlineStr">
+        <is>
+          <t>hippo</t>
+        </is>
+      </c>
       <c r="M519" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-174 </t>
@@ -37388,6 +38588,11 @@
 </t>
         </is>
       </c>
+      <c r="L520" t="inlineStr">
+        <is>
+          <t>Melodyoflost</t>
+        </is>
+      </c>
       <c r="O520" t="inlineStr">
         <is>
           <t>天女剑士</t>
@@ -37592,6 +38797,11 @@
 </t>
         </is>
       </c>
+      <c r="L523" t="inlineStr">
+        <is>
+          <t>廣岡政樹</t>
+        </is>
+      </c>
       <c r="O523" t="inlineStr">
         <is>
           <t>天使的圣箭</t>
@@ -37657,6 +38867,11 @@
 </t>
         </is>
       </c>
+      <c r="L524" t="inlineStr">
+        <is>
+          <t>タカヤマトシアキ</t>
+        </is>
+      </c>
       <c r="O524" t="inlineStr">
         <is>
           <t>天使的箭雨</t>
@@ -37714,6 +38929,11 @@
           <t>-</t>
         </is>
       </c>
+      <c r="L525" t="inlineStr">
+        <is>
+          <t>南保あたる</t>
+        </is>
+      </c>
       <c r="O525" t="inlineStr">
         <is>
           <t>亚里莎</t>
@@ -37771,6 +38991,11 @@
           <t>-</t>
         </is>
       </c>
+      <c r="L526" t="inlineStr">
+        <is>
+          <t>虫麻呂</t>
+        </is>
+      </c>
       <c r="O526" t="inlineStr">
         <is>
           <t>舞蹈的妖精・阿丽雅</t>
@@ -37885,6 +39110,11 @@
           <t>-</t>
         </is>
       </c>
+      <c r="L528" t="inlineStr">
+        <is>
+          <t>虫麻呂</t>
+        </is>
+      </c>
       <c r="O528" t="inlineStr">
         <is>
           <t>烂漫的剑技・奥蕾莉亚</t>
@@ -37999,6 +39229,11 @@
           <t>-</t>
         </is>
       </c>
+      <c r="L530" t="inlineStr">
+        <is>
+          <t>風篠</t>
+        </is>
+      </c>
       <c r="O530" t="inlineStr">
         <is>
           <t>魔力的贤人・伊拉斯莫斯</t>
@@ -38113,6 +39348,11 @@
           <t>-</t>
         </is>
       </c>
+      <c r="L532" t="inlineStr">
+        <is>
+          <t>永守浩太</t>
+        </is>
+      </c>
       <c r="O532" t="inlineStr">
         <is>
           <t>野心的龙牙・吉尔尼特拉</t>
@@ -38405,6 +39645,11 @@
 </t>
         </is>
       </c>
+      <c r="L537" t="inlineStr">
+        <is>
+          <t>ぽんず</t>
+        </is>
+      </c>
       <c r="N537" t="inlineStr">
         <is>
           <t xml:space="preserve">156 </t>
@@ -38475,6 +39720,11 @@
 </t>
         </is>
       </c>
+      <c r="L538" t="inlineStr">
+        <is>
+          <t>ツネくん</t>
+        </is>
+      </c>
       <c r="O538" t="inlineStr">
         <is>
           <t>精灵女孩‧小梅</t>
@@ -38540,9 +39790,14 @@
 </t>
         </is>
       </c>
+      <c r="L539" t="inlineStr">
+        <is>
+          <t>虹原</t>
+        </is>
+      </c>
       <c r="N539" t="inlineStr">
         <is>
-          <t xml:space="preserve">161 </t>
+          <t xml:space="preserve">326 161 </t>
         </is>
       </c>
       <c r="O539" t="inlineStr">
@@ -38609,9 +39864,14 @@
 </t>
         </is>
       </c>
+      <c r="L540" t="inlineStr">
+        <is>
+          <t>虹原</t>
+        </is>
+      </c>
       <c r="N540" t="inlineStr">
         <is>
-          <t xml:space="preserve">163 162 </t>
+          <t xml:space="preserve">326 163 162 </t>
         </is>
       </c>
       <c r="O540" t="inlineStr">
@@ -38678,6 +39938,11 @@
 ―――――――――――――――
 『フェアリー』《エルフ》妖精・フォロワー《コスト1》《攻撃力》1/《体力》1
 </t>
+        </is>
+      </c>
+      <c r="L541" t="inlineStr">
+        <is>
+          <t>若月さな</t>
         </is>
       </c>
       <c r="M541" t="inlineStr">
@@ -38758,6 +40023,11 @@
 </t>
         </is>
       </c>
+      <c r="L542" t="inlineStr">
+        <is>
+          <t>まよこ</t>
+        </is>
+      </c>
       <c r="M542" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-T05 BP01-T06 BP01-T07 </t>
@@ -38965,6 +40235,11 @@
 </t>
         </is>
       </c>
+      <c r="L545" t="inlineStr">
+        <is>
+          <t>ZEN</t>
+        </is>
+      </c>
       <c r="O545" t="inlineStr">
         <is>
           <t>睿智指挥官</t>
@@ -39029,6 +40304,11 @@
 </t>
         </is>
       </c>
+      <c r="L546" t="inlineStr">
+        <is>
+          <t>陽春</t>
+        </is>
+      </c>
       <c r="O546" t="inlineStr">
         <is>
           <t>见习骑兵</t>
@@ -39094,9 +40374,14 @@
 </t>
         </is>
       </c>
+      <c r="L547" t="inlineStr">
+        <is>
+          <t>久方綜司</t>
+        </is>
+      </c>
       <c r="N547" t="inlineStr">
         <is>
-          <t xml:space="preserve">193 192 </t>
+          <t xml:space="preserve">329 193 192 </t>
         </is>
       </c>
       <c r="O547" t="inlineStr">
@@ -39164,6 +40449,11 @@
 </t>
         </is>
       </c>
+      <c r="L548" t="inlineStr">
+        <is>
+          <t>Hachi</t>
+        </is>
+      </c>
       <c r="N548" t="inlineStr">
         <is>
           <t xml:space="preserve">195 </t>
@@ -39233,6 +40523,11 @@
 </t>
         </is>
       </c>
+      <c r="L549" t="inlineStr">
+        <is>
+          <t>Hachi</t>
+        </is>
+      </c>
       <c r="O549" t="inlineStr">
         <is>
           <t>幻影巫术师</t>
@@ -39298,6 +40593,11 @@
 </t>
         </is>
       </c>
+      <c r="L550" t="inlineStr">
+        <is>
+          <t>JNAME</t>
+        </is>
+      </c>
       <c r="O550" t="inlineStr">
         <is>
           <t>炼金术的代价</t>
@@ -39363,6 +40663,11 @@
 </t>
         </is>
       </c>
+      <c r="L551" t="inlineStr">
+        <is>
+          <t>COGA</t>
+        </is>
+      </c>
       <c r="N551" t="inlineStr">
         <is>
           <t xml:space="preserve">93 92 91 </t>
@@ -39431,6 +40736,11 @@
 【指定攻撃】
 《ラストワード》自分のPP最大値を+1する。
 </t>
+        </is>
+      </c>
+      <c r="L552" t="inlineStr">
+        <is>
+          <t>ぽんず</t>
         </is>
       </c>
       <c r="N552" t="inlineStr">
@@ -39504,6 +40814,11 @@
 </t>
         </is>
       </c>
+      <c r="L553" t="inlineStr">
+        <is>
+          <t>タカヤマトシアキ</t>
+        </is>
+      </c>
       <c r="O553" t="inlineStr">
         <is>
           <t>神龙</t>
@@ -39567,6 +40882,11 @@
 【守護】
 【進化時】自分のリーダーは《体力》+5する。
 </t>
+        </is>
+      </c>
+      <c r="L554" t="inlineStr">
+        <is>
+          <t>タカヤマトシアキ</t>
         </is>
       </c>
       <c r="O554" t="inlineStr">
@@ -39711,6 +41031,11 @@
 </t>
         </is>
       </c>
+      <c r="L556" t="inlineStr">
+        <is>
+          <t>Illfill</t>
+        </is>
+      </c>
       <c r="N556" t="inlineStr">
         <is>
           <t xml:space="preserve">106 </t>
@@ -39780,6 +41105,11 @@
 </t>
         </is>
       </c>
+      <c r="L557" t="inlineStr">
+        <is>
+          <t>日田慶治</t>
+        </is>
+      </c>
       <c r="O557" t="inlineStr">
         <is>
           <t>不死斗士‧莫迪凯</t>
@@ -40041,6 +41371,11 @@
 </t>
         </is>
       </c>
+      <c r="L561" t="inlineStr">
+        <is>
+          <t>姚亮</t>
+        </is>
+      </c>
       <c r="O561" t="inlineStr">
         <is>
           <t>兔灵邪法师</t>
@@ -40105,6 +41440,11 @@
 </t>
         </is>
       </c>
+      <c r="L562" t="inlineStr">
+        <is>
+          <t>sime</t>
+        </is>
+      </c>
       <c r="N562" t="inlineStr">
         <is>
           <t xml:space="preserve">229 </t>
@@ -40174,6 +41514,11 @@
 </t>
         </is>
       </c>
+      <c r="L563" t="inlineStr">
+        <is>
+          <t>ツネくん</t>
+        </is>
+      </c>
       <c r="O563" t="inlineStr">
         <is>
           <t>圣之光稜牧师</t>
@@ -40238,6 +41583,11 @@
 </t>
         </is>
       </c>
+      <c r="L564" t="inlineStr">
+        <is>
+          <t>ツネくん</t>
+        </is>
+      </c>
       <c r="N564" t="inlineStr">
         <is>
           <t xml:space="preserve">232 231 </t>
@@ -40378,6 +41728,11 @@
 </t>
         </is>
       </c>
+      <c r="L566" t="inlineStr">
+        <is>
+          <t>hikaru</t>
+        </is>
+      </c>
       <c r="N566" t="inlineStr">
         <is>
           <t xml:space="preserve">140 139 </t>
@@ -40446,6 +41801,11 @@
 自分のエンドフェイズが来たとき、自分のフォロワーすべては《攻撃力》+1する。
 《ファンファーレ》自分のフォロワー1体を選ぶ。それは《攻撃力》+1する。
 </t>
+        </is>
+      </c>
+      <c r="L567" t="inlineStr">
+        <is>
+          <t>虫麻呂</t>
         </is>
       </c>
       <c r="O567" t="inlineStr">
@@ -40780,6 +42140,11 @@
 </t>
         </is>
       </c>
+      <c r="L572" t="inlineStr">
+        <is>
+          <t>久方綜司</t>
+        </is>
+      </c>
       <c r="M572" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-T01 </t>
@@ -40856,6 +42221,11 @@
 </t>
         </is>
       </c>
+      <c r="L573" t="inlineStr">
+        <is>
+          <t>相場良祐</t>
+        </is>
+      </c>
       <c r="N573" t="inlineStr">
         <is>
           <t xml:space="preserve">149 148 </t>
@@ -40924,6 +42294,11 @@
 【守護】
 【進化時】場の他のカード1枚を手札に戻す：これは《攻撃力》+1/《体力》+1する。
 </t>
+        </is>
+      </c>
+      <c r="L574" t="inlineStr">
+        <is>
+          <t>相場良祐</t>
         </is>
       </c>
       <c r="N574" t="inlineStr">
@@ -40998,6 +42373,11 @@
 </t>
         </is>
       </c>
+      <c r="L575" t="inlineStr">
+        <is>
+          <t>ぽんず</t>
+        </is>
+      </c>
       <c r="M575" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-T04 </t>
@@ -41067,6 +42447,11 @@
 </t>
         </is>
       </c>
+      <c r="L576" t="inlineStr">
+        <is>
+          <t>ぽんず</t>
+        </is>
+      </c>
       <c r="M576" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-T04 </t>
@@ -41137,6 +42522,11 @@
 </t>
         </is>
       </c>
+      <c r="L577" t="inlineStr">
+        <is>
+          <t>虫麻呂</t>
+        </is>
+      </c>
       <c r="N577" t="inlineStr">
         <is>
           <t xml:space="preserve">243 168 167 </t>
@@ -41207,6 +42597,11 @@
 </t>
         </is>
       </c>
+      <c r="L578" t="inlineStr">
+        <is>
+          <t>mstk</t>
+        </is>
+      </c>
       <c r="N578" t="inlineStr">
         <is>
           <t xml:space="preserve">184 183 </t>
@@ -41277,6 +42672,11 @@
 </t>
         </is>
       </c>
+      <c r="L579" t="inlineStr">
+        <is>
+          <t>虫麻呂</t>
+        </is>
+      </c>
       <c r="N579" t="inlineStr">
         <is>
           <t xml:space="preserve">185 </t>
@@ -41346,6 +42746,11 @@
 </t>
         </is>
       </c>
+      <c r="L580" t="inlineStr">
+        <is>
+          <t>虫麻呂</t>
+        </is>
+      </c>
       <c r="N580" t="inlineStr">
         <is>
           <t xml:space="preserve">246 186 </t>
@@ -41416,6 +42821,11 @@
 </t>
         </is>
       </c>
+      <c r="L581" t="inlineStr">
+        <is>
+          <t>虫麻呂</t>
+        </is>
+      </c>
       <c r="O581" t="inlineStr">
         <is>
           <t>黑龙骑士‧法露特</t>
@@ -41478,6 +42888,11 @@
           <t xml:space="preserve">
 【疾走】【オーラ】
 </t>
+        </is>
+      </c>
+      <c r="L582" t="inlineStr">
+        <is>
+          <t>虫麻呂</t>
         </is>
       </c>
       <c r="O582" t="inlineStr">
@@ -41545,6 +42960,11 @@
 ―――――――――――――――
 『ドラゴン』《ドラゴン》竜族・フォロワー《コスト4》《攻撃力》5/《体力》5
 </t>
+        </is>
+      </c>
+      <c r="L583" t="inlineStr">
+        <is>
+          <t>相場良祐</t>
         </is>
       </c>
       <c r="M583" t="inlineStr">
@@ -41625,6 +43045,11 @@
 </t>
         </is>
       </c>
+      <c r="L584" t="inlineStr">
+        <is>
+          <t>虫麻呂</t>
+        </is>
+      </c>
       <c r="M584" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-T12 BP01-T13 </t>
@@ -41699,6 +43124,11 @@
 </t>
         </is>
       </c>
+      <c r="L585" t="inlineStr">
+        <is>
+          <t>虫麻呂</t>
+        </is>
+      </c>
       <c r="M585" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-T12 BP01-T13 </t>
@@ -41771,6 +43201,11 @@
           <t xml:space="preserve">
 これをプレイする際、場のスタンド状態の《ナイトメア》カード4枚を墓場に置く、または、EXエリアの《ナイトメア》カード4枚を消滅：コストを-9する。
 </t>
+        </is>
+      </c>
+      <c r="L586" t="inlineStr">
+        <is>
+          <t>Jang seungpil</t>
         </is>
       </c>
       <c r="N586" t="inlineStr">
@@ -41844,6 +43279,11 @@
 </t>
         </is>
       </c>
+      <c r="L587" t="inlineStr">
+        <is>
+          <t>虫麻呂</t>
+        </is>
+      </c>
       <c r="N587" t="inlineStr">
         <is>
           <t xml:space="preserve">225 </t>
@@ -41914,6 +43354,11 @@
 </t>
         </is>
       </c>
+      <c r="L588" t="inlineStr">
+        <is>
+          <t>久方綜司</t>
+        </is>
+      </c>
       <c r="O588" t="inlineStr">
         <is>
           <t>圣女贞德</t>
@@ -41978,6 +43423,11 @@
 </t>
         </is>
       </c>
+      <c r="L589" t="inlineStr">
+        <is>
+          <t>久方綜司</t>
+        </is>
+      </c>
       <c r="O589" t="inlineStr">
         <is>
           <t>圣女贞德</t>
@@ -42041,6 +43491,11 @@
 【守護】
 《ファンファーレ》自分の他のフォロワー1体を選ぶ。それは《攻撃力》+4/《体力》+3して、【指定攻撃】を持つ。
 </t>
+        </is>
+      </c>
+      <c r="L590" t="inlineStr">
+        <is>
+          <t>久方綜司</t>
         </is>
       </c>
       <c r="O590" t="inlineStr">
@@ -42109,6 +43564,11 @@
 </t>
         </is>
       </c>
+      <c r="L591" t="inlineStr">
+        <is>
+          <t>虫麻呂</t>
+        </is>
+      </c>
       <c r="O591" t="inlineStr">
         <is>
           <t>路西法</t>
@@ -42174,6 +43634,11 @@
 </t>
         </is>
       </c>
+      <c r="L592" t="inlineStr">
+        <is>
+          <t>虫麻呂</t>
+        </is>
+      </c>
       <c r="O592" t="inlineStr">
         <is>
           <t>路西法</t>
@@ -42303,6 +43768,11 @@
 </t>
         </is>
       </c>
+      <c r="L594" t="inlineStr">
+        <is>
+          <t>liiko</t>
+        </is>
+      </c>
       <c r="O594" t="inlineStr">
         <is>
           <t>蔷薇的猛击</t>
@@ -42360,6 +43830,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="L595" t="inlineStr">
+        <is>
+          <t>修</t>
+        </is>
+      </c>
       <c r="O595" t="inlineStr">
         <is>
           <t>妖精萤火</t>
@@ -42417,6 +43892,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="L596" t="inlineStr">
+        <is>
+          <t>カイエダヒロシ</t>
+        </is>
+      </c>
       <c r="O596" t="inlineStr">
         <is>
           <t>妖精</t>
@@ -42538,6 +44018,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="L598" t="inlineStr">
+        <is>
+          <t>hikaru</t>
+        </is>
+      </c>
       <c r="O598" t="inlineStr">
         <is>
           <t>骑士</t>
@@ -42723,6 +44208,11 @@
 </t>
         </is>
       </c>
+      <c r="L601" t="inlineStr">
+        <is>
+          <t>Siswanto Budi Cahyono</t>
+        </is>
+      </c>
       <c r="O601" t="inlineStr">
         <is>
           <t>攻击型巨像</t>
@@ -42785,6 +44275,11 @@
           <t xml:space="preserve">
 【守護】
 </t>
+        </is>
+      </c>
+      <c r="L602" t="inlineStr">
+        <is>
+          <t>Siswanto Budi Cahyono</t>
         </is>
       </c>
       <c r="O602" t="inlineStr">
@@ -42854,6 +44349,11 @@
 </t>
         </is>
       </c>
+      <c r="L603" t="inlineStr">
+        <is>
+          <t>永守浩太</t>
+        </is>
+      </c>
       <c r="O603" t="inlineStr">
         <is>
           <t>大地之魔片</t>
@@ -42975,6 +44475,11 @@
 </t>
         </is>
       </c>
+      <c r="L605" t="inlineStr">
+        <is>
+          <t>虫麻呂</t>
+        </is>
+      </c>
       <c r="O605" t="inlineStr">
         <is>
           <t>米米</t>
@@ -43039,6 +44544,11 @@
 </t>
         </is>
       </c>
+      <c r="L606" t="inlineStr">
+        <is>
+          <t>虫麻呂</t>
+        </is>
+      </c>
       <c r="O606" t="inlineStr">
         <is>
           <t>可可</t>
@@ -43104,6 +44614,11 @@
 </t>
         </is>
       </c>
+      <c r="L607" t="inlineStr">
+        <is>
+          <t>銀</t>
+        </is>
+      </c>
       <c r="O607" t="inlineStr">
         <is>
           <t>怨灵</t>
@@ -43161,6 +44676,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="L608" t="inlineStr">
+        <is>
+          <t>米谷尚展</t>
+        </is>
+      </c>
       <c r="O608" t="inlineStr">
         <is>
           <t>丛林蝙蝠</t>
@@ -43225,6 +44745,11 @@
 </t>
         </is>
       </c>
+      <c r="L609" t="inlineStr">
+        <is>
+          <t>ねじ太</t>
+        </is>
+      </c>
       <c r="O609" t="inlineStr">
         <is>
           <t>神圣猎鹰</t>
@@ -43289,6 +44814,11 @@
 </t>
         </is>
       </c>
+      <c r="L610" t="inlineStr">
+        <is>
+          <t>永守浩太</t>
+        </is>
+      </c>
       <c r="O610" t="inlineStr">
         <is>
           <t>神圣猛虎</t>
@@ -43354,6 +44884,11 @@
 </t>
         </is>
       </c>
+      <c r="L611" t="inlineStr">
+        <is>
+          <t>久方綜司</t>
+        </is>
+      </c>
       <c r="M611" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-T01 </t>
@@ -43426,6 +44961,11 @@
           <t xml:space="preserve">
 【進化時】『乙姫お守り隊』3枚を、場が上限になるまで出す。残りをEXエリアに置く。
 </t>
+        </is>
+      </c>
+      <c r="L612" t="inlineStr">
+        <is>
+          <t>ぽんず</t>
         </is>
       </c>
       <c r="M612" t="inlineStr">
@@ -43499,6 +45039,11 @@
 </t>
         </is>
       </c>
+      <c r="L613" t="inlineStr">
+        <is>
+          <t>えなれいん</t>
+        </is>
+      </c>
       <c r="M613" t="inlineStr">
         <is>
           <t xml:space="preserve">BP01-T08 BP01-T09 BP01-T10 </t>
@@ -43571,6 +45116,11 @@
           <t xml:space="preserve">
 【疾走】【オーラ】
 </t>
+        </is>
+      </c>
+      <c r="L614" t="inlineStr">
+        <is>
+          <t>虫麻呂</t>
         </is>
       </c>
       <c r="O614" t="inlineStr">
@@ -43640,6 +45190,11 @@
 </t>
         </is>
       </c>
+      <c r="L615" t="inlineStr">
+        <is>
+          <t>久方綜司</t>
+        </is>
+      </c>
       <c r="N615" t="inlineStr">
         <is>
           <t xml:space="preserve">217 </t>
@@ -43709,6 +45264,11 @@
 </t>
         </is>
       </c>
+      <c r="L616" t="inlineStr">
+        <is>
+          <t>久方綜司</t>
+        </is>
+      </c>
       <c r="O616" t="inlineStr">
         <is>
           <t>圣女贞德</t>
@@ -43774,9 +45334,1628 @@
 </t>
         </is>
       </c>
+      <c r="L617" t="inlineStr">
+        <is>
+          <t>久方綜司</t>
+        </is>
+      </c>
       <c r="O617" t="inlineStr">
         <is>
           <t>加百列</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>PR-000</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>ファイター</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>ニュートラル</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>フォロワー</t>
+        </is>
+      </c>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>傭兵</t>
+        </is>
+      </c>
+      <c r="F618" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="G618" t="inlineStr">
+        <is>
+          <t>PRカード</t>
+        </is>
+      </c>
+      <c r="H618" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I618" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J618" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O618" t="inlineStr">
+        <is>
+          <t>剑斗士</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>PR-001</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>エンジェルスナイプ</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>ニュートラル</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>スペル</t>
+        </is>
+      </c>
+      <c r="E619" t="inlineStr">
+        <is>
+          <t>天使</t>
+        </is>
+      </c>
+      <c r="F619" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="G619" t="inlineStr">
+        <is>
+          <t>PRカード</t>
+        </is>
+      </c>
+      <c r="H619" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I619" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J619" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+《クイック》
+相手のフォロワー1体を選ぶ。それに2ダメージ。
+</t>
+        </is>
+      </c>
+      <c r="O619" t="inlineStr">
+        <is>
+          <t>天使的圣箭</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>PR-002</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>エンジェルバレッジ</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>ニュートラル</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>スペル</t>
+        </is>
+      </c>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t>天使</t>
+        </is>
+      </c>
+      <c r="F620" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="G620" t="inlineStr">
+        <is>
+          <t>PRカード</t>
+        </is>
+      </c>
+      <c r="H620" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I620" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J620" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+《クイック》
+相手のフォロワーすべてに1ダメージ。
+</t>
+        </is>
+      </c>
+      <c r="O620" t="inlineStr">
+        <is>
+          <t>天使的箭雨</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>PR-004</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>エルフプリンセスメイジ</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>エルフ</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>フォロワー・エボルヴ</t>
+        </is>
+      </c>
+      <c r="E621" t="inlineStr">
+        <is>
+          <t>エルフ族・プリンセス</t>
+        </is>
+      </c>
+      <c r="F621" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="G621" t="inlineStr">
+        <is>
+          <t>PRカード</t>
+        </is>
+      </c>
+      <c r="H621" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I621" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J621" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+【進化時】『フェアリーウィスプ』2枚をEXエリアに置く。
+</t>
+        </is>
+      </c>
+      <c r="L621" t="inlineStr">
+        <is>
+          <t>四々九</t>
+        </is>
+      </c>
+      <c r="M621" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BP01-009 BP01-T02 </t>
+        </is>
+      </c>
+      <c r="O621" t="inlineStr">
+        <is>
+          <t>魔法精灵公主</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>PR-006</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>フローラルフェンサー</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>ロイヤル</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>フォロワー・エボルヴ</t>
+        </is>
+      </c>
+      <c r="E622" t="inlineStr">
+        <is>
+          <t>兵士</t>
+        </is>
+      </c>
+      <c r="F622" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="G622" t="inlineStr">
+        <is>
+          <t>PRカード</t>
+        </is>
+      </c>
+      <c r="H622" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I622" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J622" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+【進化時】『スティールナイト』1体と『ナイト』1体を出す。
+</t>
+        </is>
+      </c>
+      <c r="L622" t="inlineStr">
+        <is>
+          <t>LM7</t>
+        </is>
+      </c>
+      <c r="M622" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SD02-003 SD02-T01 SD02-T02 </t>
+        </is>
+      </c>
+      <c r="N622" t="inlineStr">
+        <is>
+          <t xml:space="preserve">66 </t>
+        </is>
+      </c>
+      <c r="O622" t="inlineStr">
+        <is>
+          <t>华丽的花园剑士</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>PR-007</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>錬金工房</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>ウィッチ</t>
+        </is>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>アミュレット</t>
+        </is>
+      </c>
+      <c r="E623" t="inlineStr">
+        <is>
+          <t>土の印</t>
+        </is>
+      </c>
+      <c r="F623" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="G623" t="inlineStr">
+        <is>
+          <t>PRカード</t>
+        </is>
+      </c>
+      <c r="H623" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I623" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J623" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+【スタック】
+《ファンファーレ》『攻撃型ゴーレム』1体を出す。
+</t>
+        </is>
+      </c>
+      <c r="L623" t="inlineStr">
+        <is>
+          <t>巻</t>
+        </is>
+      </c>
+      <c r="M623" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BP01-T08 </t>
+        </is>
+      </c>
+      <c r="O623" t="inlineStr">
+        <is>
+          <t>炼金工房</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>PR-009</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>ドラゴンウォーリア</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>ドラゴン</t>
+        </is>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>フォロワー・エボルヴ</t>
+        </is>
+      </c>
+      <c r="E624" t="inlineStr">
+        <is>
+          <t>竜族</t>
+        </is>
+      </c>
+      <c r="F624" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="G624" t="inlineStr">
+        <is>
+          <t>PRカード</t>
+        </is>
+      </c>
+      <c r="H624" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I624" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J624" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+【進化時】相手のフォロワー1体を選ぶ。それに3ダメージ。
+</t>
+        </is>
+      </c>
+      <c r="L624" t="inlineStr">
+        <is>
+          <t>honart</t>
+        </is>
+      </c>
+      <c r="M624" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SD04-003 </t>
+        </is>
+      </c>
+      <c r="O624" t="inlineStr">
+        <is>
+          <t>龙族勇士</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>PR-010</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>竜の託宣</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>ドラゴン</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>スペル</t>
+        </is>
+      </c>
+      <c r="E625" t="inlineStr">
+        <is>
+          <t>竜族</t>
+        </is>
+      </c>
+      <c r="F625" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="G625" t="inlineStr">
+        <is>
+          <t>PRカード</t>
+        </is>
+      </c>
+      <c r="H625" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I625" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J625" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+下記から1つチョイスする。【1】自分のPP最大値を+1する。【2】1枚引く。
+</t>
+        </is>
+      </c>
+      <c r="L625" t="inlineStr">
+        <is>
+          <t>mstk</t>
+        </is>
+      </c>
+      <c r="N625" t="inlineStr">
+        <is>
+          <t xml:space="preserve">298 102 101 </t>
+        </is>
+      </c>
+      <c r="O625" t="inlineStr">
+        <is>
+          <t>龙之启示</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>PR-011</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>リリム</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>ナイトメア</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>フォロワー・エボルヴ</t>
+        </is>
+      </c>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t>魔界</t>
+        </is>
+      </c>
+      <c r="F626" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="G626" t="inlineStr">
+        <is>
+          <t>PRカード</t>
+        </is>
+      </c>
+      <c r="H626" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I626" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J626" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+【攻撃時】自分のリーダーは《体力》+2する。
+</t>
+        </is>
+      </c>
+      <c r="M626" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SD05-012 </t>
+        </is>
+      </c>
+      <c r="N626" t="inlineStr">
+        <is>
+          <t xml:space="preserve">122 </t>
+        </is>
+      </c>
+      <c r="O626" t="inlineStr">
+        <is>
+          <t>莉莉姆</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>PR-013</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>鉄槌の僧侶</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>ビショップ</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>フォロワー・エボルヴ</t>
+        </is>
+      </c>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>信仰</t>
+        </is>
+      </c>
+      <c r="F627" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="G627" t="inlineStr">
+        <is>
+          <t>PRカード</t>
+        </is>
+      </c>
+      <c r="H627" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I627" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J627" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+【進化時】体力3以下の相手のフォロワー1体を選ぶ。それを消滅させる。
+</t>
+        </is>
+      </c>
+      <c r="M627" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SD06-003 </t>
+        </is>
+      </c>
+      <c r="O627" t="inlineStr">
+        <is>
+          <t>持矛锤的僧侣</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>PR-015</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>エクスキューション</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>ニュートラル</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>スペル</t>
+        </is>
+      </c>
+      <c r="E628" t="inlineStr">
+        <is>
+          <t>悪魔</t>
+        </is>
+      </c>
+      <c r="F628" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="G628" t="inlineStr">
+        <is>
+          <t>PRカード</t>
+        </is>
+      </c>
+      <c r="H628" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I628" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J628" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+《クイック》
+相手の場のカード1枚を選ぶ。それを破壊する。
+</t>
+        </is>
+      </c>
+      <c r="L628" t="inlineStr">
+        <is>
+          <t>tricky胡坐</t>
+        </is>
+      </c>
+      <c r="O628" t="inlineStr">
+        <is>
+          <t>处决</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>PR-016</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>光の道筋</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>ニュートラル</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>スペル</t>
+        </is>
+      </c>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t>光輝</t>
+        </is>
+      </c>
+      <c r="F629" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="G629" t="inlineStr">
+        <is>
+          <t>PRカード</t>
+        </is>
+      </c>
+      <c r="H629" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I629" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J629" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+これを自分の手札から捨てたとき、1枚引く。
+----------
+1枚引く。
+</t>
+        </is>
+      </c>
+      <c r="N629" t="inlineStr">
+        <is>
+          <t xml:space="preserve">270 245 242 </t>
+        </is>
+      </c>
+      <c r="O629" t="inlineStr">
+        <is>
+          <t>光明之路</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>PR-017</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>ラプラス・ダークネス</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>ナイトメア</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>リーダー</t>
+        </is>
+      </c>
+      <c r="F630" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="G630" t="inlineStr">
+        <is>
+          <t>PRカード</t>
+        </is>
+      </c>
+      <c r="H630" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I630" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J630" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O630" t="inlineStr">
+        <is>
+          <t>拉普拉斯・达克尼斯</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>PR-018</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>デモンストライク</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>ニュートラル</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>スペル</t>
+        </is>
+      </c>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>悪魔</t>
+        </is>
+      </c>
+      <c r="F631" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="G631" t="inlineStr">
+        <is>
+          <t>PRカード</t>
+        </is>
+      </c>
+      <c r="H631" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I631" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J631" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+相手のリーダー1人か相手のフォロワー1体を選ぶ。それに3ダメージ。
+</t>
+        </is>
+      </c>
+      <c r="O631" t="inlineStr">
+        <is>
+          <t>恶魔冲击波</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>PR-019</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>エルフバード</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>エルフ</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>フォロワー</t>
+        </is>
+      </c>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t>エルフ族</t>
+        </is>
+      </c>
+      <c r="F632" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="G632" t="inlineStr">
+        <is>
+          <t>PRカード</t>
+        </is>
+      </c>
+      <c r="H632" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I632" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J632" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+自分のフォロワーが進化したとき、『フェアリーウィスプ』1枚をEXエリアに置く。
+</t>
+        </is>
+      </c>
+      <c r="M632" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BP02-T10 </t>
+        </is>
+      </c>
+      <c r="O632" t="inlineStr">
+        <is>
+          <t>精灵吟游诗人</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>PR-020</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>アドバンスブレーダー</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>ロイヤル</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>フォロワー・エボルヴ</t>
+        </is>
+      </c>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t>指揮官</t>
+        </is>
+      </c>
+      <c r="F633" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="G633" t="inlineStr">
+        <is>
+          <t>PRカード</t>
+        </is>
+      </c>
+      <c r="H633" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I633" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J633" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+【進化時】自分のデッキから兵士・フォロワー2枚まで探し、手札に加える。
+</t>
+        </is>
+      </c>
+      <c r="L633" t="inlineStr">
+        <is>
+          <t>irua</t>
+        </is>
+      </c>
+      <c r="M633" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BP02-032 </t>
+        </is>
+      </c>
+      <c r="O633" t="inlineStr">
+        <is>
+          <t>破阵之刃</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>PR-021</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>炎の握撃</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>ウィッチ</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>スペル</t>
+        </is>
+      </c>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t>魔法使い</t>
+        </is>
+      </c>
+      <c r="F634" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="G634" t="inlineStr">
+        <is>
+          <t>PRカード</t>
+        </is>
+      </c>
+      <c r="H634" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I634" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J634" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+《クイック》
+相手のフォロワー1体を選ぶ。それを破壊する。【スペルチェイン_10】それのリーダーに3ダメージ。
+</t>
+        </is>
+      </c>
+      <c r="L634" t="inlineStr">
+        <is>
+          <t>Shukei</t>
+        </is>
+      </c>
+      <c r="N634" t="inlineStr">
+        <is>
+          <t xml:space="preserve">266 94 </t>
+        </is>
+      </c>
+      <c r="O634" t="inlineStr">
+        <is>
+          <t>火炎粉碎术</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>PR-022</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>炎熱の術式</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>ウィッチ</t>
+        </is>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>アミュレット</t>
+        </is>
+      </c>
+      <c r="E635" t="inlineStr">
+        <is>
+          <t>土の印</t>
+        </is>
+      </c>
+      <c r="F635" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="G635" t="inlineStr">
+        <is>
+          <t>PRカード</t>
+        </is>
+      </c>
+      <c r="H635" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I635" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J635" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+【スタック】
+《ファンファーレ》相手のフォロワー1体を選ぶ。それに3ダメージ。
+</t>
+        </is>
+      </c>
+      <c r="L635" t="inlineStr">
+        <is>
+          <t>RESS</t>
+        </is>
+      </c>
+      <c r="O635" t="inlineStr">
+        <is>
+          <t>灼热的术式</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>PR-023</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>ドラゴンテイマー</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>ドラゴン</t>
+        </is>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>フォロワー・エボルヴ</t>
+        </is>
+      </c>
+      <c r="E636" t="inlineStr">
+        <is>
+          <t>竜使い</t>
+        </is>
+      </c>
+      <c r="F636" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="G636" t="inlineStr">
+        <is>
+          <t>PRカード</t>
+        </is>
+      </c>
+      <c r="H636" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I636" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J636" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+【進化時】手札1枚を捨てる：自分の墓場の竜族・フォロワー1枚を選ぶ。それを手札に加える。
+</t>
+        </is>
+      </c>
+      <c r="L636" t="inlineStr">
+        <is>
+          <t>hikaru</t>
+        </is>
+      </c>
+      <c r="M636" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BP02-065 </t>
+        </is>
+      </c>
+      <c r="N636" t="inlineStr">
+        <is>
+          <t xml:space="preserve">303 </t>
+        </is>
+      </c>
+      <c r="O636" t="inlineStr">
+        <is>
+          <t>驯龙师</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>PR-024</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>ソウルコンバージョン</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>ナイトメア</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>スペル</t>
+        </is>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>死者</t>
+        </is>
+      </c>
+      <c r="F637" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="G637" t="inlineStr">
+        <is>
+          <t>PRカード</t>
+        </is>
+      </c>
+      <c r="H637" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I637" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J637" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+《クイック》
+自分のフォロワー1体を選ぶ。それを破壊する。2枚引く。
+</t>
+        </is>
+      </c>
+      <c r="L637" t="inlineStr">
+        <is>
+          <t>松吉</t>
+        </is>
+      </c>
+      <c r="N637" t="inlineStr">
+        <is>
+          <t xml:space="preserve">268 223 </t>
+        </is>
+      </c>
+      <c r="O637" t="inlineStr">
+        <is>
+          <t>灵魂转移</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>PR-025</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>ソウルミニデビル</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>ナイトメア</t>
+        </is>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>フォロワー</t>
+        </is>
+      </c>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t>魔界</t>
+        </is>
+      </c>
+      <c r="F638" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="G638" t="inlineStr">
+        <is>
+          <t>PRカード</t>
+        </is>
+      </c>
+      <c r="H638" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I638" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J638" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+自分のフォロワーが進化したとき、相手のリーダーすべてに2ダメージ。
+</t>
+        </is>
+      </c>
+      <c r="O638" t="inlineStr">
+        <is>
+          <t>迷你灵魔</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>PR-026</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>獣姫の呼び声</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>ビショップ</t>
+        </is>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>アミュレット</t>
+        </is>
+      </c>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t>信仰</t>
+        </is>
+      </c>
+      <c r="F639" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="G639" t="inlineStr">
+        <is>
+          <t>PRカード</t>
+        </is>
+      </c>
+      <c r="H639" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I639" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J639" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+《ファンファーレ》『ホーリーファルコン』1体を出す。
+《起動》《コスト2》これを《アクト》墓場に置く：『ホーリータイガー』1体を出す。
+</t>
+        </is>
+      </c>
+      <c r="L639" t="inlineStr">
+        <is>
+          <t>ヘスン</t>
+        </is>
+      </c>
+      <c r="M639" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BP02-T19 BP02-T20 </t>
+        </is>
+      </c>
+      <c r="O639" t="inlineStr">
+        <is>
+          <t>野兽公主的呼唤</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>PR-027</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>冥府への道</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>ニュートラル</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>アミュレット</t>
+        </is>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>魔王</t>
+        </is>
+      </c>
+      <c r="F640" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="G640" t="inlineStr">
+        <is>
+          <t>PRカード</t>
+        </is>
+      </c>
+      <c r="H640" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I640" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J640" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+自分のエンドフェイズが来たとき、自分のリーダーの《体力》6以下なら、これを《アクト》墓場に置く：相手のフォロワーすべてに6ダメージ。
+《ファンファーレ》3枚引く。自分のリーダーに3ダメージ。
+</t>
+        </is>
+      </c>
+      <c r="L640" t="inlineStr">
+        <is>
+          <t>相場良祐</t>
+        </is>
+      </c>
+      <c r="O640" t="inlineStr">
+        <is>
+          <t>冥府之路</t>
         </is>
       </c>
     </row>

--- a/docs/SVE_card_list.xlsx
+++ b/docs/SVE_card_list.xlsx
@@ -6871,6 +6871,11 @@
           <t xml:space="preserve">BP02-086 </t>
         </is>
       </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">332 </t>
+        </is>
+      </c>
       <c r="O86" t="inlineStr">
         <is>
           <t>享乐的恶魔</t>
@@ -7018,7 +7023,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t xml:space="preserve">332 313 </t>
+          <t xml:space="preserve">313 </t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -7182,7 +7187,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t xml:space="preserve">315 314 </t>
+          <t xml:space="preserve">343 342 341 315 314 </t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -7263,7 +7268,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t xml:space="preserve">315 </t>
+          <t xml:space="preserve">343 342 341 315 </t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -7419,7 +7424,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t xml:space="preserve">317 </t>
+          <t xml:space="preserve">344 317 </t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -13530,7 +13535,7 @@
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t xml:space="preserve">315 314 </t>
+          <t xml:space="preserve">343 342 341 315 314 </t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
@@ -13611,7 +13616,7 @@
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t xml:space="preserve">315 </t>
+          <t xml:space="preserve">343 342 341 315 </t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
@@ -25961,9 +25966,9 @@
       <c r="K348" t="inlineStr">
         <is>
           <t xml:space="preserve">
-《進化》《コスト0》：これは進化する。
+《進化》《コスト0》：これは進化する。
 【突進】
-《ファンファーレ》これは《攻撃力》+Xする。Xは「これを含めず、このターン中にプレイした枚数」である。
+《ファンファーレ》これは《攻撃力》+Xする。Xは「これを含めず、このターン中に自分がプレイしたカードの枚数」である。
 </t>
         </is>
       </c>
@@ -25979,7 +25984,7 @@
       </c>
       <c r="N348" t="inlineStr">
         <is>
-          <t xml:space="preserve">152 </t>
+          <t xml:space="preserve">339 338 152 </t>
         </is>
       </c>
       <c r="O348" t="inlineStr">
@@ -33897,7 +33902,7 @@
       </c>
       <c r="N455" t="inlineStr">
         <is>
-          <t xml:space="preserve">221 </t>
+          <t xml:space="preserve">340 221 </t>
         </is>
       </c>
       <c r="O455" t="inlineStr">
@@ -41240,7 +41245,7 @@
       </c>
       <c r="N559" t="inlineStr">
         <is>
-          <t xml:space="preserve">221 </t>
+          <t xml:space="preserve">340 221 </t>
         </is>
       </c>
       <c r="O559" t="inlineStr">
